--- a/TüfteltruheDatenbank Tabellengrundlage.xlsx
+++ b/TüfteltruheDatenbank Tabellengrundlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekte\Projekt Tüfteltruhe\Tüfteltruhe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D48716-457B-4D77-87C0-5F81A6F05EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A57A06-A8AE-4A80-B290-F51B9C510FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="690" windowWidth="27750" windowHeight="14070" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="690" windowWidth="27750" windowHeight="14070" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schiffstypen" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,11 @@
     <sheet name="Waffen" sheetId="2" r:id="rId5"/>
     <sheet name="Haendler" sheetId="3" r:id="rId6"/>
     <sheet name="Sondergewerbe" sheetId="7" r:id="rId7"/>
+    <sheet name="Waren" sheetId="8" r:id="rId8"/>
+    <sheet name="Kulturkontexte" sheetId="9" r:id="rId9"/>
+    <sheet name="HaendlerWaren" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="670">
   <si>
     <t xml:space="preserve">Schiffstyp </t>
   </si>
@@ -1471,6 +1474,576 @@
   </si>
   <si>
     <t>Groesse</t>
+  </si>
+  <si>
+    <t>Ware</t>
+  </si>
+  <si>
+    <t>Realwert</t>
+  </si>
+  <si>
+    <t>Gewicht</t>
+  </si>
+  <si>
+    <t>Dauer</t>
+  </si>
+  <si>
+    <t>Kulturkontexte</t>
+  </si>
+  <si>
+    <t>Verweis</t>
+  </si>
+  <si>
+    <t>Wurfpfeil</t>
+  </si>
+  <si>
+    <t>3 Tage</t>
+  </si>
+  <si>
+    <t>Mit Blei beschwert.</t>
+  </si>
+  <si>
+    <t>Jagdbogen</t>
+  </si>
+  <si>
+    <t>7 Tage</t>
+  </si>
+  <si>
+    <t>Leichter, für ungeschützte Ziele und Jagdpfeile geeigneter Bogen.</t>
+  </si>
+  <si>
+    <t>Stabbogen</t>
+  </si>
+  <si>
+    <t>Kurzer Bogen aus einem Stück.</t>
+  </si>
+  <si>
+    <t>Langbogen</t>
+  </si>
+  <si>
+    <t>10 Tage</t>
+  </si>
+  <si>
+    <t>Mannshoher Bogen aus einem Stück.</t>
+  </si>
+  <si>
+    <t>Kompositbogen</t>
+  </si>
+  <si>
+    <t>3 Wochen</t>
+  </si>
+  <si>
+    <t>Bogen mit nach außen gekrümmten Wurfarmen.</t>
+  </si>
+  <si>
+    <t>Armbrust</t>
+  </si>
+  <si>
+    <t>4 Wochen</t>
+  </si>
+  <si>
+    <t>Bogenähnliche Konstruktion mit horizontalen Spannarmen und Vorrichtung zur Speicherung von Spannenergie. In Borea weitgehend unbekannte Technologie.</t>
+  </si>
+  <si>
+    <t>Speerschleuder</t>
+  </si>
+  <si>
+    <t>8 Stunden</t>
+  </si>
+  <si>
+    <t>Einfacher Schleuderstab zur Verlängerung des Wurfarms und damit der Wurfenergie und -reichweite.</t>
+  </si>
+  <si>
+    <t>Wurfpfeilschleuder</t>
+  </si>
+  <si>
+    <t>Köcher</t>
+  </si>
+  <si>
+    <t>Fasst 40 Pfeile oder 5 Wurfspeere.</t>
+  </si>
+  <si>
+    <t>Sattelköcher</t>
+  </si>
+  <si>
+    <t>Fasst 60 Pfeile oder 8 Wurfspeere.</t>
+  </si>
+  <si>
+    <t>Gürtelköcher</t>
+  </si>
+  <si>
+    <t>1 Tag</t>
+  </si>
+  <si>
+    <t>Fasst 15 Pfeile.</t>
+  </si>
+  <si>
+    <t>Pfeilschaft</t>
+  </si>
+  <si>
+    <t>Befiederter Schaft ohne Spitze</t>
+  </si>
+  <si>
+    <t>Eisenspitze</t>
+  </si>
+  <si>
+    <t>Fertige Pfeilspitze ohne Schaft. Eine Variante (Breitkopf-, Jagd-, Stumpf, Spitz) kostet 50% zusätzlich.</t>
+  </si>
+  <si>
+    <t>Bronzespitze</t>
+  </si>
+  <si>
+    <t>Kupferspitze</t>
+  </si>
+  <si>
+    <t>Feuersteinspitze</t>
+  </si>
+  <si>
+    <t>2 Tage</t>
+  </si>
+  <si>
+    <t>Fertige Jagdpfeilspitze ohne Schaft. Eine Variante (Breitkopf-, Normal, Stumpf, Spitz) kostet 50% zusätzlich.</t>
+  </si>
+  <si>
+    <t>Knochenspitze</t>
+  </si>
+  <si>
+    <t>Obsidianspitze</t>
+  </si>
+  <si>
+    <t>Pfeil (Eisen)</t>
+  </si>
+  <si>
+    <t>Ein dünner für die Verwendung mit Bögen konzipierter Schaft mit Spitze und Befiederung. Eine Variante (Breitkopf-, Jagd-, Stumpf, Spitz) kostet 50% zusätzlich.</t>
+  </si>
+  <si>
+    <t>Pfeil (Bronze)</t>
+  </si>
+  <si>
+    <t>Pfeil (Kupfer)</t>
+  </si>
+  <si>
+    <t>Pfeil (Feuerstein)</t>
+  </si>
+  <si>
+    <t>Pfeil (Knochen)</t>
+  </si>
+  <si>
+    <t>Pfeil (Obsidian)</t>
+  </si>
+  <si>
+    <t>Bolzen (Eisen)</t>
+  </si>
+  <si>
+    <t>Ein kurzer dicker, für die Verwendung mit Armbrüsten konzipierter Pfeil.</t>
+  </si>
+  <si>
+    <t>Bolzen (Bronze)</t>
+  </si>
+  <si>
+    <t>Bolzen (Obsidian)</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeit</t>
+  </si>
+  <si>
+    <t>Adamant (Pfeile)</t>
+  </si>
+  <si>
+    <t>Asterium (Pfeile)</t>
+  </si>
+  <si>
+    <t>Reiterlanze</t>
+  </si>
+  <si>
+    <t>Lange, schwere Lanze für Kavalleristen.</t>
+  </si>
+  <si>
+    <t>Spieß</t>
+  </si>
+  <si>
+    <t>Für den Nahkampf konzipierter Speer.</t>
+  </si>
+  <si>
+    <t>Knebelspieß</t>
+  </si>
+  <si>
+    <t>Spieß mit Querstange hinter der Spitze.</t>
+  </si>
+  <si>
+    <t>Dreizack</t>
+  </si>
+  <si>
+    <t>4 Tage</t>
+  </si>
+  <si>
+    <t>Spieß mit einer dreiteiligen Spitze.</t>
+  </si>
+  <si>
+    <t>Langspieß</t>
+  </si>
+  <si>
+    <t>Für die Phalanx konzipierter sehr langer Spieß.</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Flexibler und nahkampfgeeigneter Wurfspeer.</t>
+  </si>
+  <si>
+    <t>Leichter Wurfspeer</t>
+  </si>
+  <si>
+    <t>Dünner kurzer Wurfspeer.</t>
+  </si>
+  <si>
+    <t>Schwerer Wurfspeer</t>
+  </si>
+  <si>
+    <t>Stärkerer, längerer Wurfspeer.</t>
+  </si>
+  <si>
+    <t>Pilum</t>
+  </si>
+  <si>
+    <t>2 Tag</t>
+  </si>
+  <si>
+    <t>Wurfspeer mit für das Verbiegen konzipierter dünner Spitze, die damit schnelle Wiederverwendung verhindern und feindliche Schilde untauglich machen soll.</t>
+  </si>
+  <si>
+    <t>Kriegssense</t>
+  </si>
+  <si>
+    <t>Langer Stab mit einer länglichen nach vorne gebogenen einseitigen Klinge.</t>
+  </si>
+  <si>
+    <t>Kriegsaxt</t>
+  </si>
+  <si>
+    <t>Gegen Schilde und Formationen konzipierte lange zweihändig verwendete Axt.</t>
+  </si>
+  <si>
+    <t>Kriegssichel</t>
+  </si>
+  <si>
+    <t>Kurzer Stab mit einer länglichen nach vorne gebogenen einseitigen Klinge (55-75 cm).</t>
+  </si>
+  <si>
+    <t>Glefe</t>
+  </si>
+  <si>
+    <t>Langer Stab mit einer länglichen zweischneidigen, wuchtigen und breiten, aber geraden Klinge.</t>
+  </si>
+  <si>
+    <t>Helmbarte</t>
+  </si>
+  <si>
+    <t>Langer Spieß mit einem dünnen Axtkopf unterhalb der Spitze.</t>
+  </si>
+  <si>
+    <t>Kriegsbeil</t>
+  </si>
+  <si>
+    <t>Für den Nahkampf konzipiertes einhändiges Beil.</t>
+  </si>
+  <si>
+    <t>Wurfbeil</t>
+  </si>
+  <si>
+    <t>Für das Werfen konzipiertes Beil.</t>
+  </si>
+  <si>
+    <t>Reiterbeil</t>
+  </si>
+  <si>
+    <t>Für Kavalleristen konzipiertes dünnes Beil mit einem sehr kleinen Kopf.</t>
+  </si>
+  <si>
+    <t>Streitkolben</t>
+  </si>
+  <si>
+    <t>Kurzer Stab mit einem wuchtigen Metallkopf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krummschwert </t>
+  </si>
+  <si>
+    <t>Für Hiebangriffe konzipiertes Schwert mit leicht nach vorne gebogener oder abgeknickter einseitiger Klinge und Handschutz.</t>
+  </si>
+  <si>
+    <t>Langschwert</t>
+  </si>
+  <si>
+    <t>Langes Schwert (60-80 cm).</t>
+  </si>
+  <si>
+    <t>Säbel</t>
+  </si>
+  <si>
+    <t>Nach hinten gebogenes Schwert (45-65 cm).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sichelschwert </t>
+  </si>
+  <si>
+    <t>Blattschwert</t>
+  </si>
+  <si>
+    <t>Für Hiebangriffe konzipiertes Schwert mit nach vorne breiter werdender Klinge.</t>
+  </si>
+  <si>
+    <t>Hakenschwert</t>
+  </si>
+  <si>
+    <t>Stark gebogenes sichelförmiges Kurzschwert.</t>
+  </si>
+  <si>
+    <t>Dolch</t>
+  </si>
+  <si>
+    <t>Zum Stechen konzipiertes zweischneidiges Messer (10-20 cm).</t>
+  </si>
+  <si>
+    <t>Kurzschwert</t>
+  </si>
+  <si>
+    <t>Kurzes Schwert (30-40 cm).</t>
+  </si>
+  <si>
+    <t>Gladius</t>
+  </si>
+  <si>
+    <t>Zum Stechen konzipiertes zweischneidiges Schwert und das charakteristische Standardschwert der tromanischen Armee (45-55 cm).</t>
+  </si>
+  <si>
+    <t>Stichschwert</t>
+  </si>
+  <si>
+    <t>Langes schmales dolchähnliches und für das Stechen konzipiertes Schwert (30-50 cm).</t>
+  </si>
+  <si>
+    <t>Mondschild</t>
+  </si>
+  <si>
+    <t>Dünner und leichter Holzschild mit einer kleinen kreisförmigen Aussparung.</t>
+  </si>
+  <si>
+    <t>Kleiner Rundschild</t>
+  </si>
+  <si>
+    <t>Runder Holzschild mit metallenem Schildbuckel.</t>
+  </si>
+  <si>
+    <t>Ovalschild</t>
+  </si>
+  <si>
+    <t>Sechseckschild</t>
+  </si>
+  <si>
+    <t>Sechseckiger und leicht länglicher Holzschild mit metallenem Schildbuckel.</t>
+  </si>
+  <si>
+    <t>Großer Rundschild</t>
+  </si>
+  <si>
+    <t>Gewölbter Schild</t>
+  </si>
+  <si>
+    <t>Schwerer mit dünnem Metall überzogener und deutlich gewölbter Rundschild.</t>
+  </si>
+  <si>
+    <t>Langschild</t>
+  </si>
+  <si>
+    <t>Schwerer und länglicher mit dünnem Metall überzogener Rundschild.</t>
+  </si>
+  <si>
+    <t>Turmschild</t>
+  </si>
+  <si>
+    <t>Rechteckiger und an vertikaler Achse stark gewölbter schwerer Holzschild mit metallenem Schildbuckel.</t>
+  </si>
+  <si>
+    <t>Für Hiebangriffe konzipiertes Schwert mit sichelförmigem Ende (50-70 cm).</t>
+  </si>
+  <si>
+    <t>Ovaler und leicht länglicher Holzschild mit metallenem Schildbuckel.</t>
+  </si>
+  <si>
+    <t>Großer und schwerer Rundschild aus Holz mit metallenem Schildbuckel.</t>
+  </si>
+  <si>
+    <t>(Sollte nicht angezeigt werden.)</t>
+  </si>
+  <si>
+    <t>(+++Individuelle Häufigkeit pro Ware)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Litaker, Ponaken, Ellemanen, Anoliter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hochelfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anoliter, Sarkaten, Ellemanen, Mittelmenschen, Grasmenschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warukenen, Skenden, Bretagen, Norier, Gelmanen, Elser, Doreten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ellemanen, Takaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ellemanen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warukenen, Norukenen, Skenden, Doreten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Litaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Doreten, Takaten, Bergorks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Norukenen, Kunesen, Skenden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Norukenen, Skenden, Doreten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sarkaten, Skenden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anoliter, Hochelfen, Bergorks, Mittelmenschen, Sandmenschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ellemanen, Ponaken, Ibenen, Elser, Takaten</t>
+  </si>
+  <si>
+    <t>Bergorks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mittelmenschen, Grasmenschen, Hochelfen, Küstenorks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anoliter, Bergorks, Mittelmenschen, Sandmenschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ellemanen, Litaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ellemanen, Atlanter, Anoliter, Ponaken, Takaten, Mittelmenschen, Sandmenschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alle außer… +++</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warukenen, Norukenen, Skenden, Kunesen, Bretagen, Norier, Gelmanen, Ibenen, Doreten, Grasmenschen</t>
+  </si>
+  <si>
+    <t>Litaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sarkaten, Ellemanen, Ponaken, Litaker, Elser, Takaten, Doreten, Anoliter, Hochelfen, Mittelmenschen, Sandmenschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ellemanen, Takaten, Elser, Ponaken, Anoliter, Mittelmenschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Skenden, Kunesen, Elser, Norier, Doreten, Bretagen, Ibenen, Litaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Litaker, Elser, Norier, Ibenen, Ponaken, Gelmanen, Takaten, Atlanter, Hochelfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warukenen, Norukenen, Skenden, Doreten, Norier, Ibenen, Gelmanen, Bretagen, Elser</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Norukenen, Warukenen, Skenden, Doreten, Takaten, Atlanter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ellemanen, Ponaken, Anoliter, Takaten, Atlanter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bretagen, Gelmanen, Ibenen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Litaker, Hochelfen, Küstenorks</t>
+  </si>
+  <si>
+    <t>Warukenen</t>
+  </si>
+  <si>
+    <t>Skenden</t>
+  </si>
+  <si>
+    <t>Bretagen</t>
+  </si>
+  <si>
+    <t>Norier</t>
+  </si>
+  <si>
+    <t>Gelmanen</t>
+  </si>
+  <si>
+    <t>Elser</t>
+  </si>
+  <si>
+    <t>Doreten</t>
+  </si>
+  <si>
+    <t>Takaten</t>
+  </si>
+  <si>
+    <t>Ellemanen</t>
+  </si>
+  <si>
+    <t>Norukenen</t>
+  </si>
+  <si>
+    <t>Kunesen</t>
+  </si>
+  <si>
+    <t>Sarkaten</t>
+  </si>
+  <si>
+    <t>Anoliter</t>
+  </si>
+  <si>
+    <t>Mittelmenschen</t>
+  </si>
+  <si>
+    <t>Sandmenschen</t>
+  </si>
+  <si>
+    <t>Ponaken</t>
+  </si>
+  <si>
+    <t>Ibenen</t>
+  </si>
+  <si>
+    <t>Grasmenschen</t>
+  </si>
+  <si>
+    <t>Küstenorks</t>
+  </si>
+  <si>
+    <t>Karglandorks</t>
+  </si>
+  <si>
+    <t>Waldelfen</t>
+  </si>
+  <si>
+    <t>Atlanter</t>
+  </si>
+  <si>
+    <t>Firser</t>
+  </si>
+  <si>
+    <t>Solonen</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +2222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1709,6 +2282,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2149,6 +2723,39 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EA9252-C5F6-413A-BBC0-234D35D669DA}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36DA9CD-FBD0-4FDA-BE1F-1017D9C8CC48}">
   <dimension ref="A1:E14"/>
@@ -7637,7 +8244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05800004-143D-4255-B486-12DE28E138CA}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C49" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -8846,4 +9453,2778 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0754075-E1C9-4F7F-9713-EA6023DF32F4}">
+  <dimension ref="A1:I106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69:H104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="145.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>615</v>
+      </c>
+      <c r="I2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>2.4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>490</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>3.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>498</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>617</v>
+      </c>
+      <c r="I6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>616</v>
+      </c>
+      <c r="I7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>504</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>504</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" t="s">
+        <v>507</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>0.8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>487</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1.2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>487</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" t="s">
+        <v>511</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0.4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>512</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" t="s">
+        <v>514</v>
+      </c>
+      <c r="D13">
+        <v>0.7</v>
+      </c>
+      <c r="E13">
+        <v>0.08</v>
+      </c>
+      <c r="F13" t="s">
+        <v>504</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" t="s">
+        <v>516</v>
+      </c>
+      <c r="D14">
+        <v>0.6</v>
+      </c>
+      <c r="E14">
+        <v>0.02</v>
+      </c>
+      <c r="F14" t="s">
+        <v>512</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" t="s">
+        <v>518</v>
+      </c>
+      <c r="D15">
+        <v>0.7</v>
+      </c>
+      <c r="E15">
+        <v>0.02</v>
+      </c>
+      <c r="F15" t="s">
+        <v>512</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16">
+        <v>0.4</v>
+      </c>
+      <c r="E16">
+        <v>0.02</v>
+      </c>
+      <c r="F16" t="s">
+        <v>512</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" t="s">
+        <v>520</v>
+      </c>
+      <c r="D17">
+        <v>0.35</v>
+      </c>
+      <c r="E17">
+        <v>0.02</v>
+      </c>
+      <c r="F17" t="s">
+        <v>521</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" t="s">
+        <v>523</v>
+      </c>
+      <c r="D18">
+        <v>0.3</v>
+      </c>
+      <c r="E18">
+        <v>0.02</v>
+      </c>
+      <c r="F18" t="s">
+        <v>512</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" t="s">
+        <v>524</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>0.02</v>
+      </c>
+      <c r="F19" t="s">
+        <v>495</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C20" t="s">
+        <v>525</v>
+      </c>
+      <c r="D20">
+        <v>1.4</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>512</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" t="s">
+        <v>527</v>
+      </c>
+      <c r="D21">
+        <v>1.5</v>
+      </c>
+      <c r="E21">
+        <v>0.1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>512</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" t="s">
+        <v>528</v>
+      </c>
+      <c r="D22">
+        <v>1.2</v>
+      </c>
+      <c r="E22">
+        <v>0.1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" t="s">
+        <v>529</v>
+      </c>
+      <c r="D23">
+        <v>1.3</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>512</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" t="s">
+        <v>530</v>
+      </c>
+      <c r="D24">
+        <v>1.25</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>512</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" t="s">
+        <v>531</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>495</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" t="s">
+        <v>532</v>
+      </c>
+      <c r="D26">
+        <v>1.7</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>512</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>616</v>
+      </c>
+      <c r="I26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" t="s">
+        <v>534</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0.1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>512</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>616</v>
+      </c>
+      <c r="I27" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" t="s">
+        <v>535</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>0.1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>495</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>616</v>
+      </c>
+      <c r="I28" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>307</v>
+      </c>
+      <c r="B29" t="s">
+        <v>537</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B30" t="s">
+        <v>538</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" t="s">
+        <v>539</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>4.5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>521</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" t="s">
+        <v>541</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>3.5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>512</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" t="s">
+        <v>543</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>487</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>618</v>
+      </c>
+      <c r="I33" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" t="s">
+        <v>545</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>546</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>619</v>
+      </c>
+      <c r="I34" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" t="s">
+        <v>548</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>546</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35" t="s">
+        <v>620</v>
+      </c>
+      <c r="I35" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C36" t="s">
+        <v>550</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>512</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>621</v>
+      </c>
+      <c r="I36" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" t="s">
+        <v>552</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>1.5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>512</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38" t="s">
+        <v>554</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>2.5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>521</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" t="s">
+        <v>556</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>557</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>622</v>
+      </c>
+      <c r="I39" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" t="s">
+        <v>559</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>4.5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>487</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>623</v>
+      </c>
+      <c r="I40" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C41" t="s">
+        <v>561</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>487</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41" t="s">
+        <v>624</v>
+      </c>
+      <c r="I41" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" t="s">
+        <v>563</v>
+      </c>
+      <c r="D42">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>3.5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>487</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>623</v>
+      </c>
+      <c r="I42" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" t="s">
+        <v>565</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>521</v>
+      </c>
+      <c r="G43">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>616</v>
+      </c>
+      <c r="I43" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" t="s">
+        <v>567</v>
+      </c>
+      <c r="D44">
+        <v>28</v>
+      </c>
+      <c r="E44">
+        <v>5.5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>487</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44" t="s">
+        <v>616</v>
+      </c>
+      <c r="I44" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" t="s">
+        <v>569</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>521</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="I45" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" t="s">
+        <v>571</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>1.5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>521</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+      <c r="H46" t="s">
+        <v>625</v>
+      </c>
+      <c r="I46" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" t="s">
+        <v>573</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>521</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47" t="s">
+        <v>626</v>
+      </c>
+      <c r="I47" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" t="s">
+        <v>575</v>
+      </c>
+      <c r="D48">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>521</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>627</v>
+      </c>
+      <c r="I48" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" t="s">
+        <v>577</v>
+      </c>
+      <c r="D49">
+        <v>36</v>
+      </c>
+      <c r="E49">
+        <v>2.5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>512</v>
+      </c>
+      <c r="G49">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>628</v>
+      </c>
+      <c r="I49" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" t="s">
+        <v>579</v>
+      </c>
+      <c r="D50">
+        <v>70</v>
+      </c>
+      <c r="E50">
+        <v>3.5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>521</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+      <c r="H50" t="s">
+        <v>634</v>
+      </c>
+      <c r="I50" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>274</v>
+      </c>
+      <c r="C51" t="s">
+        <v>581</v>
+      </c>
+      <c r="D51">
+        <v>42</v>
+      </c>
+      <c r="E51">
+        <v>2.5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>521</v>
+      </c>
+      <c r="G51">
+        <v>8</v>
+      </c>
+      <c r="H51" t="s">
+        <v>630</v>
+      </c>
+      <c r="I51" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" t="s">
+        <v>583</v>
+      </c>
+      <c r="D52">
+        <v>36</v>
+      </c>
+      <c r="E52">
+        <v>2.5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>512</v>
+      </c>
+      <c r="G52">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
+        <v>631</v>
+      </c>
+      <c r="I52" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" t="s">
+        <v>584</v>
+      </c>
+      <c r="D53">
+        <v>34</v>
+      </c>
+      <c r="E53">
+        <v>2.5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="I53" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" t="s">
+        <v>586</v>
+      </c>
+      <c r="D54">
+        <v>24</v>
+      </c>
+      <c r="E54">
+        <v>1.8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>487</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>632</v>
+      </c>
+      <c r="I54" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>274</v>
+      </c>
+      <c r="C55" t="s">
+        <v>588</v>
+      </c>
+      <c r="D55">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>0.8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>512</v>
+      </c>
+      <c r="G55">
+        <v>9</v>
+      </c>
+      <c r="I55" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C56" t="s">
+        <v>590</v>
+      </c>
+      <c r="D56">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F56" t="s">
+        <v>512</v>
+      </c>
+      <c r="G56">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>635</v>
+      </c>
+      <c r="I56" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>274</v>
+      </c>
+      <c r="C57" t="s">
+        <v>592</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <v>2.6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>512</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+      <c r="H57" t="s">
+        <v>622</v>
+      </c>
+      <c r="I57" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" t="s">
+        <v>594</v>
+      </c>
+      <c r="D58">
+        <v>28</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>487</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>637</v>
+      </c>
+      <c r="I58" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>274</v>
+      </c>
+      <c r="C59" t="s">
+        <v>596</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>512</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>638</v>
+      </c>
+      <c r="I59" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>274</v>
+      </c>
+      <c r="C60" t="s">
+        <v>598</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>521</v>
+      </c>
+      <c r="G60">
+        <v>7</v>
+      </c>
+      <c r="H60" t="s">
+        <v>639</v>
+      </c>
+      <c r="I60" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" t="s">
+        <v>600</v>
+      </c>
+      <c r="D61">
+        <v>22</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>521</v>
+      </c>
+      <c r="G61">
+        <v>7</v>
+      </c>
+      <c r="H61" t="s">
+        <v>640</v>
+      </c>
+      <c r="I61" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>274</v>
+      </c>
+      <c r="C62" t="s">
+        <v>601</v>
+      </c>
+      <c r="D62">
+        <v>24</v>
+      </c>
+      <c r="E62">
+        <v>6.5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>487</v>
+      </c>
+      <c r="G62">
+        <v>7</v>
+      </c>
+      <c r="H62" t="s">
+        <v>641</v>
+      </c>
+      <c r="I62" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" t="s">
+        <v>603</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>8.5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>487</v>
+      </c>
+      <c r="G63">
+        <v>7</v>
+      </c>
+      <c r="H63" t="s">
+        <v>642</v>
+      </c>
+      <c r="I63" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>274</v>
+      </c>
+      <c r="C64" t="s">
+        <v>604</v>
+      </c>
+      <c r="D64">
+        <v>40</v>
+      </c>
+      <c r="E64">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>546</v>
+      </c>
+      <c r="G64">
+        <v>7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>643</v>
+      </c>
+      <c r="I64" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>274</v>
+      </c>
+      <c r="C65" t="s">
+        <v>606</v>
+      </c>
+      <c r="D65">
+        <v>32</v>
+      </c>
+      <c r="E65">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>487</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+      <c r="H65" t="s">
+        <v>644</v>
+      </c>
+      <c r="I65" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" t="s">
+        <v>608</v>
+      </c>
+      <c r="D66">
+        <v>28</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
+        <v>546</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>645</v>
+      </c>
+      <c r="I66" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>274</v>
+      </c>
+      <c r="B67" t="s">
+        <v>273</v>
+      </c>
+      <c r="G67">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68" t="s">
+        <v>299</v>
+      </c>
+      <c r="G68">
+        <v>8</v>
+      </c>
+      <c r="I68" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" t="s">
+        <v>539</v>
+      </c>
+      <c r="D69">
+        <v>34</v>
+      </c>
+      <c r="E69">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="F69" t="s">
+        <v>521</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="I69" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" t="s">
+        <v>541</v>
+      </c>
+      <c r="D70">
+        <v>28</v>
+      </c>
+      <c r="E70">
+        <v>4.2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>512</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+      <c r="I70" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" t="s">
+        <v>543</v>
+      </c>
+      <c r="D71">
+        <v>36</v>
+      </c>
+      <c r="E71">
+        <v>4.8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>487</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
+      </c>
+      <c r="H71" t="s">
+        <v>618</v>
+      </c>
+      <c r="I71" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" t="s">
+        <v>545</v>
+      </c>
+      <c r="D72">
+        <v>50</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>546</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72" t="s">
+        <v>619</v>
+      </c>
+      <c r="I72" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>273</v>
+      </c>
+      <c r="C73" t="s">
+        <v>548</v>
+      </c>
+      <c r="D73">
+        <v>64</v>
+      </c>
+      <c r="E73">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="F73" t="s">
+        <v>546</v>
+      </c>
+      <c r="G73">
+        <v>7</v>
+      </c>
+      <c r="H73" t="s">
+        <v>620</v>
+      </c>
+      <c r="I73" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>273</v>
+      </c>
+      <c r="C74" t="s">
+        <v>550</v>
+      </c>
+      <c r="D74">
+        <v>20</v>
+      </c>
+      <c r="E74">
+        <v>2.4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>512</v>
+      </c>
+      <c r="G74">
+        <v>9</v>
+      </c>
+      <c r="H74" t="s">
+        <v>621</v>
+      </c>
+      <c r="I74" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" t="s">
+        <v>552</v>
+      </c>
+      <c r="D75">
+        <v>16</v>
+      </c>
+      <c r="E75">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="F75" t="s">
+        <v>512</v>
+      </c>
+      <c r="G75">
+        <v>10</v>
+      </c>
+      <c r="I75" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>273</v>
+      </c>
+      <c r="C76" t="s">
+        <v>554</v>
+      </c>
+      <c r="D76">
+        <v>22</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>521</v>
+      </c>
+      <c r="G76">
+        <v>8</v>
+      </c>
+      <c r="I76" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>273</v>
+      </c>
+      <c r="C77" t="s">
+        <v>556</v>
+      </c>
+      <c r="D77">
+        <v>36</v>
+      </c>
+      <c r="E77">
+        <v>2.4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>557</v>
+      </c>
+      <c r="G77">
+        <v>8</v>
+      </c>
+      <c r="H77" t="s">
+        <v>622</v>
+      </c>
+      <c r="I77" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" t="s">
+        <v>559</v>
+      </c>
+      <c r="D78">
+        <v>40</v>
+      </c>
+      <c r="E78">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="F78" t="s">
+        <v>487</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78" t="s">
+        <v>623</v>
+      </c>
+      <c r="I78" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>273</v>
+      </c>
+      <c r="C79" t="s">
+        <v>561</v>
+      </c>
+      <c r="D79">
+        <v>42</v>
+      </c>
+      <c r="E79">
+        <v>4.8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>487</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79" t="s">
+        <v>624</v>
+      </c>
+      <c r="I79" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" t="s">
+        <v>563</v>
+      </c>
+      <c r="D80">
+        <v>36</v>
+      </c>
+      <c r="E80">
+        <v>4.2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>487</v>
+      </c>
+      <c r="G80">
+        <v>8</v>
+      </c>
+      <c r="H80" t="s">
+        <v>623</v>
+      </c>
+      <c r="I80" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" t="s">
+        <v>565</v>
+      </c>
+      <c r="D81">
+        <v>40</v>
+      </c>
+      <c r="E81">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>521</v>
+      </c>
+      <c r="G81">
+        <v>9</v>
+      </c>
+      <c r="H81" t="s">
+        <v>616</v>
+      </c>
+      <c r="I81" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>273</v>
+      </c>
+      <c r="C82" t="s">
+        <v>567</v>
+      </c>
+      <c r="D82">
+        <v>56</v>
+      </c>
+      <c r="E82">
+        <v>6.6</v>
+      </c>
+      <c r="F82" t="s">
+        <v>487</v>
+      </c>
+      <c r="G82">
+        <v>7</v>
+      </c>
+      <c r="H82" t="s">
+        <v>616</v>
+      </c>
+      <c r="I82" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>273</v>
+      </c>
+      <c r="C83" t="s">
+        <v>569</v>
+      </c>
+      <c r="D83">
+        <v>30</v>
+      </c>
+      <c r="E83">
+        <v>2.4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>521</v>
+      </c>
+      <c r="G83">
+        <v>7</v>
+      </c>
+      <c r="I83" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>273</v>
+      </c>
+      <c r="C84" t="s">
+        <v>571</v>
+      </c>
+      <c r="D84">
+        <v>24</v>
+      </c>
+      <c r="E84">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="F84" t="s">
+        <v>521</v>
+      </c>
+      <c r="G84">
+        <v>7</v>
+      </c>
+      <c r="H84" t="s">
+        <v>625</v>
+      </c>
+      <c r="I84" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>273</v>
+      </c>
+      <c r="C85" t="s">
+        <v>573</v>
+      </c>
+      <c r="D85">
+        <v>28</v>
+      </c>
+      <c r="E85">
+        <v>1.2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>521</v>
+      </c>
+      <c r="G85">
+        <v>6</v>
+      </c>
+      <c r="H85" t="s">
+        <v>626</v>
+      </c>
+      <c r="I85" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>273</v>
+      </c>
+      <c r="C86" t="s">
+        <v>575</v>
+      </c>
+      <c r="D86">
+        <v>22</v>
+      </c>
+      <c r="E86">
+        <v>4.8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>521</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86" t="s">
+        <v>627</v>
+      </c>
+      <c r="I86" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>273</v>
+      </c>
+      <c r="C87" t="s">
+        <v>577</v>
+      </c>
+      <c r="D87">
+        <v>72</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87" t="s">
+        <v>512</v>
+      </c>
+      <c r="G87">
+        <v>9</v>
+      </c>
+      <c r="H87" t="s">
+        <v>628</v>
+      </c>
+      <c r="I87" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" t="s">
+        <v>579</v>
+      </c>
+      <c r="D88">
+        <v>140</v>
+      </c>
+      <c r="E88">
+        <v>4.2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>521</v>
+      </c>
+      <c r="G88">
+        <v>7</v>
+      </c>
+      <c r="H88" t="s">
+        <v>634</v>
+      </c>
+      <c r="I88" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" t="s">
+        <v>581</v>
+      </c>
+      <c r="D89">
+        <v>84</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89" t="s">
+        <v>521</v>
+      </c>
+      <c r="G89">
+        <v>8</v>
+      </c>
+      <c r="H89" t="s">
+        <v>630</v>
+      </c>
+      <c r="I89" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" t="s">
+        <v>583</v>
+      </c>
+      <c r="D90">
+        <v>72</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>512</v>
+      </c>
+      <c r="G90">
+        <v>8</v>
+      </c>
+      <c r="H90" t="s">
+        <v>631</v>
+      </c>
+      <c r="I90" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" t="s">
+        <v>584</v>
+      </c>
+      <c r="D91">
+        <v>68</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91" t="s">
+        <v>512</v>
+      </c>
+      <c r="G91">
+        <v>7</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="I91" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" t="s">
+        <v>586</v>
+      </c>
+      <c r="D92">
+        <v>48</v>
+      </c>
+      <c r="E92">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F92" t="s">
+        <v>487</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>632</v>
+      </c>
+      <c r="I92" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" t="s">
+        <v>588</v>
+      </c>
+      <c r="D93">
+        <v>24</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>512</v>
+      </c>
+      <c r="G93">
+        <v>9</v>
+      </c>
+      <c r="I93" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" t="s">
+        <v>590</v>
+      </c>
+      <c r="D94">
+        <v>34</v>
+      </c>
+      <c r="E94">
+        <v>2.6</v>
+      </c>
+      <c r="F94" t="s">
+        <v>512</v>
+      </c>
+      <c r="G94">
+        <v>9</v>
+      </c>
+      <c r="H94" t="s">
+        <v>635</v>
+      </c>
+      <c r="I94" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" t="s">
+        <v>592</v>
+      </c>
+      <c r="D95">
+        <v>40</v>
+      </c>
+      <c r="E95">
+        <v>3.1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>512</v>
+      </c>
+      <c r="G95">
+        <v>7</v>
+      </c>
+      <c r="H95" t="s">
+        <v>622</v>
+      </c>
+      <c r="I95" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>273</v>
+      </c>
+      <c r="C96" t="s">
+        <v>594</v>
+      </c>
+      <c r="D96">
+        <v>56</v>
+      </c>
+      <c r="E96">
+        <v>1.2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>487</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>637</v>
+      </c>
+      <c r="I96" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>273</v>
+      </c>
+      <c r="C97" t="s">
+        <v>596</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="F97" t="s">
+        <v>512</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97" t="s">
+        <v>638</v>
+      </c>
+      <c r="I97" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" t="s">
+        <v>598</v>
+      </c>
+      <c r="D98">
+        <v>32</v>
+      </c>
+      <c r="E98">
+        <v>4.8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>521</v>
+      </c>
+      <c r="G98">
+        <v>7</v>
+      </c>
+      <c r="H98" t="s">
+        <v>639</v>
+      </c>
+      <c r="I98" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>273</v>
+      </c>
+      <c r="C99" t="s">
+        <v>600</v>
+      </c>
+      <c r="D99">
+        <v>44</v>
+      </c>
+      <c r="E99">
+        <v>6</v>
+      </c>
+      <c r="F99" t="s">
+        <v>521</v>
+      </c>
+      <c r="G99">
+        <v>7</v>
+      </c>
+      <c r="H99" t="s">
+        <v>640</v>
+      </c>
+      <c r="I99" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" t="s">
+        <v>601</v>
+      </c>
+      <c r="D100">
+        <v>48</v>
+      </c>
+      <c r="E100">
+        <v>7.8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>487</v>
+      </c>
+      <c r="G100">
+        <v>7</v>
+      </c>
+      <c r="H100" t="s">
+        <v>641</v>
+      </c>
+      <c r="I100" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101" t="s">
+        <v>603</v>
+      </c>
+      <c r="D101">
+        <v>50</v>
+      </c>
+      <c r="E101">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F101" t="s">
+        <v>487</v>
+      </c>
+      <c r="G101">
+        <v>7</v>
+      </c>
+      <c r="H101" t="s">
+        <v>642</v>
+      </c>
+      <c r="I101" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>273</v>
+      </c>
+      <c r="C102" t="s">
+        <v>604</v>
+      </c>
+      <c r="D102">
+        <v>80</v>
+      </c>
+      <c r="E102">
+        <v>13.2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>546</v>
+      </c>
+      <c r="G102">
+        <v>7</v>
+      </c>
+      <c r="H102" t="s">
+        <v>643</v>
+      </c>
+      <c r="I102" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" t="s">
+        <v>606</v>
+      </c>
+      <c r="D103">
+        <v>64</v>
+      </c>
+      <c r="E103">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s">
+        <v>487</v>
+      </c>
+      <c r="G103">
+        <v>7</v>
+      </c>
+      <c r="H103" t="s">
+        <v>644</v>
+      </c>
+      <c r="I103" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>273</v>
+      </c>
+      <c r="C104" t="s">
+        <v>608</v>
+      </c>
+      <c r="D104">
+        <v>56</v>
+      </c>
+      <c r="E104">
+        <v>24</v>
+      </c>
+      <c r="F104" t="s">
+        <v>546</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+      <c r="H104" t="s">
+        <v>645</v>
+      </c>
+      <c r="I104" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>273</v>
+      </c>
+      <c r="B105" t="s">
+        <v>299</v>
+      </c>
+      <c r="G105">
+        <v>8</v>
+      </c>
+      <c r="I105" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>273</v>
+      </c>
+      <c r="B106" t="s">
+        <v>274</v>
+      </c>
+      <c r="G106">
+        <v>10</v>
+      </c>
+      <c r="I106" t="s">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102289D4-58F4-47B4-AF32-A78D704B328D}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C6" s="25"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>646</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A27">
+    <sortCondition ref="A27"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TüfteltruheDatenbank Tabellengrundlage.xlsx
+++ b/TüfteltruheDatenbank Tabellengrundlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekte\Projekt Tüfteltruhe\Tüfteltruhe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A57A06-A8AE-4A80-B290-F51B9C510FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F97D1E9-B860-4A46-86A6-C9662FCDB836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="690" windowWidth="27750" windowHeight="14070" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="375" windowWidth="27750" windowHeight="14070" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schiffstypen" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="672">
   <si>
     <t xml:space="preserve">Schiffstyp </t>
   </si>
@@ -1938,9 +1938,6 @@
     <t xml:space="preserve"> Ellemanen, Atlanter, Anoliter, Ponaken, Takaten, Mittelmenschen, Sandmenschen</t>
   </si>
   <si>
-    <t xml:space="preserve"> Alle außer… +++</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Warukenen, Norukenen, Skenden, Kunesen, Bretagen, Norier, Gelmanen, Ibenen, Doreten, Grasmenschen</t>
   </si>
   <si>
@@ -2044,6 +2041,15 @@
   </si>
   <si>
     <t>Solonen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anoliter, Atlanter, Bergorks, Bretagen, Doreten, Ellemanen, Elser, Firser, Gelmanen, Grasmenschen, Hochelfen, Ibenen, Karglandorks, Kunesen, Küstenorks, Litaker, Mittelmenschen, Norier, Norukenen, Ponaken, Sandmenschen, Skenden, Takaten, Waldelfen, Warukenen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anoliter, Atlanter, Bergorks, Bretagen, Doreten, Ellemanen, Elser, Gelmanen, Grasmenschen, Hochelfen, Ibenen, Karglandorks, Kunesen, Küstenorks, Litaker, Mittelmenschen, Norier, Norukenen, Ponaken, Sandmenschen, Sarkaten, Skenden, Takaten, Waldelfen, Warukenen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anoliter, Atlanter, Bretagen, Doreten, Ellemanen, Elser, Gelmanen, Hochelfen, Ibenen, Karglandorks, Küstenorks, Litaker, Norier, Norukenen, Ponaken, Skenden, Takaten, Waldelfen, Warukenen</t>
   </si>
 </sst>
 </file>
@@ -2222,7 +2228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2282,7 +2288,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -9459,8 +9464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0754075-E1C9-4F7F-9713-EA6023DF32F4}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69:H104"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10191,6 +10196,9 @@
       <c r="G31">
         <v>4</v>
       </c>
+      <c r="H31" t="s">
+        <v>670</v>
+      </c>
       <c r="I31" t="s">
         <v>540</v>
       </c>
@@ -10214,6 +10222,9 @@
       <c r="G32">
         <v>10</v>
       </c>
+      <c r="H32" t="s">
+        <v>670</v>
+      </c>
       <c r="I32" t="s">
         <v>542</v>
       </c>
@@ -10543,6 +10554,9 @@
       <c r="G45">
         <v>7</v>
       </c>
+      <c r="H45" t="s">
+        <v>669</v>
+      </c>
       <c r="I45" t="s">
         <v>570</v>
       </c>
@@ -10671,7 +10685,7 @@
         <v>7</v>
       </c>
       <c r="H50" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="I50" t="s">
         <v>580</v>
@@ -10748,7 +10762,7 @@
       <c r="G53">
         <v>7</v>
       </c>
-      <c r="H53" s="25" t="s">
+      <c r="H53" t="s">
         <v>633</v>
       </c>
       <c r="I53" t="s">
@@ -10800,6 +10814,9 @@
       <c r="G55">
         <v>9</v>
       </c>
+      <c r="H55" t="s">
+        <v>670</v>
+      </c>
       <c r="I55" t="s">
         <v>589</v>
       </c>
@@ -10824,7 +10841,7 @@
         <v>9</v>
       </c>
       <c r="H56" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I56" t="s">
         <v>591</v>
@@ -10876,7 +10893,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I58" t="s">
         <v>595</v>
@@ -10902,7 +10919,7 @@
         <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I59" t="s">
         <v>597</v>
@@ -10928,7 +10945,7 @@
         <v>7</v>
       </c>
       <c r="H60" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I60" t="s">
         <v>599</v>
@@ -10954,7 +10971,7 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I61" t="s">
         <v>611</v>
@@ -10980,7 +10997,7 @@
         <v>7</v>
       </c>
       <c r="H62" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I62" t="s">
         <v>602</v>
@@ -11006,7 +11023,7 @@
         <v>7</v>
       </c>
       <c r="H63" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I63" t="s">
         <v>612</v>
@@ -11032,7 +11049,7 @@
         <v>7</v>
       </c>
       <c r="H64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I64" t="s">
         <v>605</v>
@@ -11058,7 +11075,7 @@
         <v>7</v>
       </c>
       <c r="H65" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I65" t="s">
         <v>607</v>
@@ -11084,7 +11101,7 @@
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I66" t="s">
         <v>609</v>
@@ -11137,6 +11154,9 @@
       <c r="G69">
         <v>4</v>
       </c>
+      <c r="H69" t="s">
+        <v>670</v>
+      </c>
       <c r="I69" t="s">
         <v>540</v>
       </c>
@@ -11160,6 +11180,9 @@
       <c r="G70">
         <v>10</v>
       </c>
+      <c r="H70" t="s">
+        <v>670</v>
+      </c>
       <c r="I70" t="s">
         <v>542</v>
       </c>
@@ -11489,6 +11512,9 @@
       <c r="G83">
         <v>7</v>
       </c>
+      <c r="H83" t="s">
+        <v>669</v>
+      </c>
       <c r="I83" t="s">
         <v>570</v>
       </c>
@@ -11617,7 +11643,7 @@
         <v>7</v>
       </c>
       <c r="H88" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="I88" t="s">
         <v>580</v>
@@ -11694,7 +11720,7 @@
       <c r="G91">
         <v>7</v>
       </c>
-      <c r="H91" s="25" t="s">
+      <c r="H91" t="s">
         <v>633</v>
       </c>
       <c r="I91" t="s">
@@ -11746,6 +11772,9 @@
       <c r="G93">
         <v>9</v>
       </c>
+      <c r="H93" t="s">
+        <v>670</v>
+      </c>
       <c r="I93" t="s">
         <v>589</v>
       </c>
@@ -11770,7 +11799,7 @@
         <v>9</v>
       </c>
       <c r="H94" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I94" t="s">
         <v>591</v>
@@ -11822,7 +11851,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I96" t="s">
         <v>595</v>
@@ -11848,7 +11877,7 @@
         <v>2</v>
       </c>
       <c r="H97" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I97" t="s">
         <v>597</v>
@@ -11874,7 +11903,7 @@
         <v>7</v>
       </c>
       <c r="H98" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I98" t="s">
         <v>599</v>
@@ -11900,7 +11929,7 @@
         <v>7</v>
       </c>
       <c r="H99" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I99" t="s">
         <v>611</v>
@@ -11926,7 +11955,7 @@
         <v>7</v>
       </c>
       <c r="H100" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I100" t="s">
         <v>602</v>
@@ -11952,7 +11981,7 @@
         <v>7</v>
       </c>
       <c r="H101" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I101" t="s">
         <v>612</v>
@@ -11978,7 +12007,7 @@
         <v>7</v>
       </c>
       <c r="H102" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I102" t="s">
         <v>605</v>
@@ -12004,7 +12033,7 @@
         <v>7</v>
       </c>
       <c r="H103" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I103" t="s">
         <v>607</v>
@@ -12030,7 +12059,7 @@
         <v>5</v>
       </c>
       <c r="H104" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I104" t="s">
         <v>609</v>
@@ -12072,10 +12101,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102289D4-58F4-47B4-AF32-A78D704B328D}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A27" sqref="A1:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12085,140 +12114,139 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/TüfteltruheDatenbank Tabellengrundlage.xlsx
+++ b/TüfteltruheDatenbank Tabellengrundlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekte\Projekt Tüfteltruhe\Tüfteltruhe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626B49C6-61C5-4705-8697-81A73CCF32DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77822885-186E-4A6D-9EA6-10BD083D84A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1080" windowWidth="27750" windowHeight="14070" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6812,8 +6812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EA9252-C5F6-413A-BBC0-234D35D669DA}">
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21519,7 +21519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0754075-E1C9-4F7F-9713-EA6023DF32F4}">
   <dimension ref="A1:K1169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A974" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A818" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A980" sqref="A980:XFD980"/>
     </sheetView>
   </sheetViews>

--- a/TüfteltruheDatenbank Tabellengrundlage.xlsx
+++ b/TüfteltruheDatenbank Tabellengrundlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekte\Projekt Tüfteltruhe\Tüfteltruhe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77822885-186E-4A6D-9EA6-10BD083D84A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DE3C8B-653A-4D02-BC33-1D14F5E5C35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1080" windowWidth="27750" windowHeight="14070" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="1080" windowWidth="27750" windowHeight="14070" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schiffstypen" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Schmuck" sheetId="11" r:id="rId11"/>
     <sheet name="Metall" sheetId="12" r:id="rId12"/>
     <sheet name="Zier" sheetId="13" r:id="rId13"/>
+    <sheet name="Zauber" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk28448438" localSheetId="7">Waren!#REF!</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6328" uniqueCount="2021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7136" uniqueCount="2337">
   <si>
     <t xml:space="preserve">Schiffstyp </t>
   </si>
@@ -6104,6 +6105,954 @@
   </si>
   <si>
     <t>Ellemanen, Anoliter, Ponaken, Mittelmenschen, Sandmenschen</t>
+  </si>
+  <si>
+    <t>Telepathie</t>
+  </si>
+  <si>
+    <t>Telekinese</t>
+  </si>
+  <si>
+    <t>Teleportation</t>
+  </si>
+  <si>
+    <t>Schutz</t>
+  </si>
+  <si>
+    <t>Blitz</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Sonne</t>
+  </si>
+  <si>
+    <t>Feuer</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>Erde</t>
+  </si>
+  <si>
+    <t>Pflanzen</t>
+  </si>
+  <si>
+    <t>Geist</t>
+  </si>
+  <si>
+    <t>Ruhe</t>
+  </si>
+  <si>
+    <t>Erleuchtung</t>
+  </si>
+  <si>
+    <t>Erkenntnis</t>
+  </si>
+  <si>
+    <t>Heilung</t>
+  </si>
+  <si>
+    <t>Reinigung</t>
+  </si>
+  <si>
+    <t>Kraft</t>
+  </si>
+  <si>
+    <t>Jagd</t>
+  </si>
+  <si>
+    <t>Kontrolle</t>
+  </si>
+  <si>
+    <t>Materie</t>
+  </si>
+  <si>
+    <t>Verwandlung</t>
+  </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>Illusion</t>
+  </si>
+  <si>
+    <t>Verhüllung</t>
+  </si>
+  <si>
+    <t>Schaden</t>
+  </si>
+  <si>
+    <t>Leben</t>
+  </si>
+  <si>
+    <t>Schabernack</t>
+  </si>
+  <si>
+    <t>Spielerei</t>
+  </si>
+  <si>
+    <t>Störung</t>
+  </si>
+  <si>
+    <t>Komplex</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Regulär</t>
+  </si>
+  <si>
+    <t>Zauber</t>
+  </si>
+  <si>
+    <t>Stufe</t>
+  </si>
+  <si>
+    <t>Komplexstufe</t>
+  </si>
+  <si>
+    <t>Wirkung</t>
+  </si>
+  <si>
+    <t>Ahnenzauber</t>
+  </si>
+  <si>
+    <t>Frieden</t>
+  </si>
+  <si>
+    <t>Heiterkeit</t>
+  </si>
+  <si>
+    <t>Freiheit</t>
+  </si>
+  <si>
+    <t>Geisterbann</t>
+  </si>
+  <si>
+    <t>Liebe</t>
+  </si>
+  <si>
+    <t>Waffenbann</t>
+  </si>
+  <si>
+    <t>Schussbann</t>
+  </si>
+  <si>
+    <t>Feuerbann</t>
+  </si>
+  <si>
+    <t>Wasserbann</t>
+  </si>
+  <si>
+    <t>Kriegsheil</t>
+  </si>
+  <si>
+    <t>Totenwort</t>
+  </si>
+  <si>
+    <t>Unverwundbarkeit</t>
+  </si>
+  <si>
+    <t>Sinneswandel</t>
+  </si>
+  <si>
+    <t>Weisheit</t>
+  </si>
+  <si>
+    <t>Rachegeist</t>
+  </si>
+  <si>
+    <t>Gelingen</t>
+  </si>
+  <si>
+    <t>Geheimnis</t>
+  </si>
+  <si>
+    <t>Artenspüren</t>
+  </si>
+  <si>
+    <t>Hilferuf</t>
+  </si>
+  <si>
+    <t>Wurzelreise</t>
+  </si>
+  <si>
+    <t>Substanzharmonie</t>
+  </si>
+  <si>
+    <t>Pflanzenbeschlüpfung</t>
+  </si>
+  <si>
+    <t>Seelenaufnahme</t>
+  </si>
+  <si>
+    <t>Seelenbindung</t>
+  </si>
+  <si>
+    <t>Mächtiger Hilferuf</t>
+  </si>
+  <si>
+    <t>Tierbeschlüpfung</t>
+  </si>
+  <si>
+    <t>Naturruf</t>
+  </si>
+  <si>
+    <t>Reichtum</t>
+  </si>
+  <si>
+    <t>Mut</t>
+  </si>
+  <si>
+    <t>Licht</t>
+  </si>
+  <si>
+    <t>Geschenk</t>
+  </si>
+  <si>
+    <t>Wohlbefinden</t>
+  </si>
+  <si>
+    <t>Verwüstung</t>
+  </si>
+  <si>
+    <t>Zwang</t>
+  </si>
+  <si>
+    <t>Starre</t>
+  </si>
+  <si>
+    <t>Überfluss</t>
+  </si>
+  <si>
+    <t>Erholung</t>
+  </si>
+  <si>
+    <t>Ungezähmtheit</t>
+  </si>
+  <si>
+    <t>Segen</t>
+  </si>
+  <si>
+    <t>Macht</t>
+  </si>
+  <si>
+    <t>Fruchtbarkeit</t>
+  </si>
+  <si>
+    <t>Edelmut</t>
+  </si>
+  <si>
+    <t>Gemeinschaft</t>
+  </si>
+  <si>
+    <t>Jugend</t>
+  </si>
+  <si>
+    <t>Zyklus</t>
+  </si>
+  <si>
+    <t>Erbe</t>
+  </si>
+  <si>
+    <t>Runenzauber</t>
+  </si>
+  <si>
+    <t>Bär</t>
+  </si>
+  <si>
+    <t>Kentaur</t>
+  </si>
+  <si>
+    <t>Schlange</t>
+  </si>
+  <si>
+    <t>Delphin</t>
+  </si>
+  <si>
+    <t>Hase</t>
+  </si>
+  <si>
+    <t>Rad</t>
+  </si>
+  <si>
+    <t>Katze</t>
+  </si>
+  <si>
+    <t>Pfeil</t>
+  </si>
+  <si>
+    <t>Taube</t>
+  </si>
+  <si>
+    <t>Fels</t>
+  </si>
+  <si>
+    <t>Wiege</t>
+  </si>
+  <si>
+    <t>Phönix</t>
+  </si>
+  <si>
+    <t>Herz</t>
+  </si>
+  <si>
+    <t>Drache</t>
+  </si>
+  <si>
+    <t>Speer</t>
+  </si>
+  <si>
+    <t>Schwan</t>
+  </si>
+  <si>
+    <t>Schiff</t>
+  </si>
+  <si>
+    <t>Adler</t>
+  </si>
+  <si>
+    <t>Kappe</t>
+  </si>
+  <si>
+    <t>Krake</t>
+  </si>
+  <si>
+    <t>Sternbild</t>
+  </si>
+  <si>
+    <t>Kraft von Dygir</t>
+  </si>
+  <si>
+    <t>Kraft von Ferir</t>
+  </si>
+  <si>
+    <t>Kraft von Fobyn</t>
+  </si>
+  <si>
+    <t>Kraft von Hymir</t>
+  </si>
+  <si>
+    <t>Kraft von Kesir</t>
+  </si>
+  <si>
+    <t>Kraft von Krumir</t>
+  </si>
+  <si>
+    <t>Kraft von Memir</t>
+  </si>
+  <si>
+    <t>Kraft von Okir</t>
+  </si>
+  <si>
+    <t>Kraft von Pramir</t>
+  </si>
+  <si>
+    <t>Kraft von Regyn</t>
+  </si>
+  <si>
+    <t>Kraft von Tevyn</t>
+  </si>
+  <si>
+    <t>Kraft von Totyn</t>
+  </si>
+  <si>
+    <t>Kraft von Umir</t>
+  </si>
+  <si>
+    <t>Titanenkraft</t>
+  </si>
+  <si>
+    <t>Weiche weg!</t>
+  </si>
+  <si>
+    <t>Lass liegen!</t>
+  </si>
+  <si>
+    <t>Fass Feuer!</t>
+  </si>
+  <si>
+    <t>Zügle Zauber!</t>
+  </si>
+  <si>
+    <t>Fliege fort!</t>
+  </si>
+  <si>
+    <t>Schwinde Schall!</t>
+  </si>
+  <si>
+    <t>Fliehe Form!</t>
+  </si>
+  <si>
+    <t>Bleibe Blut!</t>
+  </si>
+  <si>
+    <t>Hemme Hast!</t>
+  </si>
+  <si>
+    <t>Harre Herz!</t>
+  </si>
+  <si>
+    <t>Zucke zusammen!</t>
+  </si>
+  <si>
+    <t>Gerinne Gift!</t>
+  </si>
+  <si>
+    <t>Zähme Zug!</t>
+  </si>
+  <si>
+    <t>Trotte treu!</t>
+  </si>
+  <si>
+    <t>Schließe Schloss!</t>
+  </si>
+  <si>
+    <t>Hüte Hort!</t>
+  </si>
+  <si>
+    <t>Schmiede schneidig!</t>
+  </si>
+  <si>
+    <t>Zeige Ziel!</t>
+  </si>
+  <si>
+    <t>Bannwort</t>
+  </si>
+  <si>
+    <t>Totenruf</t>
+  </si>
+  <si>
+    <t>Totenlockung</t>
+  </si>
+  <si>
+    <t>Leichenbelebung</t>
+  </si>
+  <si>
+    <t>Totenzwang</t>
+  </si>
+  <si>
+    <t>Ewiger Lebenswille</t>
+  </si>
+  <si>
+    <t>Totenzauber</t>
+  </si>
+  <si>
+    <t>Seelenspüren</t>
+  </si>
+  <si>
+    <t>Totenspüren</t>
+  </si>
+  <si>
+    <t>Totensprache</t>
+  </si>
+  <si>
+    <t>Seelenentschlüpfung</t>
+  </si>
+  <si>
+    <t>Menschenbeschlüpfung</t>
+  </si>
+  <si>
+    <t>Seelenspeicherung</t>
+  </si>
+  <si>
+    <t>Seelenzauber</t>
+  </si>
+  <si>
+    <t>Körperliche Verzauberung</t>
+  </si>
+  <si>
+    <t>Erbwandlung</t>
+  </si>
+  <si>
+    <t>Zauberhaut</t>
+  </si>
+  <si>
+    <t>Lebenszauber</t>
+  </si>
+  <si>
+    <t>Abfangen</t>
+  </si>
+  <si>
+    <t>Levitation</t>
+  </si>
+  <si>
+    <t>Fliegen</t>
+  </si>
+  <si>
+    <t>Flugreise</t>
+  </si>
+  <si>
+    <t>Konzentration</t>
+  </si>
+  <si>
+    <t>Manipulation</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Gedankenkontakt</t>
+  </si>
+  <si>
+    <t>Gedankenbotschaft</t>
+  </si>
+  <si>
+    <t>Tiersprache</t>
+  </si>
+  <si>
+    <t>Gedankenverbindung</t>
+  </si>
+  <si>
+    <t>Gedankennetzwerk</t>
+  </si>
+  <si>
+    <t>Versenden</t>
+  </si>
+  <si>
+    <t>Verschwinden</t>
+  </si>
+  <si>
+    <t>Weltentor</t>
+  </si>
+  <si>
+    <t>Weltenreise</t>
+  </si>
+  <si>
+    <t>Wegweiser</t>
+  </si>
+  <si>
+    <t>Schutzgeist</t>
+  </si>
+  <si>
+    <t>Schutzgebiet</t>
+  </si>
+  <si>
+    <t>Zauberschild</t>
+  </si>
+  <si>
+    <t>Donnerkeil</t>
+  </si>
+  <si>
+    <t>Stromfluss</t>
+  </si>
+  <si>
+    <t>Blitzstrahl</t>
+  </si>
+  <si>
+    <t>Windstoß</t>
+  </si>
+  <si>
+    <t>Rückenwind</t>
+  </si>
+  <si>
+    <t>Wirbelwind</t>
+  </si>
+  <si>
+    <t>Wirbelsturm</t>
+  </si>
+  <si>
+    <t>Sonnenlicht</t>
+  </si>
+  <si>
+    <t>Säuberung</t>
+  </si>
+  <si>
+    <t>Blenden</t>
+  </si>
+  <si>
+    <t>Wiedergängerbann</t>
+  </si>
+  <si>
+    <t>Wetterwirken</t>
+  </si>
+  <si>
+    <t>Krankheitswiderstand</t>
+  </si>
+  <si>
+    <t>Giftwiderstand</t>
+  </si>
+  <si>
+    <t>Wiedergängerwiderstand</t>
+  </si>
+  <si>
+    <t>Manipulationswiderstand</t>
+  </si>
+  <si>
+    <t>Elementarwiderstand</t>
+  </si>
+  <si>
+    <t>Widerstand</t>
+  </si>
+  <si>
+    <t>Sonnenschlag</t>
+  </si>
+  <si>
+    <t>Erhitzen</t>
+  </si>
+  <si>
+    <t>Feuerschuss</t>
+  </si>
+  <si>
+    <t>Sprengfeuer</t>
+  </si>
+  <si>
+    <t>Feuerring</t>
+  </si>
+  <si>
+    <t>Schmelzen</t>
+  </si>
+  <si>
+    <t>Giftlesen</t>
+  </si>
+  <si>
+    <t>Wasseratem</t>
+  </si>
+  <si>
+    <t>Wasserlauf</t>
+  </si>
+  <si>
+    <t>Wasserwirken</t>
+  </si>
+  <si>
+    <t>Aderbruch</t>
+  </si>
+  <si>
+    <t>Abkühlen</t>
+  </si>
+  <si>
+    <t>Glätte</t>
+  </si>
+  <si>
+    <t>Eispfeil</t>
+  </si>
+  <si>
+    <t>Frostklinge</t>
+  </si>
+  <si>
+    <t>Eissäule</t>
+  </si>
+  <si>
+    <t>Erntesegen</t>
+  </si>
+  <si>
+    <t>Erdriss</t>
+  </si>
+  <si>
+    <t>Steinhaut</t>
+  </si>
+  <si>
+    <t>Versteinerung</t>
+  </si>
+  <si>
+    <t>Schwerkraft</t>
+  </si>
+  <si>
+    <t>Moosmantel</t>
+  </si>
+  <si>
+    <t>Wuchs</t>
+  </si>
+  <si>
+    <t>Zauberfessel</t>
+  </si>
+  <si>
+    <t>Baumwissen</t>
+  </si>
+  <si>
+    <t>Dornenwall</t>
+  </si>
+  <si>
+    <t>Bezauberung</t>
+  </si>
+  <si>
+    <t>Verwirrung</t>
+  </si>
+  <si>
+    <t>Gedankenlesen</t>
+  </si>
+  <si>
+    <t>Feindschaft</t>
+  </si>
+  <si>
+    <t>Gedankenlenken</t>
+  </si>
+  <si>
+    <t>Alarmglocke</t>
+  </si>
+  <si>
+    <t>Stille</t>
+  </si>
+  <si>
+    <t>Zauberschlaf</t>
+  </si>
+  <si>
+    <t>Zurückweisung</t>
+  </si>
+  <si>
+    <t>Sinnesbann</t>
+  </si>
+  <si>
+    <t>Nachtsicht</t>
+  </si>
+  <si>
+    <t>Dunkelsicht</t>
+  </si>
+  <si>
+    <t>Albensicht</t>
+  </si>
+  <si>
+    <t>Durchsicht</t>
+  </si>
+  <si>
+    <t>Sinnesschärfe</t>
+  </si>
+  <si>
+    <t>Lebenspüren</t>
+  </si>
+  <si>
+    <t>Zauberauge</t>
+  </si>
+  <si>
+    <t>Beobachtung</t>
+  </si>
+  <si>
+    <t>Wahrheit</t>
+  </si>
+  <si>
+    <t>Wundheilung</t>
+  </si>
+  <si>
+    <t>Giftheilung</t>
+  </si>
+  <si>
+    <t>Bluthemmung</t>
+  </si>
+  <si>
+    <t>Seuchenheilung</t>
+  </si>
+  <si>
+    <t>Krüppelheilung</t>
+  </si>
+  <si>
+    <t>Fäulnisreinigung</t>
+  </si>
+  <si>
+    <t>Entzauberung</t>
+  </si>
+  <si>
+    <t>Entsteinerung</t>
+  </si>
+  <si>
+    <t>Heiliger Boden</t>
+  </si>
+  <si>
+    <t>Entfluchung</t>
+  </si>
+  <si>
+    <t>Trümmerhieb</t>
+  </si>
+  <si>
+    <t>Brechen</t>
+  </si>
+  <si>
+    <t>Zauberlunge</t>
+  </si>
+  <si>
+    <t>Furcht</t>
+  </si>
+  <si>
+    <t>Unbändigkeit</t>
+  </si>
+  <si>
+    <t>Jagdmal</t>
+  </si>
+  <si>
+    <t>Blutriechen</t>
+  </si>
+  <si>
+    <t>Trefferkunst</t>
+  </si>
+  <si>
+    <t>Aufspüren</t>
+  </si>
+  <si>
+    <t>Zauberpfeil</t>
+  </si>
+  <si>
+    <t>Zähmen</t>
+  </si>
+  <si>
+    <t>Beleben</t>
+  </si>
+  <si>
+    <t>Zauberknecht</t>
+  </si>
+  <si>
+    <t>Schratgefolge</t>
+  </si>
+  <si>
+    <t>Albenruf</t>
+  </si>
+  <si>
+    <t>Handwerksgeschick</t>
+  </si>
+  <si>
+    <t>Härten</t>
+  </si>
+  <si>
+    <t>Formen</t>
+  </si>
+  <si>
+    <t>Veredeln</t>
+  </si>
+  <si>
+    <t>Flicken</t>
+  </si>
+  <si>
+    <t>Schrumpfen</t>
+  </si>
+  <si>
+    <t>Zersetzen</t>
+  </si>
+  <si>
+    <t>Verdoppeln</t>
+  </si>
+  <si>
+    <t>Dichtewandel</t>
+  </si>
+  <si>
+    <t>Verwandeln</t>
+  </si>
+  <si>
+    <t>Altersbestimmung</t>
+  </si>
+  <si>
+    <t>Zeitlupensicht</t>
+  </si>
+  <si>
+    <t>Zeitraffersicht</t>
+  </si>
+  <si>
+    <t>Erinnerung</t>
+  </si>
+  <si>
+    <t>Rückblick</t>
+  </si>
+  <si>
+    <t>Trugbild</t>
+  </si>
+  <si>
+    <t>Trugstimme</t>
+  </si>
+  <si>
+    <t>Truggeräusch</t>
+  </si>
+  <si>
+    <t>Gestaltwandel</t>
+  </si>
+  <si>
+    <t>Nebel</t>
+  </si>
+  <si>
+    <t>Dunkelheit</t>
+  </si>
+  <si>
+    <t>Schattenhaftigkeit</t>
+  </si>
+  <si>
+    <t>Geistertritt</t>
+  </si>
+  <si>
+    <t>Unsichtbarkeit</t>
+  </si>
+  <si>
+    <t>Wunde</t>
+  </si>
+  <si>
+    <t>Gift</t>
+  </si>
+  <si>
+    <t>Tod</t>
+  </si>
+  <si>
+    <t>Alterung</t>
+  </si>
+  <si>
+    <t>Lebensfrucht</t>
+  </si>
+  <si>
+    <t>Wiedergängerschutz</t>
+  </si>
+  <si>
+    <t>Muttersegen</t>
+  </si>
+  <si>
+    <t>Lebenskraft</t>
+  </si>
+  <si>
+    <t>Unversehrtheit</t>
+  </si>
+  <si>
+    <t>Tollpatsch</t>
+  </si>
+  <si>
+    <t>Tierzwang</t>
+  </si>
+  <si>
+    <t>Tanzzwang</t>
+  </si>
+  <si>
+    <t>Lachzwang</t>
+  </si>
+  <si>
+    <t>Lügenzwang</t>
+  </si>
+  <si>
+    <t>Lichter</t>
+  </si>
+  <si>
+    <t>Musik</t>
+  </si>
+  <si>
+    <t>Schauspiel</t>
+  </si>
+  <si>
+    <t>Traumwelt</t>
+  </si>
+  <si>
+    <t>Labyrinth</t>
+  </si>
+  <si>
+    <t>Zauberfestigkeit</t>
+  </si>
+  <si>
+    <t>Telepathiestörung</t>
+  </si>
+  <si>
+    <t>Teleportationsstörung</t>
+  </si>
+  <si>
+    <t>Konterzauber</t>
+  </si>
+  <si>
+    <t>Zauberimmunität</t>
+  </si>
+  <si>
+    <t>Schockfassen</t>
+  </si>
+  <si>
+    <t>Bonusstufen</t>
   </si>
 </sst>
 </file>
@@ -6300,7 +7249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6363,9 +7312,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6962,62 +7909,62 @@
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="A40" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7042,7 +7989,7 @@
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7057,47 +8004,47 @@
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="A55" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7112,12 +8059,12 @@
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" t="s">
         <v>429</v>
       </c>
     </row>
@@ -14816,6 +15763,5589 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A19E005-4834-49D1-89BA-E12BAE5D6155}">
+  <dimension ref="A1:I286"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="B280" sqref="B280"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2179</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2212</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2195</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2197</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2198</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2335</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2200</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2202</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2224</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E51">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E61">
+        <v>11</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E66">
+        <v>8</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E68">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E69">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G69" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E71">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G71" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E74">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E75">
+        <v>7</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2255</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E81">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2257</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E85">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E86">
+        <v>12</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E90">
+        <v>6</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2266</v>
+      </c>
+      <c r="E91">
+        <v>8</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2268</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="H93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E95">
+        <v>7</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2271</v>
+      </c>
+      <c r="E96">
+        <v>11</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="H98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="H100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E101">
+        <v>7</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="H104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E105">
+        <v>6</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E106">
+        <v>7</v>
+      </c>
+      <c r="H106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2282</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+      <c r="H109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E110">
+        <v>7</v>
+      </c>
+      <c r="H110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2286</v>
+      </c>
+      <c r="E111">
+        <v>8</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2295</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E115">
+        <v>6</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2290</v>
+      </c>
+      <c r="E116">
+        <v>9</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2292</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="H118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E119">
+        <v>5</v>
+      </c>
+      <c r="H119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E120">
+        <v>9</v>
+      </c>
+      <c r="H120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2296</v>
+      </c>
+      <c r="E121">
+        <v>10</v>
+      </c>
+      <c r="H121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E123">
+        <v>6</v>
+      </c>
+      <c r="G123" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2299</v>
+      </c>
+      <c r="E124">
+        <v>6</v>
+      </c>
+      <c r="G124" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2300</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2302</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="H127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2303</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="H128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+      <c r="H129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E130">
+        <v>7</v>
+      </c>
+      <c r="H130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2305</v>
+      </c>
+      <c r="E131">
+        <v>8</v>
+      </c>
+      <c r="H131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2307</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="H133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2308</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="H134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2309</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+      <c r="H135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2310</v>
+      </c>
+      <c r="E136">
+        <v>8</v>
+      </c>
+      <c r="H136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2311</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+      <c r="H137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E138">
+        <v>6</v>
+      </c>
+      <c r="H138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E139">
+        <v>7</v>
+      </c>
+      <c r="H139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2314</v>
+      </c>
+      <c r="E140">
+        <v>9</v>
+      </c>
+      <c r="H140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2313</v>
+      </c>
+      <c r="E141">
+        <v>13</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2315</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="H142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2316</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2318</v>
+      </c>
+      <c r="E145">
+        <v>6</v>
+      </c>
+      <c r="H145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2319</v>
+      </c>
+      <c r="E146">
+        <v>8</v>
+      </c>
+      <c r="H146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2320</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+      <c r="G148" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2322</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+      <c r="G149" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2323</v>
+      </c>
+      <c r="E150">
+        <v>6</v>
+      </c>
+      <c r="G150" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E151">
+        <v>7</v>
+      </c>
+      <c r="G151" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2325</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2326</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2328</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="G155" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2329</v>
+      </c>
+      <c r="E156">
+        <v>6</v>
+      </c>
+      <c r="G156" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E157">
+        <v>5</v>
+      </c>
+      <c r="H157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2331</v>
+      </c>
+      <c r="E158">
+        <v>6</v>
+      </c>
+      <c r="H158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2332</v>
+      </c>
+      <c r="E159">
+        <v>6</v>
+      </c>
+      <c r="H159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2333</v>
+      </c>
+      <c r="E160">
+        <v>8</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2334</v>
+      </c>
+      <c r="E161">
+        <v>8</v>
+      </c>
+      <c r="H161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="G162" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E163">
+        <v>4</v>
+      </c>
+      <c r="H163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E164">
+        <v>4</v>
+      </c>
+      <c r="H164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="H165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E166">
+        <v>5</v>
+      </c>
+      <c r="H166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C167">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E167">
+        <v>5</v>
+      </c>
+      <c r="H167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C168">
+        <v>7</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E168">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C169">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E169">
+        <v>6</v>
+      </c>
+      <c r="H169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C170">
+        <v>9</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E170">
+        <v>6</v>
+      </c>
+      <c r="H170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C171">
+        <v>10</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E171">
+        <v>6</v>
+      </c>
+      <c r="H171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C172">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E172">
+        <v>6</v>
+      </c>
+      <c r="H172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C173">
+        <v>12</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E173">
+        <v>7</v>
+      </c>
+      <c r="H173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C174">
+        <v>13</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E174">
+        <v>7</v>
+      </c>
+      <c r="H174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C175">
+        <v>14</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E175">
+        <v>7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C176">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E176">
+        <v>8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C177">
+        <v>16</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E177">
+        <v>8</v>
+      </c>
+      <c r="H177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C178">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E178">
+        <v>8</v>
+      </c>
+      <c r="H178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C179">
+        <v>18</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E179">
+        <v>9</v>
+      </c>
+      <c r="H179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E182">
+        <v>5</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E183">
+        <v>5</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E184">
+        <v>7</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C185">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E185">
+        <v>8</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C186">
+        <v>7</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E186">
+        <v>8</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C187">
+        <v>8</v>
+      </c>
+      <c r="D187" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E187">
+        <v>9</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C188">
+        <v>9</v>
+      </c>
+      <c r="D188" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E188">
+        <v>10</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E189">
+        <v>6</v>
+      </c>
+      <c r="F189" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E190">
+        <v>6</v>
+      </c>
+      <c r="H190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E191">
+        <v>6</v>
+      </c>
+      <c r="H191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E192">
+        <v>6</v>
+      </c>
+      <c r="H192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E193">
+        <v>6</v>
+      </c>
+      <c r="H193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C194">
+        <v>6</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E194">
+        <v>6</v>
+      </c>
+      <c r="F194" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C195">
+        <v>7</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E195">
+        <v>6</v>
+      </c>
+      <c r="H195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C196">
+        <v>8</v>
+      </c>
+      <c r="D196" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E196">
+        <v>6</v>
+      </c>
+      <c r="H196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C197">
+        <v>9</v>
+      </c>
+      <c r="D197" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E197">
+        <v>6</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C198">
+        <v>10</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E198">
+        <v>6</v>
+      </c>
+      <c r="F198" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G198" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C199">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E199">
+        <v>6</v>
+      </c>
+      <c r="F199" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C200">
+        <v>12</v>
+      </c>
+      <c r="D200" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E200">
+        <v>6</v>
+      </c>
+      <c r="H200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C201">
+        <v>13</v>
+      </c>
+      <c r="D201" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E201">
+        <v>6</v>
+      </c>
+      <c r="H201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C202">
+        <v>14</v>
+      </c>
+      <c r="D202" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E202">
+        <v>6</v>
+      </c>
+      <c r="H202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C203">
+        <v>15</v>
+      </c>
+      <c r="D203" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E203">
+        <v>6</v>
+      </c>
+      <c r="H203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C204">
+        <v>16</v>
+      </c>
+      <c r="D204" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E204">
+        <v>6</v>
+      </c>
+      <c r="H204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C205">
+        <v>17</v>
+      </c>
+      <c r="D205" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E205">
+        <v>6</v>
+      </c>
+      <c r="H205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C206">
+        <v>18</v>
+      </c>
+      <c r="D206" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E206">
+        <v>6</v>
+      </c>
+      <c r="H206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C207">
+        <v>19</v>
+      </c>
+      <c r="D207" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E207">
+        <v>6</v>
+      </c>
+      <c r="G207" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C208">
+        <v>20</v>
+      </c>
+      <c r="D208" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E208">
+        <v>6</v>
+      </c>
+      <c r="H208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C209">
+        <v>21</v>
+      </c>
+      <c r="D209" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E209">
+        <v>6</v>
+      </c>
+      <c r="H209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C210">
+        <v>22</v>
+      </c>
+      <c r="D210" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E210">
+        <v>6</v>
+      </c>
+      <c r="H210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C211">
+        <v>23</v>
+      </c>
+      <c r="D211" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E211">
+        <v>6</v>
+      </c>
+      <c r="H211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C212">
+        <v>24</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E212">
+        <v>6</v>
+      </c>
+      <c r="F212" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E213">
+        <v>6</v>
+      </c>
+      <c r="H213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E214">
+        <v>6</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+      <c r="D215" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E215">
+        <v>6</v>
+      </c>
+      <c r="H215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C216">
+        <v>4</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E216">
+        <v>6</v>
+      </c>
+      <c r="H216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C217">
+        <v>5</v>
+      </c>
+      <c r="D217" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E217">
+        <v>6</v>
+      </c>
+      <c r="H217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C218">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E218">
+        <v>6</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C219">
+        <v>7</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E219">
+        <v>6</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C220">
+        <v>8</v>
+      </c>
+      <c r="D220" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E220">
+        <v>6</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C221">
+        <v>9</v>
+      </c>
+      <c r="D221" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E221">
+        <v>6</v>
+      </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C222">
+        <v>10</v>
+      </c>
+      <c r="D222" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E222">
+        <v>6</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C223">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E223">
+        <v>6</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C224">
+        <v>12</v>
+      </c>
+      <c r="D224" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E224">
+        <v>6</v>
+      </c>
+      <c r="H224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C225">
+        <v>13</v>
+      </c>
+      <c r="D225" t="s">
+        <v>306</v>
+      </c>
+      <c r="E225">
+        <v>6</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C226">
+        <v>14</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E226">
+        <v>6</v>
+      </c>
+      <c r="H226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C227">
+        <v>15</v>
+      </c>
+      <c r="D227" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E227">
+        <v>6</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C228">
+        <v>16</v>
+      </c>
+      <c r="D228" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E228">
+        <v>6</v>
+      </c>
+      <c r="H228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C229">
+        <v>17</v>
+      </c>
+      <c r="D229" t="s">
+        <v>951</v>
+      </c>
+      <c r="E229">
+        <v>6</v>
+      </c>
+      <c r="H229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C230">
+        <v>18</v>
+      </c>
+      <c r="D230" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E230">
+        <v>6</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C231">
+        <v>19</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E231">
+        <v>6</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C232">
+        <v>20</v>
+      </c>
+      <c r="D232" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E232">
+        <v>6</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C233">
+        <v>21</v>
+      </c>
+      <c r="D233" t="s">
+        <v>234</v>
+      </c>
+      <c r="E233">
+        <v>6</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C234">
+        <v>22</v>
+      </c>
+      <c r="D234" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E234">
+        <v>6</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C235">
+        <v>23</v>
+      </c>
+      <c r="D235" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E235">
+        <v>6</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C236">
+        <v>24</v>
+      </c>
+      <c r="D236" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E236">
+        <v>6</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C237">
+        <v>25</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E237">
+        <v>6</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C238">
+        <v>26</v>
+      </c>
+      <c r="D238" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E238">
+        <v>6</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+      <c r="D241" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C242">
+        <v>4</v>
+      </c>
+      <c r="D242" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C243">
+        <v>5</v>
+      </c>
+      <c r="D243" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C244">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C245">
+        <v>7</v>
+      </c>
+      <c r="D245" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C246">
+        <v>8</v>
+      </c>
+      <c r="D246" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C247">
+        <v>9</v>
+      </c>
+      <c r="D247" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C248">
+        <v>10</v>
+      </c>
+      <c r="D248" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C249">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C250">
+        <v>12</v>
+      </c>
+      <c r="D250" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C251">
+        <v>13</v>
+      </c>
+      <c r="D251" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="G251" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+      <c r="D254" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C255">
+        <v>4</v>
+      </c>
+      <c r="D255" t="s">
+        <v>2145</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C256">
+        <v>5</v>
+      </c>
+      <c r="D256" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C257">
+        <v>6</v>
+      </c>
+      <c r="D257" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C258">
+        <v>7</v>
+      </c>
+      <c r="D258" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C259">
+        <v>8</v>
+      </c>
+      <c r="D259" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C260">
+        <v>9</v>
+      </c>
+      <c r="D260" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C261">
+        <v>10</v>
+      </c>
+      <c r="D261" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C262">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C263">
+        <v>12</v>
+      </c>
+      <c r="D263" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C264">
+        <v>13</v>
+      </c>
+      <c r="D264" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C265">
+        <v>14</v>
+      </c>
+      <c r="D265" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C266">
+        <v>15</v>
+      </c>
+      <c r="D266" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C267">
+        <v>16</v>
+      </c>
+      <c r="D267" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C268">
+        <v>17</v>
+      </c>
+      <c r="D268" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C269">
+        <v>18</v>
+      </c>
+      <c r="D269" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B270" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E270">
+        <v>5</v>
+      </c>
+      <c r="H270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B271" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E271">
+        <v>8</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B272" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+      <c r="D272" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E272">
+        <v>7</v>
+      </c>
+      <c r="H272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B273" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+      <c r="D273" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E273">
+        <v>12</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B274" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C274">
+        <v>5</v>
+      </c>
+      <c r="D274" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E274">
+        <v>13</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B275" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E275">
+        <v>2</v>
+      </c>
+      <c r="H275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B276" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+      <c r="D276" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E276">
+        <v>4</v>
+      </c>
+      <c r="H276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B277" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+      <c r="D277" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E277">
+        <v>4</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B278" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C278">
+        <v>4</v>
+      </c>
+      <c r="D278" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E278">
+        <v>7</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B279" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C279">
+        <v>5</v>
+      </c>
+      <c r="D279" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E279">
+        <v>15</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B280" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C280">
+        <v>6</v>
+      </c>
+      <c r="D280" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E280">
+        <v>10</v>
+      </c>
+      <c r="G280" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B281" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C281">
+        <v>7</v>
+      </c>
+      <c r="D281" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E281">
+        <v>7</v>
+      </c>
+      <c r="G281" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B282" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C282">
+        <v>8</v>
+      </c>
+      <c r="D282" t="s">
+        <v>2172</v>
+      </c>
+      <c r="E282">
+        <v>7</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B283" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C283">
+        <v>9</v>
+      </c>
+      <c r="D283" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E283">
+        <v>6</v>
+      </c>
+      <c r="G283" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E284">
+        <v>8</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B285" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C285">
+        <v>2</v>
+      </c>
+      <c r="D285" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E285">
+        <v>10</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C286">
+        <v>3</v>
+      </c>
+      <c r="D286" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E286">
+        <v>13</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36DA9CD-FBD0-4FDA-BE1F-1017D9C8CC48}">
   <dimension ref="A1:E14"/>
@@ -21519,8 +28049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0754075-E1C9-4F7F-9713-EA6023DF32F4}">
   <dimension ref="A1:K1169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A818" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A980" sqref="A980:XFD980"/>
+    <sheetView topLeftCell="A1145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D839" sqref="D839"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41001,13 +47531,9 @@
       <c r="B842" s="27" t="s">
         <v>1721</v>
       </c>
-      <c r="F842" s="28"/>
-      <c r="G842" s="28"/>
-      <c r="H842" s="28"/>
-      <c r="I842" s="28">
+      <c r="I842">
         <v>10</v>
       </c>
-      <c r="K842" s="28"/>
     </row>
     <row r="843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
@@ -44228,7 +50754,7 @@
       <c r="I985">
         <v>8</v>
       </c>
-      <c r="J985" s="29" t="s">
+      <c r="J985" t="s">
         <v>1876</v>
       </c>
       <c r="K985" t="s">
@@ -44513,7 +51039,7 @@
       <c r="I997">
         <v>6</v>
       </c>
-      <c r="J997" s="30" t="s">
+      <c r="J997" s="28" t="s">
         <v>1877</v>
       </c>
       <c r="K997" t="s">
@@ -44539,7 +51065,7 @@
       <c r="I998">
         <v>6</v>
       </c>
-      <c r="J998" s="29" t="s">
+      <c r="J998" t="s">
         <v>595</v>
       </c>
       <c r="K998" t="s">
@@ -46092,10 +52618,10 @@
       <c r="E1071" t="s">
         <v>1375</v>
       </c>
-      <c r="F1071" s="28">
+      <c r="F1071">
         <v>14</v>
       </c>
-      <c r="G1071" s="28">
+      <c r="G1071">
         <v>0.01</v>
       </c>
       <c r="H1071" t="s">

--- a/TüfteltruheDatenbank Tabellengrundlage.xlsx
+++ b/TüfteltruheDatenbank Tabellengrundlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekte\Projekt Tüfteltruhe\Tüfteltruhe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E749B4AB-F399-4592-B6FD-94C199B6AB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA08705E-863F-4DB9-BA6C-82665F506702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1080" windowWidth="27750" windowHeight="14070" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26025" yWindow="600" windowWidth="27750" windowHeight="14070" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schiffstypen" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Metall" sheetId="12" r:id="rId12"/>
     <sheet name="Zier" sheetId="13" r:id="rId13"/>
     <sheet name="Zauber" sheetId="14" r:id="rId14"/>
+    <sheet name="Zauberstein" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk28448438" localSheetId="7">Waren!#REF!</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7252" uniqueCount="2458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7756" uniqueCount="2539">
   <si>
     <t xml:space="preserve">Schiffstyp </t>
   </si>
@@ -7438,12 +7439,255 @@
       <t>Die Jugendäpfel und Ambrosia</t>
     </r>
   </si>
+  <si>
+    <t>+2 Giftresistenz</t>
+  </si>
+  <si>
+    <t>+1 Blocken und +1 Parieren</t>
+  </si>
+  <si>
+    <t>+2 Initiative</t>
+  </si>
+  <si>
+    <t>+10 Bewegung</t>
+  </si>
+  <si>
+    <t>+2 Kampfgeist</t>
+  </si>
+  <si>
+    <t>+2 Kälteresistenz</t>
+  </si>
+  <si>
+    <t>+2 Empathie</t>
+  </si>
+  <si>
+    <t>+2 Hitzeresistenz</t>
+  </si>
+  <si>
+    <t>+2 Wuchtresistenz</t>
+  </si>
+  <si>
+    <t>+2 Sammeln</t>
+  </si>
+  <si>
+    <t>+2 Manipulationsresistenz</t>
+  </si>
+  <si>
+    <t>+1 tägliche Fokusregeneration</t>
+  </si>
+  <si>
+    <t>+2 Sinne</t>
+  </si>
+  <si>
+    <t>+2 Intuition</t>
+  </si>
+  <si>
+    <t>+2 Heilkunde</t>
+  </si>
+  <si>
+    <t>+2 Krankheitsresistenz</t>
+  </si>
+  <si>
+    <t>+1 tägliche Ausdauerregeneration</t>
+  </si>
+  <si>
+    <t>+2 Spurensuche</t>
+  </si>
+  <si>
+    <t>+2 Kommando</t>
+  </si>
+  <si>
+    <t>+2 Handwerk</t>
+  </si>
+  <si>
+    <t>+2 Alchemie</t>
+  </si>
+  <si>
+    <t>+2 Präzision</t>
+  </si>
+  <si>
+    <t>+2 Täuschen</t>
+  </si>
+  <si>
+    <t>+2 Schleichen</t>
+  </si>
+  <si>
+    <t>+1 Waffenenergie für alle Angriffe</t>
+  </si>
+  <si>
+    <t>+1 tägliche Gesundheitsregeneration</t>
+  </si>
+  <si>
+    <t>+2 Tricksen</t>
+  </si>
+  <si>
+    <t>+2 Darstellen</t>
+  </si>
+  <si>
+    <t>+2 Einschüchtern</t>
+  </si>
+  <si>
+    <t>Kreaturen, die vom Träger berührt werden, können von diesem auf zauberhafte Weise 10 Fuß weggestoßen werden.</t>
+  </si>
+  <si>
+    <t>Kreaturen, die vom Träger berührt werden, erleiden nach Wunsch des Trägers 1 Hitzeschaden alle 6 Sekunden in denen die Berührung anhält.</t>
+  </si>
+  <si>
+    <t>+2 Hitze- und Kälteresistenz</t>
+  </si>
+  <si>
+    <t>+50% Bewegung</t>
+  </si>
+  <si>
+    <t>Kreaturen, die vom Träger berührt werden, können von diesem verstummt werden, solange die Berührung anhält.</t>
+  </si>
+  <si>
+    <t>+4 Schleichen</t>
+  </si>
+  <si>
+    <t>+2 tägliche Gesundheitsregeneration</t>
+  </si>
+  <si>
+    <t>+4 Initiative</t>
+  </si>
+  <si>
+    <t>+4 Überzeugen</t>
+  </si>
+  <si>
+    <t>Kreaturen, die vom Träger berührt werden, erleiden nach Wunsch des Trägers W6 Schaden. Dies funktioniert einmal pro Minute.</t>
+  </si>
+  <si>
+    <t>+5 Giftresistenz</t>
+  </si>
+  <si>
+    <t>+5 Kommando</t>
+  </si>
+  <si>
+    <t>Jede Tür, die der Träger schließt, ist sofort verschlossen, wenn dieser es will.</t>
+  </si>
+  <si>
+    <t>Edelmetalle und Edelsteine, die der Träger am Körper trägt oder berührt, werden nach Wunsch des Trägers unsichtbar.</t>
+  </si>
+  <si>
+    <t>+4 Handwerk</t>
+  </si>
+  <si>
+    <t>+3 Spurensuche und Orientierung</t>
+  </si>
+  <si>
+    <t>+2 Resistenz (Schnitt/Wucht/Stich) gegen Nahkampfangriffe</t>
+  </si>
+  <si>
+    <t>+2 Resistenz (Schnitt/Wucht/Stich) gegen Fernkampfangriffe und geworfene Waffen</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>+1 Artikulieren und +1 Überzeugen</t>
+  </si>
+  <si>
+    <t>+1 tägliche Willenskraftregeneration</t>
+  </si>
+  <si>
+    <t>+1 Intuition und +1 Empathie</t>
+  </si>
+  <si>
+    <t>+2 Inspirieren, +2 Musizieren, +2 Darstellen</t>
+  </si>
+  <si>
+    <t>Barriere</t>
+  </si>
+  <si>
+    <t>+1 Schirmwert</t>
+  </si>
+  <si>
+    <t>+2 Kampfgeist und +1 Adrenalin</t>
+  </si>
+  <si>
+    <t>+2 Ahnenweisheit</t>
+  </si>
+  <si>
+    <t>+1 Resistenz (Schnitt/Wucht/Stich)</t>
+  </si>
+  <si>
+    <t>+2 Überzeugen</t>
+  </si>
+  <si>
+    <t>+1 auf Wissensfähigkeiten</t>
+  </si>
+  <si>
+    <t>Reflektion</t>
+  </si>
+  <si>
+    <t>+2 Standhaftigkeit, +1 Hitzeresistenz, +1 Kälteresistenz</t>
+  </si>
+  <si>
+    <t>+2 Mechanik</t>
+  </si>
+  <si>
+    <t>+2 Krankheitsresistenz und +2 Giftresistenz</t>
+  </si>
+  <si>
+    <t>-1 tägliche Kraftregeneration</t>
+  </si>
+  <si>
+    <t>+2 Wissen: Übersinnlich und +2 Wissen: Natur</t>
+  </si>
+  <si>
+    <t>-10 Bewegung und -3 Initiative</t>
+  </si>
+  <si>
+    <t>+10 Tragkraft</t>
+  </si>
+  <si>
+    <t>+2 Hitze-, Krankheits- und Kälteresistenz</t>
+  </si>
+  <si>
+    <t>+1 tägliche Fokus- und Willenskraftregeneration</t>
+  </si>
+  <si>
+    <t>+3 Adrenalin</t>
+  </si>
+  <si>
+    <t>+3 Manipulationsresistenz</t>
+  </si>
+  <si>
+    <t>+1 auf alle Waffentests</t>
+  </si>
+  <si>
+    <t>+2 Darstellen und +2 Musizieren</t>
+  </si>
+  <si>
+    <t>+2 Reiten und +1 Standhaftigkeit</t>
+  </si>
+  <si>
+    <t>+2 Überzeugen und +1 Inspirieren</t>
+  </si>
+  <si>
+    <t>+2 Schwimmen und +2 Schifffahrt</t>
+  </si>
+  <si>
+    <t>+2 tägliche Ausdauerregeneration</t>
+  </si>
+  <si>
+    <t>+2 Handwerk und +2 Zubereiten</t>
+  </si>
+  <si>
+    <t>+3 Wissen: Gesellschaft</t>
+  </si>
+  <si>
+    <t>Unbekannt!</t>
+  </si>
+  <si>
+    <t>-3 Manipulationsresistenz und -2 tägliche Willenskraftregeneration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7498,6 +7742,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7582,7 +7834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7642,11 +7894,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -8091,13 +8347,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EA9252-C5F6-413A-BBC0-234D35D669DA}">
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -8301,7 +8557,7 @@
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" t="s">
         <v>310</v>
       </c>
     </row>
@@ -8311,7 +8567,7 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="26" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8326,12 +8582,12 @@
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="26" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="26" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8381,7 +8637,7 @@
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="26" t="s">
         <v>421</v>
       </c>
     </row>
@@ -8409,7 +8665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D109B46C-3406-49B0-A1E5-E3D47E59AD6C}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
@@ -12627,7 +12883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9CC701-E911-4A6A-B4A1-754E5A5EE75C}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
@@ -13753,7 +14009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E064A16-EC1E-484B-B577-74D8156562C0}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -16099,8 +16355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A19E005-4834-49D1-89BA-E12BAE5D6155}">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="A269" sqref="A162:B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19455,6 +19711,9 @@
       <c r="A162" t="s">
         <v>2056</v>
       </c>
+      <c r="B162" t="s">
+        <v>2056</v>
+      </c>
       <c r="C162">
         <v>1</v>
       </c>
@@ -19475,6 +19734,9 @@
       <c r="A163" t="s">
         <v>2056</v>
       </c>
+      <c r="B163" t="s">
+        <v>2056</v>
+      </c>
       <c r="C163">
         <v>2</v>
       </c>
@@ -19492,6 +19754,9 @@
       <c r="A164" t="s">
         <v>2056</v>
       </c>
+      <c r="B164" t="s">
+        <v>2056</v>
+      </c>
       <c r="C164">
         <v>3</v>
       </c>
@@ -19509,6 +19774,9 @@
       <c r="A165" t="s">
         <v>2056</v>
       </c>
+      <c r="B165" t="s">
+        <v>2056</v>
+      </c>
       <c r="C165">
         <v>4</v>
       </c>
@@ -19526,6 +19794,9 @@
       <c r="A166" t="s">
         <v>2056</v>
       </c>
+      <c r="B166" t="s">
+        <v>2056</v>
+      </c>
       <c r="C166">
         <v>5</v>
       </c>
@@ -19543,6 +19814,9 @@
       <c r="A167" t="s">
         <v>2056</v>
       </c>
+      <c r="B167" t="s">
+        <v>2056</v>
+      </c>
       <c r="C167">
         <v>6</v>
       </c>
@@ -19560,6 +19834,9 @@
       <c r="A168" t="s">
         <v>2056</v>
       </c>
+      <c r="B168" t="s">
+        <v>2056</v>
+      </c>
       <c r="C168">
         <v>7</v>
       </c>
@@ -19580,6 +19857,9 @@
       <c r="A169" t="s">
         <v>2056</v>
       </c>
+      <c r="B169" t="s">
+        <v>2056</v>
+      </c>
       <c r="C169">
         <v>8</v>
       </c>
@@ -19597,6 +19877,9 @@
       <c r="A170" t="s">
         <v>2056</v>
       </c>
+      <c r="B170" t="s">
+        <v>2056</v>
+      </c>
       <c r="C170">
         <v>9</v>
       </c>
@@ -19614,6 +19897,9 @@
       <c r="A171" t="s">
         <v>2056</v>
       </c>
+      <c r="B171" t="s">
+        <v>2056</v>
+      </c>
       <c r="C171">
         <v>10</v>
       </c>
@@ -19631,6 +19917,9 @@
       <c r="A172" t="s">
         <v>2056</v>
       </c>
+      <c r="B172" t="s">
+        <v>2056</v>
+      </c>
       <c r="C172">
         <v>11</v>
       </c>
@@ -19648,6 +19937,9 @@
       <c r="A173" t="s">
         <v>2056</v>
       </c>
+      <c r="B173" t="s">
+        <v>2056</v>
+      </c>
       <c r="C173">
         <v>12</v>
       </c>
@@ -19665,6 +19957,9 @@
       <c r="A174" t="s">
         <v>2056</v>
       </c>
+      <c r="B174" t="s">
+        <v>2056</v>
+      </c>
       <c r="C174">
         <v>13</v>
       </c>
@@ -19682,6 +19977,9 @@
       <c r="A175" t="s">
         <v>2056</v>
       </c>
+      <c r="B175" t="s">
+        <v>2056</v>
+      </c>
       <c r="C175">
         <v>14</v>
       </c>
@@ -19702,6 +20000,9 @@
       <c r="A176" t="s">
         <v>2056</v>
       </c>
+      <c r="B176" t="s">
+        <v>2056</v>
+      </c>
       <c r="C176">
         <v>15</v>
       </c>
@@ -19722,6 +20023,9 @@
       <c r="A177" t="s">
         <v>2056</v>
       </c>
+      <c r="B177" t="s">
+        <v>2056</v>
+      </c>
       <c r="C177">
         <v>16</v>
       </c>
@@ -19739,6 +20043,9 @@
       <c r="A178" t="s">
         <v>2056</v>
       </c>
+      <c r="B178" t="s">
+        <v>2056</v>
+      </c>
       <c r="C178">
         <v>17</v>
       </c>
@@ -19756,6 +20063,9 @@
       <c r="A179" t="s">
         <v>2056</v>
       </c>
+      <c r="B179" t="s">
+        <v>2056</v>
+      </c>
       <c r="C179">
         <v>18</v>
       </c>
@@ -19773,6 +20083,9 @@
       <c r="A180" t="s">
         <v>2083</v>
       </c>
+      <c r="B180" t="s">
+        <v>2083</v>
+      </c>
       <c r="C180">
         <v>1</v>
       </c>
@@ -19790,6 +20103,9 @@
       <c r="A181" t="s">
         <v>2083</v>
       </c>
+      <c r="B181" t="s">
+        <v>2083</v>
+      </c>
       <c r="C181">
         <v>2</v>
       </c>
@@ -19807,6 +20123,9 @@
       <c r="A182" t="s">
         <v>2083</v>
       </c>
+      <c r="B182" t="s">
+        <v>2083</v>
+      </c>
       <c r="C182">
         <v>3</v>
       </c>
@@ -19824,6 +20143,9 @@
       <c r="A183" t="s">
         <v>2083</v>
       </c>
+      <c r="B183" t="s">
+        <v>2083</v>
+      </c>
       <c r="C183">
         <v>4</v>
       </c>
@@ -19841,6 +20163,9 @@
       <c r="A184" t="s">
         <v>2083</v>
       </c>
+      <c r="B184" t="s">
+        <v>2083</v>
+      </c>
       <c r="C184">
         <v>5</v>
       </c>
@@ -19858,6 +20183,9 @@
       <c r="A185" t="s">
         <v>2083</v>
       </c>
+      <c r="B185" t="s">
+        <v>2083</v>
+      </c>
       <c r="C185">
         <v>6</v>
       </c>
@@ -19875,6 +20203,9 @@
       <c r="A186" t="s">
         <v>2083</v>
       </c>
+      <c r="B186" t="s">
+        <v>2083</v>
+      </c>
       <c r="C186">
         <v>7</v>
       </c>
@@ -19892,6 +20223,9 @@
       <c r="A187" t="s">
         <v>2083</v>
       </c>
+      <c r="B187" t="s">
+        <v>2083</v>
+      </c>
       <c r="C187">
         <v>8</v>
       </c>
@@ -19909,6 +20243,9 @@
       <c r="A188" t="s">
         <v>2083</v>
       </c>
+      <c r="B188" t="s">
+        <v>2083</v>
+      </c>
       <c r="C188">
         <v>9</v>
       </c>
@@ -19926,6 +20263,9 @@
       <c r="A189" t="s">
         <v>2103</v>
       </c>
+      <c r="B189" t="s">
+        <v>2103</v>
+      </c>
       <c r="C189">
         <v>1</v>
       </c>
@@ -19946,6 +20286,9 @@
       <c r="A190" t="s">
         <v>2103</v>
       </c>
+      <c r="B190" t="s">
+        <v>2103</v>
+      </c>
       <c r="C190">
         <v>2</v>
       </c>
@@ -19963,6 +20306,9 @@
       <c r="A191" t="s">
         <v>2103</v>
       </c>
+      <c r="B191" t="s">
+        <v>2103</v>
+      </c>
       <c r="C191">
         <v>3</v>
       </c>
@@ -19980,6 +20326,9 @@
       <c r="A192" t="s">
         <v>2103</v>
       </c>
+      <c r="B192" t="s">
+        <v>2103</v>
+      </c>
       <c r="C192">
         <v>4</v>
       </c>
@@ -19997,6 +20346,9 @@
       <c r="A193" t="s">
         <v>2103</v>
       </c>
+      <c r="B193" t="s">
+        <v>2103</v>
+      </c>
       <c r="C193">
         <v>5</v>
       </c>
@@ -20014,6 +20366,9 @@
       <c r="A194" t="s">
         <v>2103</v>
       </c>
+      <c r="B194" t="s">
+        <v>2103</v>
+      </c>
       <c r="C194">
         <v>6</v>
       </c>
@@ -20034,6 +20389,9 @@
       <c r="A195" t="s">
         <v>2103</v>
       </c>
+      <c r="B195" t="s">
+        <v>2103</v>
+      </c>
       <c r="C195">
         <v>7</v>
       </c>
@@ -20051,6 +20409,9 @@
       <c r="A196" t="s">
         <v>2103</v>
       </c>
+      <c r="B196" t="s">
+        <v>2103</v>
+      </c>
       <c r="C196">
         <v>8</v>
       </c>
@@ -20068,6 +20429,9 @@
       <c r="A197" t="s">
         <v>2103</v>
       </c>
+      <c r="B197" t="s">
+        <v>2103</v>
+      </c>
       <c r="C197">
         <v>9</v>
       </c>
@@ -20085,6 +20449,9 @@
       <c r="A198" t="s">
         <v>2103</v>
       </c>
+      <c r="B198" t="s">
+        <v>2103</v>
+      </c>
       <c r="C198">
         <v>10</v>
       </c>
@@ -20108,6 +20475,9 @@
       <c r="A199" t="s">
         <v>2103</v>
       </c>
+      <c r="B199" t="s">
+        <v>2103</v>
+      </c>
       <c r="C199">
         <v>11</v>
       </c>
@@ -20128,6 +20498,9 @@
       <c r="A200" t="s">
         <v>2103</v>
       </c>
+      <c r="B200" t="s">
+        <v>2103</v>
+      </c>
       <c r="C200">
         <v>12</v>
       </c>
@@ -20145,6 +20518,9 @@
       <c r="A201" t="s">
         <v>2103</v>
       </c>
+      <c r="B201" t="s">
+        <v>2103</v>
+      </c>
       <c r="C201">
         <v>13</v>
       </c>
@@ -20162,6 +20538,9 @@
       <c r="A202" t="s">
         <v>2103</v>
       </c>
+      <c r="B202" t="s">
+        <v>2103</v>
+      </c>
       <c r="C202">
         <v>14</v>
       </c>
@@ -20179,6 +20558,9 @@
       <c r="A203" t="s">
         <v>2103</v>
       </c>
+      <c r="B203" t="s">
+        <v>2103</v>
+      </c>
       <c r="C203">
         <v>15</v>
       </c>
@@ -20196,6 +20578,9 @@
       <c r="A204" t="s">
         <v>2103</v>
       </c>
+      <c r="B204" t="s">
+        <v>2103</v>
+      </c>
       <c r="C204">
         <v>16</v>
       </c>
@@ -20213,6 +20598,9 @@
       <c r="A205" t="s">
         <v>2103</v>
       </c>
+      <c r="B205" t="s">
+        <v>2103</v>
+      </c>
       <c r="C205">
         <v>17</v>
       </c>
@@ -20230,6 +20618,9 @@
       <c r="A206" t="s">
         <v>2103</v>
       </c>
+      <c r="B206" t="s">
+        <v>2103</v>
+      </c>
       <c r="C206">
         <v>18</v>
       </c>
@@ -20247,6 +20638,9 @@
       <c r="A207" t="s">
         <v>2103</v>
       </c>
+      <c r="B207" t="s">
+        <v>2103</v>
+      </c>
       <c r="C207">
         <v>19</v>
       </c>
@@ -20267,6 +20661,9 @@
       <c r="A208" t="s">
         <v>2103</v>
       </c>
+      <c r="B208" t="s">
+        <v>2103</v>
+      </c>
       <c r="C208">
         <v>20</v>
       </c>
@@ -20284,6 +20681,9 @@
       <c r="A209" t="s">
         <v>2103</v>
       </c>
+      <c r="B209" t="s">
+        <v>2103</v>
+      </c>
       <c r="C209">
         <v>21</v>
       </c>
@@ -20301,6 +20701,9 @@
       <c r="A210" t="s">
         <v>2103</v>
       </c>
+      <c r="B210" t="s">
+        <v>2103</v>
+      </c>
       <c r="C210">
         <v>22</v>
       </c>
@@ -20318,6 +20721,9 @@
       <c r="A211" t="s">
         <v>2103</v>
       </c>
+      <c r="B211" t="s">
+        <v>2103</v>
+      </c>
       <c r="C211">
         <v>23</v>
       </c>
@@ -20335,6 +20741,9 @@
       <c r="A212" t="s">
         <v>2103</v>
       </c>
+      <c r="B212" t="s">
+        <v>2103</v>
+      </c>
       <c r="C212">
         <v>24</v>
       </c>
@@ -20355,6 +20764,9 @@
       <c r="A213" t="s">
         <v>2124</v>
       </c>
+      <c r="B213" t="s">
+        <v>2124</v>
+      </c>
       <c r="C213">
         <v>1</v>
       </c>
@@ -20372,6 +20784,9 @@
       <c r="A214" t="s">
         <v>2124</v>
       </c>
+      <c r="B214" t="s">
+        <v>2124</v>
+      </c>
       <c r="C214">
         <v>2</v>
       </c>
@@ -20389,6 +20804,9 @@
       <c r="A215" t="s">
         <v>2124</v>
       </c>
+      <c r="B215" t="s">
+        <v>2124</v>
+      </c>
       <c r="C215">
         <v>3</v>
       </c>
@@ -20406,6 +20824,9 @@
       <c r="A216" t="s">
         <v>2124</v>
       </c>
+      <c r="B216" t="s">
+        <v>2124</v>
+      </c>
       <c r="C216">
         <v>4</v>
       </c>
@@ -20423,6 +20844,9 @@
       <c r="A217" t="s">
         <v>2124</v>
       </c>
+      <c r="B217" t="s">
+        <v>2124</v>
+      </c>
       <c r="C217">
         <v>5</v>
       </c>
@@ -20440,6 +20864,9 @@
       <c r="A218" t="s">
         <v>2124</v>
       </c>
+      <c r="B218" t="s">
+        <v>2124</v>
+      </c>
       <c r="C218">
         <v>6</v>
       </c>
@@ -20457,6 +20884,9 @@
       <c r="A219" t="s">
         <v>2124</v>
       </c>
+      <c r="B219" t="s">
+        <v>2124</v>
+      </c>
       <c r="C219">
         <v>7</v>
       </c>
@@ -20474,6 +20904,9 @@
       <c r="A220" t="s">
         <v>2124</v>
       </c>
+      <c r="B220" t="s">
+        <v>2124</v>
+      </c>
       <c r="C220">
         <v>8</v>
       </c>
@@ -20491,6 +20924,9 @@
       <c r="A221" t="s">
         <v>2124</v>
       </c>
+      <c r="B221" t="s">
+        <v>2124</v>
+      </c>
       <c r="C221">
         <v>9</v>
       </c>
@@ -20508,6 +20944,9 @@
       <c r="A222" t="s">
         <v>2124</v>
       </c>
+      <c r="B222" t="s">
+        <v>2124</v>
+      </c>
       <c r="C222">
         <v>10</v>
       </c>
@@ -20525,6 +20964,9 @@
       <c r="A223" t="s">
         <v>2124</v>
       </c>
+      <c r="B223" t="s">
+        <v>2124</v>
+      </c>
       <c r="C223">
         <v>11</v>
       </c>
@@ -20542,6 +20984,9 @@
       <c r="A224" t="s">
         <v>2124</v>
       </c>
+      <c r="B224" t="s">
+        <v>2124</v>
+      </c>
       <c r="C224">
         <v>12</v>
       </c>
@@ -20559,6 +21004,9 @@
       <c r="A225" t="s">
         <v>2124</v>
       </c>
+      <c r="B225" t="s">
+        <v>2124</v>
+      </c>
       <c r="C225">
         <v>13</v>
       </c>
@@ -20576,6 +21024,9 @@
       <c r="A226" t="s">
         <v>2124</v>
       </c>
+      <c r="B226" t="s">
+        <v>2124</v>
+      </c>
       <c r="C226">
         <v>14</v>
       </c>
@@ -20593,6 +21044,9 @@
       <c r="A227" t="s">
         <v>2124</v>
       </c>
+      <c r="B227" t="s">
+        <v>2124</v>
+      </c>
       <c r="C227">
         <v>15</v>
       </c>
@@ -20610,6 +21064,9 @@
       <c r="A228" t="s">
         <v>2124</v>
       </c>
+      <c r="B228" t="s">
+        <v>2124</v>
+      </c>
       <c r="C228">
         <v>16</v>
       </c>
@@ -20627,6 +21084,9 @@
       <c r="A229" t="s">
         <v>2124</v>
       </c>
+      <c r="B229" t="s">
+        <v>2124</v>
+      </c>
       <c r="C229">
         <v>17</v>
       </c>
@@ -20644,6 +21104,9 @@
       <c r="A230" t="s">
         <v>2124</v>
       </c>
+      <c r="B230" t="s">
+        <v>2124</v>
+      </c>
       <c r="C230">
         <v>18</v>
       </c>
@@ -20661,6 +21124,9 @@
       <c r="A231" t="s">
         <v>2124</v>
       </c>
+      <c r="B231" t="s">
+        <v>2124</v>
+      </c>
       <c r="C231">
         <v>19</v>
       </c>
@@ -20678,6 +21144,9 @@
       <c r="A232" t="s">
         <v>2124</v>
       </c>
+      <c r="B232" t="s">
+        <v>2124</v>
+      </c>
       <c r="C232">
         <v>20</v>
       </c>
@@ -20695,6 +21164,9 @@
       <c r="A233" t="s">
         <v>2124</v>
       </c>
+      <c r="B233" t="s">
+        <v>2124</v>
+      </c>
       <c r="C233">
         <v>21</v>
       </c>
@@ -20712,6 +21184,9 @@
       <c r="A234" t="s">
         <v>2124</v>
       </c>
+      <c r="B234" t="s">
+        <v>2124</v>
+      </c>
       <c r="C234">
         <v>22</v>
       </c>
@@ -20729,6 +21204,9 @@
       <c r="A235" t="s">
         <v>2124</v>
       </c>
+      <c r="B235" t="s">
+        <v>2124</v>
+      </c>
       <c r="C235">
         <v>23</v>
       </c>
@@ -20746,6 +21224,9 @@
       <c r="A236" t="s">
         <v>2124</v>
       </c>
+      <c r="B236" t="s">
+        <v>2124</v>
+      </c>
       <c r="C236">
         <v>24</v>
       </c>
@@ -20763,6 +21244,9 @@
       <c r="A237" t="s">
         <v>2124</v>
       </c>
+      <c r="B237" t="s">
+        <v>2124</v>
+      </c>
       <c r="C237">
         <v>25</v>
       </c>
@@ -20780,6 +21264,9 @@
       <c r="A238" t="s">
         <v>2124</v>
       </c>
+      <c r="B238" t="s">
+        <v>2124</v>
+      </c>
       <c r="C238">
         <v>26</v>
       </c>
@@ -20797,6 +21284,9 @@
       <c r="A239" t="s">
         <v>2138</v>
       </c>
+      <c r="B239" t="s">
+        <v>2138</v>
+      </c>
       <c r="C239">
         <v>1</v>
       </c>
@@ -20814,6 +21304,9 @@
       <c r="A240" t="s">
         <v>2138</v>
       </c>
+      <c r="B240" t="s">
+        <v>2138</v>
+      </c>
       <c r="C240">
         <v>2</v>
       </c>
@@ -20831,6 +21324,9 @@
       <c r="A241" t="s">
         <v>2138</v>
       </c>
+      <c r="B241" t="s">
+        <v>2138</v>
+      </c>
       <c r="C241">
         <v>3</v>
       </c>
@@ -20848,6 +21344,9 @@
       <c r="A242" t="s">
         <v>2138</v>
       </c>
+      <c r="B242" t="s">
+        <v>2138</v>
+      </c>
       <c r="C242">
         <v>4</v>
       </c>
@@ -20865,6 +21364,9 @@
       <c r="A243" t="s">
         <v>2138</v>
       </c>
+      <c r="B243" t="s">
+        <v>2138</v>
+      </c>
       <c r="C243">
         <v>5</v>
       </c>
@@ -20882,6 +21384,9 @@
       <c r="A244" t="s">
         <v>2138</v>
       </c>
+      <c r="B244" t="s">
+        <v>2138</v>
+      </c>
       <c r="C244">
         <v>6</v>
       </c>
@@ -20899,6 +21404,9 @@
       <c r="A245" t="s">
         <v>2138</v>
       </c>
+      <c r="B245" t="s">
+        <v>2138</v>
+      </c>
       <c r="C245">
         <v>7</v>
       </c>
@@ -20916,6 +21424,9 @@
       <c r="A246" t="s">
         <v>2138</v>
       </c>
+      <c r="B246" t="s">
+        <v>2138</v>
+      </c>
       <c r="C246">
         <v>8</v>
       </c>
@@ -20933,6 +21444,9 @@
       <c r="A247" t="s">
         <v>2138</v>
       </c>
+      <c r="B247" t="s">
+        <v>2138</v>
+      </c>
       <c r="C247">
         <v>9</v>
       </c>
@@ -20950,6 +21464,9 @@
       <c r="A248" t="s">
         <v>2138</v>
       </c>
+      <c r="B248" t="s">
+        <v>2138</v>
+      </c>
       <c r="C248">
         <v>10</v>
       </c>
@@ -20967,6 +21484,9 @@
       <c r="A249" t="s">
         <v>2138</v>
       </c>
+      <c r="B249" t="s">
+        <v>2138</v>
+      </c>
       <c r="C249">
         <v>11</v>
       </c>
@@ -20984,6 +21504,9 @@
       <c r="A250" t="s">
         <v>2138</v>
       </c>
+      <c r="B250" t="s">
+        <v>2138</v>
+      </c>
       <c r="C250">
         <v>12</v>
       </c>
@@ -21001,6 +21524,9 @@
       <c r="A251" t="s">
         <v>2138</v>
       </c>
+      <c r="B251" t="s">
+        <v>2138</v>
+      </c>
       <c r="C251">
         <v>13</v>
       </c>
@@ -21021,6 +21547,9 @@
       <c r="A252" t="s">
         <v>2157</v>
       </c>
+      <c r="B252" t="s">
+        <v>2157</v>
+      </c>
       <c r="C252">
         <v>1</v>
       </c>
@@ -21038,6 +21567,9 @@
       <c r="A253" t="s">
         <v>2157</v>
       </c>
+      <c r="B253" t="s">
+        <v>2157</v>
+      </c>
       <c r="C253">
         <v>2</v>
       </c>
@@ -21055,6 +21587,9 @@
       <c r="A254" t="s">
         <v>2157</v>
       </c>
+      <c r="B254" t="s">
+        <v>2157</v>
+      </c>
       <c r="C254">
         <v>3</v>
       </c>
@@ -21072,6 +21607,9 @@
       <c r="A255" t="s">
         <v>2157</v>
       </c>
+      <c r="B255" t="s">
+        <v>2157</v>
+      </c>
       <c r="C255">
         <v>4</v>
       </c>
@@ -21089,6 +21627,9 @@
       <c r="A256" t="s">
         <v>2157</v>
       </c>
+      <c r="B256" t="s">
+        <v>2157</v>
+      </c>
       <c r="C256">
         <v>5</v>
       </c>
@@ -21106,6 +21647,9 @@
       <c r="A257" t="s">
         <v>2157</v>
       </c>
+      <c r="B257" t="s">
+        <v>2157</v>
+      </c>
       <c r="C257">
         <v>6</v>
       </c>
@@ -21123,6 +21667,9 @@
       <c r="A258" t="s">
         <v>2157</v>
       </c>
+      <c r="B258" t="s">
+        <v>2157</v>
+      </c>
       <c r="C258">
         <v>7</v>
       </c>
@@ -21140,6 +21687,9 @@
       <c r="A259" t="s">
         <v>2157</v>
       </c>
+      <c r="B259" t="s">
+        <v>2157</v>
+      </c>
       <c r="C259">
         <v>8</v>
       </c>
@@ -21157,6 +21707,9 @@
       <c r="A260" t="s">
         <v>2157</v>
       </c>
+      <c r="B260" t="s">
+        <v>2157</v>
+      </c>
       <c r="C260">
         <v>9</v>
       </c>
@@ -21174,6 +21727,9 @@
       <c r="A261" t="s">
         <v>2157</v>
       </c>
+      <c r="B261" t="s">
+        <v>2157</v>
+      </c>
       <c r="C261">
         <v>10</v>
       </c>
@@ -21191,6 +21747,9 @@
       <c r="A262" t="s">
         <v>2157</v>
       </c>
+      <c r="B262" t="s">
+        <v>2157</v>
+      </c>
       <c r="C262">
         <v>11</v>
       </c>
@@ -21208,6 +21767,9 @@
       <c r="A263" t="s">
         <v>2157</v>
       </c>
+      <c r="B263" t="s">
+        <v>2157</v>
+      </c>
       <c r="C263">
         <v>12</v>
       </c>
@@ -21225,6 +21787,9 @@
       <c r="A264" t="s">
         <v>2157</v>
       </c>
+      <c r="B264" t="s">
+        <v>2157</v>
+      </c>
       <c r="C264">
         <v>13</v>
       </c>
@@ -21242,6 +21807,9 @@
       <c r="A265" t="s">
         <v>2157</v>
       </c>
+      <c r="B265" t="s">
+        <v>2157</v>
+      </c>
       <c r="C265">
         <v>14</v>
       </c>
@@ -21259,6 +21827,9 @@
       <c r="A266" t="s">
         <v>2157</v>
       </c>
+      <c r="B266" t="s">
+        <v>2157</v>
+      </c>
       <c r="C266">
         <v>15</v>
       </c>
@@ -21276,6 +21847,9 @@
       <c r="A267" t="s">
         <v>2157</v>
       </c>
+      <c r="B267" t="s">
+        <v>2157</v>
+      </c>
       <c r="C267">
         <v>16</v>
       </c>
@@ -21293,6 +21867,9 @@
       <c r="A268" t="s">
         <v>2157</v>
       </c>
+      <c r="B268" t="s">
+        <v>2157</v>
+      </c>
       <c r="C268">
         <v>17</v>
       </c>
@@ -21310,6 +21887,9 @@
       <c r="A269" t="s">
         <v>2157</v>
       </c>
+      <c r="B269" t="s">
+        <v>2157</v>
+      </c>
       <c r="C269">
         <v>18</v>
       </c>
@@ -21670,6 +22250,1330 @@
       </c>
       <c r="H286">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4932D4FC-8A82-45CA-8404-E38197EC582B}">
+  <dimension ref="A1:D93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="134.5703125" style="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>2537</v>
       </c>
     </row>
   </sheetData>
@@ -22095,8 +23999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B639706-171A-4E32-87D9-97BA2F564F30}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28755,10 +30659,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0754075-E1C9-4F7F-9713-EA6023DF32F4}">
-  <dimension ref="A1:K1167"/>
+  <dimension ref="A1:K1222"/>
   <sheetViews>
-    <sheetView topLeftCell="A805" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A820" sqref="A820:XFD821"/>
+    <sheetView topLeftCell="A1136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B844" sqref="B844"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48190,7 +50094,7 @@
       <c r="A840" t="s">
         <v>310</v>
       </c>
-      <c r="B840" s="21" t="s">
+      <c r="B840" s="26" t="s">
         <v>1718</v>
       </c>
       <c r="I840">
@@ -48252,7 +50156,7 @@
       <c r="A844" t="s">
         <v>311</v>
       </c>
-      <c r="B844" s="21" t="s">
+      <c r="B844" s="26" t="s">
         <v>1719</v>
       </c>
       <c r="I844">
@@ -55294,6 +57198,168 @@
       <c r="I1167">
         <v>2</v>
       </c>
+    </row>
+    <row r="1168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>289</v>
+      </c>
+      <c r="I1173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1174">
+        <v>-3</v>
+      </c>
+      <c r="I1174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1175">
+        <v>-2</v>
+      </c>
+      <c r="I1175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I1176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>307</v>
+      </c>
+      <c r="I1177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>405</v>
+      </c>
+      <c r="I1179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1205" s="26"/>
+    </row>
+    <row r="1206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1206" s="26"/>
+    </row>
+    <row r="1207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1207" s="26"/>
+    </row>
+    <row r="1208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1208" s="26"/>
+    </row>
+    <row r="1210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1210" s="26"/>
+    </row>
+    <row r="1211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1211" s="26"/>
+    </row>
+    <row r="1221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1221" s="26"/>
+    </row>
+    <row r="1222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1222" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/TüfteltruheDatenbank Tabellengrundlage.xlsx
+++ b/TüfteltruheDatenbank Tabellengrundlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekte\Projekt Tüfteltruhe\Tüfteltruhe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA08705E-863F-4DB9-BA6C-82665F506702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D34C48-C937-491D-BF39-E14FC306506E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26025" yWindow="600" windowWidth="27750" windowHeight="14070" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="405" windowWidth="27750" windowHeight="14070" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schiffstypen" sheetId="1" r:id="rId1"/>
@@ -8348,7 +8348,7 @@
   <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8572,7 +8572,7 @@
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="26" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8642,7 +8642,7 @@
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="26" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8665,7 +8665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D109B46C-3406-49B0-A1E5-E3D47E59AD6C}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
@@ -12883,7 +12883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9CC701-E911-4A6A-B4A1-754E5A5EE75C}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>

--- a/TüfteltruheDatenbank Tabellengrundlage.xlsx
+++ b/TüfteltruheDatenbank Tabellengrundlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekte\Projekt Tüfteltruhe\Tüfteltruhe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D34C48-C937-491D-BF39-E14FC306506E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8564E308-8068-4BBC-B7EC-AC84A746A0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="405" windowWidth="27750" windowHeight="14070" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="1215" windowWidth="12255" windowHeight="14070" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schiffstypen" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7756" uniqueCount="2539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7757" uniqueCount="2540">
   <si>
     <t xml:space="preserve">Schiffstyp </t>
   </si>
@@ -7677,10 +7677,13 @@
     <t>+3 Wissen: Gesellschaft</t>
   </si>
   <si>
-    <t>Unbekannt!</t>
-  </si>
-  <si>
     <t>-3 Manipulationsresistenz und -2 tägliche Willenskraftregeneration</t>
+  </si>
+  <si>
+    <t>Unbekannte Wirkung!</t>
+  </si>
+  <si>
+    <t>Portionsgewicht</t>
   </si>
 </sst>
 </file>
@@ -7834,7 +7837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7899,7 +7902,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -8567,12 +8569,12 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="A43" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="A44" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8582,12 +8584,12 @@
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="A46" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8637,12 +8639,12 @@
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
+      <c r="A57" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="A58" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8665,7 +8667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D109B46C-3406-49B0-A1E5-E3D47E59AD6C}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
@@ -22263,7 +22265,7 @@
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22271,20 +22273,20 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="134.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="134.5703125" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>2050</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>2049</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2505</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>2055</v>
       </c>
     </row>
@@ -22298,7 +22300,7 @@
       <c r="C2" t="s">
         <v>2213</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>2458</v>
       </c>
     </row>
@@ -22312,7 +22314,7 @@
       <c r="C3" t="s">
         <v>2021</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>2459</v>
       </c>
     </row>
@@ -22326,7 +22328,7 @@
       <c r="C4" t="s">
         <v>2022</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>2460</v>
       </c>
     </row>
@@ -22340,7 +22342,7 @@
       <c r="C5" t="s">
         <v>2023</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>2461</v>
       </c>
     </row>
@@ -22354,7 +22356,7 @@
       <c r="C6" t="s">
         <v>2024</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>2462</v>
       </c>
     </row>
@@ -22368,7 +22370,7 @@
       <c r="C7" t="s">
         <v>2025</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>2463</v>
       </c>
     </row>
@@ -22382,7 +22384,7 @@
       <c r="C8" t="s">
         <v>2026</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>2464</v>
       </c>
     </row>
@@ -22396,7 +22398,7 @@
       <c r="C9" t="s">
         <v>2027</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>2465</v>
       </c>
     </row>
@@ -22410,7 +22412,7 @@
       <c r="C10" t="s">
         <v>2028</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>2466</v>
       </c>
     </row>
@@ -22424,7 +22426,7 @@
       <c r="C11" t="s">
         <v>2029</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>2467</v>
       </c>
     </row>
@@ -22438,7 +22440,7 @@
       <c r="C12" t="s">
         <v>2030</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>2468</v>
       </c>
     </row>
@@ -22452,7 +22454,7 @@
       <c r="C13" t="s">
         <v>2031</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>2469</v>
       </c>
     </row>
@@ -22466,7 +22468,7 @@
       <c r="C14" t="s">
         <v>2032</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>2470</v>
       </c>
     </row>
@@ -22480,7 +22482,7 @@
       <c r="C15" t="s">
         <v>2033</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>2471</v>
       </c>
     </row>
@@ -22494,7 +22496,7 @@
       <c r="C16" t="s">
         <v>2034</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>2472</v>
       </c>
     </row>
@@ -22508,7 +22510,7 @@
       <c r="C17" t="s">
         <v>2035</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>2473</v>
       </c>
     </row>
@@ -22522,7 +22524,7 @@
       <c r="C18" t="s">
         <v>2036</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>2474</v>
       </c>
     </row>
@@ -22536,7 +22538,7 @@
       <c r="C19" t="s">
         <v>2037</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="28" t="s">
         <v>2475</v>
       </c>
     </row>
@@ -22550,7 +22552,7 @@
       <c r="C20" t="s">
         <v>2038</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28" t="s">
         <v>2476</v>
       </c>
     </row>
@@ -22564,7 +22566,7 @@
       <c r="C21" t="s">
         <v>2039</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>2477</v>
       </c>
     </row>
@@ -22578,7 +22580,7 @@
       <c r="C22" t="s">
         <v>2040</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>2478</v>
       </c>
     </row>
@@ -22592,7 +22594,7 @@
       <c r="C23" t="s">
         <v>2041</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>2479</v>
       </c>
     </row>
@@ -22606,7 +22608,7 @@
       <c r="C24" t="s">
         <v>2042</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="28" t="s">
         <v>2480</v>
       </c>
     </row>
@@ -22620,7 +22622,7 @@
       <c r="C25" t="s">
         <v>2043</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="28" t="s">
         <v>2481</v>
       </c>
     </row>
@@ -22634,7 +22636,7 @@
       <c r="C26" t="s">
         <v>2044</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="28" t="s">
         <v>2482</v>
       </c>
     </row>
@@ -22648,7 +22650,7 @@
       <c r="C27" t="s">
         <v>2045</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="28" t="s">
         <v>2483</v>
       </c>
     </row>
@@ -22662,7 +22664,7 @@
       <c r="C28" t="s">
         <v>2046</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>2484</v>
       </c>
     </row>
@@ -22676,7 +22678,7 @@
       <c r="C29" t="s">
         <v>2047</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>2485</v>
       </c>
     </row>
@@ -22690,7 +22692,7 @@
       <c r="C30" t="s">
         <v>2048</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="28" t="s">
         <v>2486</v>
       </c>
     </row>
@@ -22704,7 +22706,7 @@
       <c r="C31" t="s">
         <v>2139</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="28" t="s">
         <v>2487</v>
       </c>
     </row>
@@ -22718,7 +22720,7 @@
       <c r="C32" t="s">
         <v>2140</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="28" t="s">
         <v>2503</v>
       </c>
     </row>
@@ -22732,7 +22734,7 @@
       <c r="C33" t="s">
         <v>2141</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>2488</v>
       </c>
     </row>
@@ -22746,7 +22748,7 @@
       <c r="C34" t="s">
         <v>2142</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="28" t="s">
         <v>2489</v>
       </c>
     </row>
@@ -22760,7 +22762,7 @@
       <c r="C35" t="s">
         <v>2143</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="28" t="s">
         <v>2490</v>
       </c>
     </row>
@@ -22774,7 +22776,7 @@
       <c r="C36" t="s">
         <v>2144</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="28" t="s">
         <v>2491</v>
       </c>
     </row>
@@ -22788,7 +22790,7 @@
       <c r="C37" t="s">
         <v>2145</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="28" t="s">
         <v>2492</v>
       </c>
     </row>
@@ -22802,7 +22804,7 @@
       <c r="C38" t="s">
         <v>2146</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="28" t="s">
         <v>2493</v>
       </c>
     </row>
@@ -22816,7 +22818,7 @@
       <c r="C39" t="s">
         <v>2147</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>2494</v>
       </c>
     </row>
@@ -22830,7 +22832,7 @@
       <c r="C40" t="s">
         <v>2148</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="28" t="s">
         <v>2495</v>
       </c>
     </row>
@@ -22844,7 +22846,7 @@
       <c r="C41" t="s">
         <v>2149</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="28" t="s">
         <v>2496</v>
       </c>
     </row>
@@ -22858,7 +22860,7 @@
       <c r="C42" t="s">
         <v>2150</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="28" t="s">
         <v>2497</v>
       </c>
     </row>
@@ -22872,7 +22874,7 @@
       <c r="C43" t="s">
         <v>2151</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="28" t="s">
         <v>2504</v>
       </c>
     </row>
@@ -22886,7 +22888,7 @@
       <c r="C44" t="s">
         <v>2152</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="28" t="s">
         <v>2498</v>
       </c>
     </row>
@@ -22900,7 +22902,7 @@
       <c r="C45" t="s">
         <v>2153</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="28" t="s">
         <v>2499</v>
       </c>
     </row>
@@ -22914,7 +22916,7 @@
       <c r="C46" t="s">
         <v>2154</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="28" t="s">
         <v>2500</v>
       </c>
     </row>
@@ -22928,7 +22930,7 @@
       <c r="C47" t="s">
         <v>2155</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="28" t="s">
         <v>2501</v>
       </c>
     </row>
@@ -22942,7 +22944,7 @@
       <c r="C48" t="s">
         <v>2156</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="28" t="s">
         <v>2502</v>
       </c>
     </row>
@@ -22956,7 +22958,7 @@
       <c r="C49" t="s">
         <v>2057</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="28" t="s">
         <v>2506</v>
       </c>
     </row>
@@ -22970,7 +22972,7 @@
       <c r="C50" t="s">
         <v>2058</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="28" t="s">
         <v>2507</v>
       </c>
     </row>
@@ -22984,7 +22986,7 @@
       <c r="C51" t="s">
         <v>2059</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="28" t="s">
         <v>2468</v>
       </c>
     </row>
@@ -22998,7 +23000,7 @@
       <c r="C52" t="s">
         <v>2034</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="28" t="s">
         <v>2483</v>
       </c>
     </row>
@@ -23012,7 +23014,7 @@
       <c r="C53" t="s">
         <v>2060</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="28" t="s">
         <v>2508</v>
       </c>
     </row>
@@ -23026,7 +23028,7 @@
       <c r="C54" t="s">
         <v>2061</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="28" t="s">
         <v>2509</v>
       </c>
     </row>
@@ -23040,7 +23042,7 @@
       <c r="C55" t="s">
         <v>2062</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="28" t="s">
         <v>2459</v>
       </c>
     </row>
@@ -23054,7 +23056,7 @@
       <c r="C56" t="s">
         <v>2510</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="28" t="s">
         <v>2511</v>
       </c>
     </row>
@@ -23068,7 +23070,7 @@
       <c r="C57" t="s">
         <v>2064</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="28" t="s">
         <v>2465</v>
       </c>
     </row>
@@ -23082,7 +23084,7 @@
       <c r="C58" t="s">
         <v>2065</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="28" t="s">
         <v>2463</v>
       </c>
     </row>
@@ -23096,7 +23098,7 @@
       <c r="C59" t="s">
         <v>2066</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="28" t="s">
         <v>2512</v>
       </c>
     </row>
@@ -23110,7 +23112,7 @@
       <c r="C60" t="s">
         <v>2067</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="28" t="s">
         <v>2513</v>
       </c>
     </row>
@@ -23124,7 +23126,7 @@
       <c r="C61" t="s">
         <v>2068</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="28" t="s">
         <v>2514</v>
       </c>
     </row>
@@ -23138,7 +23140,7 @@
       <c r="C62" t="s">
         <v>2069</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="28" t="s">
         <v>2515</v>
       </c>
     </row>
@@ -23152,7 +23154,7 @@
       <c r="C63" t="s">
         <v>2070</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="28" t="s">
         <v>2516</v>
       </c>
     </row>
@@ -23166,7 +23168,7 @@
       <c r="C64" t="s">
         <v>2517</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="28" t="s">
         <v>2518</v>
       </c>
     </row>
@@ -23180,7 +23182,7 @@
       <c r="C65" t="s">
         <v>2072</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="28" t="s">
         <v>2469</v>
       </c>
     </row>
@@ -23194,7 +23196,7 @@
       <c r="C66" t="s">
         <v>2073</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="28" t="s">
         <v>2481</v>
       </c>
     </row>
@@ -23208,7 +23210,7 @@
       <c r="C67" t="s">
         <v>2084</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="28" t="s">
         <v>2519</v>
       </c>
     </row>
@@ -23222,7 +23224,7 @@
       <c r="C68" t="s">
         <v>2036</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="28" t="s">
         <v>2520</v>
       </c>
     </row>
@@ -23236,7 +23238,7 @@
       <c r="C69" t="s">
         <v>2044</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="28" t="s">
         <v>2521</v>
       </c>
     </row>
@@ -23250,7 +23252,7 @@
       <c r="C70" t="s">
         <v>2070</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="28" t="s">
         <v>2522</v>
       </c>
     </row>
@@ -23264,7 +23266,7 @@
       <c r="C71" t="s">
         <v>2085</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="28" t="s">
         <v>2462</v>
       </c>
     </row>
@@ -23278,7 +23280,7 @@
       <c r="C72" t="s">
         <v>2086</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="28" t="s">
         <v>2470</v>
       </c>
     </row>
@@ -23292,7 +23294,7 @@
       <c r="C73" t="s">
         <v>2087</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="28" t="s">
         <v>2472</v>
       </c>
     </row>
@@ -23306,7 +23308,7 @@
       <c r="C74" t="s">
         <v>2088</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="28" t="s">
         <v>2514</v>
       </c>
     </row>
@@ -23320,7 +23322,7 @@
       <c r="C75" t="s">
         <v>2089</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="28" t="s">
         <v>2482</v>
       </c>
     </row>
@@ -23334,8 +23336,8 @@
       <c r="C76" t="s">
         <v>2090</v>
       </c>
-      <c r="D76" s="29" t="s">
-        <v>2538</v>
+      <c r="D76" s="28" t="s">
+        <v>2537</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -23348,7 +23350,7 @@
       <c r="C77" t="s">
         <v>2091</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="D77" s="28" t="s">
         <v>2523</v>
       </c>
     </row>
@@ -23362,7 +23364,7 @@
       <c r="C78" t="s">
         <v>2092</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="28" t="s">
         <v>2524</v>
       </c>
     </row>
@@ -23376,7 +23378,7 @@
       <c r="C79" t="s">
         <v>2021</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="28" t="s">
         <v>2525</v>
       </c>
     </row>
@@ -23390,7 +23392,7 @@
       <c r="C80" t="s">
         <v>2093</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="28" t="s">
         <v>2526</v>
       </c>
     </row>
@@ -23404,7 +23406,7 @@
       <c r="C81" t="s">
         <v>2094</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="D81" s="28" t="s">
         <v>2527</v>
       </c>
     </row>
@@ -23418,7 +23420,7 @@
       <c r="C82" t="s">
         <v>2095</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="28" t="s">
         <v>2528</v>
       </c>
     </row>
@@ -23432,7 +23434,7 @@
       <c r="C83" t="s">
         <v>2096</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="28" t="s">
         <v>2529</v>
       </c>
     </row>
@@ -23446,7 +23448,7 @@
       <c r="C84" t="s">
         <v>2097</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="28" t="s">
         <v>2530</v>
       </c>
     </row>
@@ -23460,7 +23462,7 @@
       <c r="C85" t="s">
         <v>2098</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="28" t="s">
         <v>2531</v>
       </c>
     </row>
@@ -23474,7 +23476,7 @@
       <c r="C86" t="s">
         <v>2099</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D86" s="28" t="s">
         <v>2532</v>
       </c>
     </row>
@@ -23488,7 +23490,7 @@
       <c r="C87" t="s">
         <v>2026</v>
       </c>
-      <c r="D87" s="29" t="s">
+      <c r="D87" s="28" t="s">
         <v>2533</v>
       </c>
     </row>
@@ -23502,7 +23504,7 @@
       <c r="C88" t="s">
         <v>2100</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="28" t="s">
         <v>2534</v>
       </c>
     </row>
@@ -23516,7 +23518,7 @@
       <c r="C89" t="s">
         <v>2101</v>
       </c>
-      <c r="D89" s="29" t="s">
+      <c r="D89" s="28" t="s">
         <v>2535</v>
       </c>
     </row>
@@ -23530,7 +23532,7 @@
       <c r="C90" t="s">
         <v>2102</v>
       </c>
-      <c r="D90" s="29" t="s">
+      <c r="D90" s="28" t="s">
         <v>2536</v>
       </c>
     </row>
@@ -23544,8 +23546,8 @@
       <c r="C91" t="s">
         <v>2163</v>
       </c>
-      <c r="D91" s="29" t="s">
-        <v>2537</v>
+      <c r="D91" s="28" t="s">
+        <v>2538</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -23558,8 +23560,8 @@
       <c r="C92" t="s">
         <v>2170</v>
       </c>
-      <c r="D92" s="29" t="s">
-        <v>2537</v>
+      <c r="D92" s="28" t="s">
+        <v>2538</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -23572,8 +23574,8 @@
       <c r="C93" t="s">
         <v>2174</v>
       </c>
-      <c r="D93" s="29" t="s">
-        <v>2537</v>
+      <c r="D93" s="28" t="s">
+        <v>2538</v>
       </c>
     </row>
   </sheetData>
@@ -23997,885 +23999,1072 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B639706-171A-4E32-87D9-97BA2F564F30}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="108.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="108.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>267</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>2345</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>2344</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>2334</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>2349</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>2335</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>2348</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>2336</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>2347</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
         <v>2339</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="E5" s="24" t="s">
         <v>2350</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="24">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="24" t="s">
         <v>2341</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>2351</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="24" t="s">
         <v>2342</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="E7" s="24" t="s">
         <v>2343</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="24">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>2355</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="E8" s="24" t="s">
         <v>2354</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="24">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="24" t="s">
         <v>2356</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="24" t="s">
         <v>2357</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="24">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="24" t="s">
         <v>2358</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>2359</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="24" t="s">
         <v>2360</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="E11" s="24" t="s">
         <v>2361</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="24" t="s">
         <v>2362</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="E12" s="24" t="s">
         <v>2363</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="D13" s="24" t="s">
         <v>2364</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="E13" s="24" t="s">
         <v>2365</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="24" t="s">
         <v>2366</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>2367</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="24" t="s">
         <v>2369</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="E15" s="24" t="s">
         <v>2368</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="D16" s="24" t="s">
         <v>2370</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="E16" s="24" t="s">
         <v>2371</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>1768</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="D17" s="24" t="s">
         <v>2372</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="E17" s="24" t="s">
         <v>2373</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="24" t="s">
         <v>2374</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="E18" s="24" t="s">
         <v>2375</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="D19" s="24" t="s">
         <v>2376</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="E19" s="24" t="s">
         <v>2377</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="D20" s="24" t="s">
         <v>2378</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="E20" s="24" t="s">
         <v>2379</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="24" t="s">
         <v>2392</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="E21" s="24" t="s">
         <v>2393</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="D22" s="24" t="s">
         <v>2394</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="E22" s="24" t="s">
         <v>2395</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="D23" s="24" t="s">
         <v>2396</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="E23" s="24" t="s">
         <v>2397</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="D24" s="24" t="s">
         <v>2400</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="E24" s="25" t="s">
         <v>2457</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="D25" s="24" t="s">
         <v>2404</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="E25" s="24" t="s">
         <v>2403</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="24">
+        <v>1</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>2409</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="E26" s="24" t="s">
         <v>2410</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="D27" s="24" t="s">
         <v>2411</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="E27" s="24" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="24">
+        <v>1</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="24" t="s">
         <v>2413</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="E28" s="24" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="D29" s="24" t="s">
         <v>2415</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="E29" s="24" t="s">
         <v>2416</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="D30" s="24" t="s">
         <v>2417</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="E30" s="24" t="s">
         <v>2418</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="D31" s="24" t="s">
         <v>2421</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="E31" s="24" t="s">
         <v>2422</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="D32" s="24" t="s">
         <v>2425</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="E32" s="24" t="s">
         <v>2426</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="D33" s="24" t="s">
         <v>2428</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="E33" s="24" t="s">
         <v>2427</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="D34" s="24" t="s">
         <v>2429</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="E34" s="24" t="s">
         <v>2430</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="D35" s="24" t="s">
         <v>2431</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="E35" s="24" t="s">
         <v>2432</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="D36" s="24" t="s">
         <v>2433</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="E36" s="24" t="s">
         <v>2434</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="D37" s="24" t="s">
         <v>2435</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="E37" s="24" t="s">
         <v>2436</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="D38" s="24" t="s">
         <v>2443</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="E38" s="24" t="s">
         <v>2446</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="D39" s="24" t="s">
         <v>2444</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="E39" s="24" t="s">
         <v>2445</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="D40" s="24" t="s">
         <v>2447</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="E40" s="24" t="s">
         <v>2448</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="D41" s="24" t="s">
         <v>2449</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="E41" s="24" t="s">
         <v>2450</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="D42" s="24" t="s">
         <v>2338</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="E42" s="24" t="s">
         <v>2383</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="24">
+        <v>1</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="D43" s="24" t="s">
         <v>2337</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="E43" s="24" t="s">
         <v>2346</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="24">
+        <v>1</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="D44" s="24" t="s">
         <v>2340</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="E44" s="24" t="s">
         <v>2382</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="D45" s="24" t="s">
         <v>2352</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="E45" s="24" t="s">
         <v>2353</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="D46" s="24" t="s">
         <v>2380</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="E46" s="24" t="s">
         <v>2381</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="24">
+        <v>1</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="D47" s="25" t="s">
         <v>2385</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="E47" s="24" t="s">
         <v>2384</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="24">
+        <v>1</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="D48" s="24" t="s">
         <v>2386</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="E48" s="24" t="s">
         <v>2387</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="24">
+        <v>1</v>
+      </c>
+      <c r="C49" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="D49" s="24" t="s">
         <v>2388</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="E49" s="24" t="s">
         <v>2389</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="24">
+        <v>1</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="D50" s="24" t="s">
         <v>2390</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="E50" s="24" t="s">
         <v>2391</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="24">
+        <v>1</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="D51" s="24" t="s">
         <v>2398</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="E51" s="24" t="s">
         <v>2399</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="24">
+        <v>1</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="D52" s="24" t="s">
         <v>2401</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="E52" s="24" t="s">
         <v>2402</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="D53" s="24" t="s">
         <v>2405</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="E53" s="24" t="s">
         <v>2406</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="D54" s="24" t="s">
         <v>2408</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="E54" s="24" t="s">
         <v>2407</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="D55" s="24" t="s">
         <v>2419</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="E55" s="24" t="s">
         <v>2420</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="D56" s="24" t="s">
         <v>2423</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="E56" s="24" t="s">
         <v>2424</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="24">
+        <v>1</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="D57" s="24" t="s">
         <v>2437</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="E57" s="24" t="s">
         <v>2438</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C58" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="D58" s="24" t="s">
         <v>2439</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="E58" s="24" t="s">
         <v>2440</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="24">
+        <v>1</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="D59" s="24" t="s">
         <v>2441</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="E59" s="24" t="s">
         <v>2442</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="24">
+        <v>1</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="D60" s="24" t="s">
         <v>2451</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="E60" s="24" t="s">
         <v>2452</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="D61" s="24" t="s">
         <v>2453</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="E61" s="24" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="D62" s="24" t="s">
         <v>2455</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="E62" s="24" t="s">
         <v>2456</v>
       </c>
     </row>
@@ -30659,7 +30848,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0754075-E1C9-4F7F-9713-EA6023DF32F4}">
-  <dimension ref="A1:K1222"/>
+  <dimension ref="A1:K1179"/>
   <sheetViews>
     <sheetView topLeftCell="A1136" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B844" sqref="B844"/>
@@ -50094,7 +50283,7 @@
       <c r="A840" t="s">
         <v>310</v>
       </c>
-      <c r="B840" s="26" t="s">
+      <c r="B840" t="s">
         <v>1718</v>
       </c>
       <c r="I840">
@@ -50156,7 +50345,7 @@
       <c r="A844" t="s">
         <v>311</v>
       </c>
-      <c r="B844" s="26" t="s">
+      <c r="B844" t="s">
         <v>1719</v>
       </c>
       <c r="I844">
@@ -57336,30 +57525,6 @@
       <c r="I1179">
         <v>1</v>
       </c>
-    </row>
-    <row r="1205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1205" s="26"/>
-    </row>
-    <row r="1206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1206" s="26"/>
-    </row>
-    <row r="1207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1207" s="26"/>
-    </row>
-    <row r="1208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1208" s="26"/>
-    </row>
-    <row r="1210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1210" s="26"/>
-    </row>
-    <row r="1211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1211" s="26"/>
-    </row>
-    <row r="1221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1221" s="26"/>
-    </row>
-    <row r="1222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1222" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/TüfteltruheDatenbank Tabellengrundlage.xlsx
+++ b/TüfteltruheDatenbank Tabellengrundlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekte\Projekt Tüfteltruhe\Tüfteltruhe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8564E308-8068-4BBC-B7EC-AC84A746A0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEFDC34-E53C-434E-84B2-A01C0293D150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="1215" windowWidth="12255" windowHeight="14070" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="615" windowWidth="26175" windowHeight="14070" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schiffstypen" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Zier" sheetId="13" r:id="rId13"/>
     <sheet name="Zauber" sheetId="14" r:id="rId14"/>
     <sheet name="Zauberstein" sheetId="15" r:id="rId15"/>
+    <sheet name="Zauberkomplexe" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk28448438" localSheetId="7">Waren!#REF!</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7757" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7799" uniqueCount="2540">
   <si>
     <t xml:space="preserve">Schiffstyp </t>
   </si>
@@ -16357,8 +16358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A19E005-4834-49D1-89BA-E12BAE5D6155}">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="A269" sqref="A162:B269"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23584,6 +23585,235 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C3DD42-32BE-4AC9-A853-42A0246C7FC1}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36DA9CD-FBD0-4FDA-BE1F-1017D9C8CC48}">
   <dimension ref="A1:E14"/>
@@ -24001,7 +24231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B639706-171A-4E32-87D9-97BA2F564F30}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>

--- a/TüfteltruheDatenbank Tabellengrundlage.xlsx
+++ b/TüfteltruheDatenbank Tabellengrundlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekte\Projekt Tüfteltruhe\Tüfteltruhe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEFDC34-E53C-434E-84B2-A01C0293D150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB8E1EE-EA1A-444F-92F5-13C7F2D41ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="615" windowWidth="26175" windowHeight="14070" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="615" windowWidth="26175" windowHeight="14070" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schiffstypen" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7799" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7799" uniqueCount="2564">
   <si>
     <t xml:space="preserve">Schiffstyp </t>
   </si>
@@ -7685,6 +7685,78 @@
   </si>
   <si>
     <t>Portionsgewicht</t>
+  </si>
+  <si>
+    <t>Reichtum (Feo)</t>
+  </si>
+  <si>
+    <t>Kraft (Ur)</t>
+  </si>
+  <si>
+    <t>Schaden (Thurs)</t>
+  </si>
+  <si>
+    <t>Weisheit (Ans)</t>
+  </si>
+  <si>
+    <t>Mut (Raido)</t>
+  </si>
+  <si>
+    <t>Licht (Kena)</t>
+  </si>
+  <si>
+    <t>Geschenk (Gebo)</t>
+  </si>
+  <si>
+    <t>Wohlbefinden (Wunna)</t>
+  </si>
+  <si>
+    <t>Verwüstung (Hagal)</t>
+  </si>
+  <si>
+    <t>Zwang (Naud)</t>
+  </si>
+  <si>
+    <t>Starre (Isa)</t>
+  </si>
+  <si>
+    <t>Überfluss (Jera)</t>
+  </si>
+  <si>
+    <t>Schutz (Eiwa)</t>
+  </si>
+  <si>
+    <t>Erholung (Peord)</t>
+  </si>
+  <si>
+    <t>Ungezähmtheit (Segja)</t>
+  </si>
+  <si>
+    <t>Segen (Sowil)</t>
+  </si>
+  <si>
+    <t>Macht (Tiw)</t>
+  </si>
+  <si>
+    <t>Fruchtbarkeit (Berka)</t>
+  </si>
+  <si>
+    <t>Edelmut (Ehwa)</t>
+  </si>
+  <si>
+    <t>Gemeinschaft (Manna)</t>
+  </si>
+  <si>
+    <t>Wasser (Lagu)</t>
+  </si>
+  <si>
+    <t>Jugend (Ingwa)</t>
+  </si>
+  <si>
+    <t>Zyklus (Dag)</t>
+  </si>
+  <si>
+    <t>Erbe (Odal)</t>
   </si>
 </sst>
 </file>
@@ -16358,8 +16430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A19E005-4834-49D1-89BA-E12BAE5D6155}">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20273,7 +20345,7 @@
         <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>2084</v>
+        <v>2540</v>
       </c>
       <c r="E189">
         <v>6</v>
@@ -20296,7 +20368,7 @@
         <v>2</v>
       </c>
       <c r="D190" t="s">
-        <v>2036</v>
+        <v>2541</v>
       </c>
       <c r="E190">
         <v>6</v>
@@ -20316,7 +20388,7 @@
         <v>3</v>
       </c>
       <c r="D191" t="s">
-        <v>2044</v>
+        <v>2542</v>
       </c>
       <c r="E191">
         <v>6</v>
@@ -20336,7 +20408,7 @@
         <v>4</v>
       </c>
       <c r="D192" t="s">
-        <v>2070</v>
+        <v>2543</v>
       </c>
       <c r="E192">
         <v>6</v>
@@ -20356,7 +20428,7 @@
         <v>5</v>
       </c>
       <c r="D193" t="s">
-        <v>2085</v>
+        <v>2544</v>
       </c>
       <c r="E193">
         <v>6</v>
@@ -20376,7 +20448,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="s">
-        <v>2086</v>
+        <v>2545</v>
       </c>
       <c r="E194">
         <v>6</v>
@@ -20399,7 +20471,7 @@
         <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>2087</v>
+        <v>2546</v>
       </c>
       <c r="E195">
         <v>6</v>
@@ -20419,7 +20491,7 @@
         <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>2088</v>
+        <v>2547</v>
       </c>
       <c r="E196">
         <v>6</v>
@@ -20439,7 +20511,7 @@
         <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>2089</v>
+        <v>2548</v>
       </c>
       <c r="E197">
         <v>6</v>
@@ -20459,7 +20531,7 @@
         <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>2090</v>
+        <v>2549</v>
       </c>
       <c r="E198">
         <v>6</v>
@@ -20485,7 +20557,7 @@
         <v>11</v>
       </c>
       <c r="D199" t="s">
-        <v>2091</v>
+        <v>2550</v>
       </c>
       <c r="E199">
         <v>6</v>
@@ -20508,7 +20580,7 @@
         <v>12</v>
       </c>
       <c r="D200" t="s">
-        <v>2092</v>
+        <v>2551</v>
       </c>
       <c r="E200">
         <v>6</v>
@@ -20528,7 +20600,7 @@
         <v>13</v>
       </c>
       <c r="D201" t="s">
-        <v>2021</v>
+        <v>2552</v>
       </c>
       <c r="E201">
         <v>6</v>
@@ -20548,7 +20620,7 @@
         <v>14</v>
       </c>
       <c r="D202" t="s">
-        <v>2093</v>
+        <v>2553</v>
       </c>
       <c r="E202">
         <v>6</v>
@@ -20568,7 +20640,7 @@
         <v>15</v>
       </c>
       <c r="D203" t="s">
-        <v>2094</v>
+        <v>2554</v>
       </c>
       <c r="E203">
         <v>6</v>
@@ -20588,7 +20660,7 @@
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>2095</v>
+        <v>2555</v>
       </c>
       <c r="E204">
         <v>6</v>
@@ -20608,7 +20680,7 @@
         <v>17</v>
       </c>
       <c r="D205" t="s">
-        <v>2096</v>
+        <v>2556</v>
       </c>
       <c r="E205">
         <v>6</v>
@@ -20628,7 +20700,7 @@
         <v>18</v>
       </c>
       <c r="D206" t="s">
-        <v>2097</v>
+        <v>2557</v>
       </c>
       <c r="E206">
         <v>6</v>
@@ -20648,7 +20720,7 @@
         <v>19</v>
       </c>
       <c r="D207" t="s">
-        <v>2098</v>
+        <v>2558</v>
       </c>
       <c r="E207">
         <v>6</v>
@@ -20671,7 +20743,7 @@
         <v>20</v>
       </c>
       <c r="D208" t="s">
-        <v>2099</v>
+        <v>2559</v>
       </c>
       <c r="E208">
         <v>6</v>
@@ -20691,7 +20763,7 @@
         <v>21</v>
       </c>
       <c r="D209" t="s">
-        <v>2026</v>
+        <v>2560</v>
       </c>
       <c r="E209">
         <v>6</v>
@@ -20711,7 +20783,7 @@
         <v>22</v>
       </c>
       <c r="D210" t="s">
-        <v>2100</v>
+        <v>2561</v>
       </c>
       <c r="E210">
         <v>6</v>
@@ -20731,7 +20803,7 @@
         <v>23</v>
       </c>
       <c r="D211" t="s">
-        <v>2101</v>
+        <v>2562</v>
       </c>
       <c r="E211">
         <v>6</v>
@@ -20751,7 +20823,7 @@
         <v>24</v>
       </c>
       <c r="D212" t="s">
-        <v>2102</v>
+        <v>2563</v>
       </c>
       <c r="E212">
         <v>6</v>
@@ -23589,7 +23661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C3DD42-32BE-4AC9-A853-42A0246C7FC1}">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>

--- a/TüfteltruheDatenbank Tabellengrundlage.xlsx
+++ b/TüfteltruheDatenbank Tabellengrundlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekte\Projekt Tüfteltruhe\Tüfteltruhe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB8E1EE-EA1A-444F-92F5-13C7F2D41ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D119D2-1D30-4045-B026-1CF69EA83A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="615" windowWidth="26175" windowHeight="14070" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="555" windowWidth="27345" windowHeight="14385" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schiffstypen" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,9 @@
     <sheet name="Metall" sheetId="12" r:id="rId12"/>
     <sheet name="Zier" sheetId="13" r:id="rId13"/>
     <sheet name="Zauber" sheetId="14" r:id="rId14"/>
-    <sheet name="Zauberstein" sheetId="15" r:id="rId15"/>
-    <sheet name="Zauberkomplexe" sheetId="16" r:id="rId16"/>
+    <sheet name="Namen" sheetId="17" r:id="rId15"/>
+    <sheet name="Zauberstein" sheetId="15" r:id="rId16"/>
+    <sheet name="Zauberkomplexe" sheetId="16" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk28448438" localSheetId="7">Waren!#REF!</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7799" uniqueCount="2564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7844" uniqueCount="2608">
   <si>
     <t xml:space="preserve">Schiffstyp </t>
   </si>
@@ -7757,6 +7758,319 @@
   </si>
   <si>
     <t>Erbe (Odal)</t>
+  </si>
+  <si>
+    <t>Volk</t>
+  </si>
+  <si>
+    <t>VornameM</t>
+  </si>
+  <si>
+    <t>VornameW</t>
+  </si>
+  <si>
+    <t>Lydisch/Medisch (Anoliter)</t>
+  </si>
+  <si>
+    <t>Griechisch (Ellemanen, Takaten)</t>
+  </si>
+  <si>
+    <t>Keltisch (Gelmanen, Bretagen, Norier)</t>
+  </si>
+  <si>
+    <t>Phönizisch/Karthargisch (Ponaken)</t>
+  </si>
+  <si>
+    <t>Römisch (Litaker)</t>
+  </si>
+  <si>
+    <t>Iberisch (Ibenen)</t>
+  </si>
+  <si>
+    <t>Germanisch (Warukenen, Norukenen)</t>
+  </si>
+  <si>
+    <t>Slawisch (Skenden, Elser, Doreten)</t>
+  </si>
+  <si>
+    <t>Baltisch (Kunesen)</t>
+  </si>
+  <si>
+    <t>Finnisch/Lappisch (Solonen, Firser)</t>
+  </si>
+  <si>
+    <t>Persisch (Timar)</t>
+  </si>
+  <si>
+    <t>Nymphen</t>
+  </si>
+  <si>
+    <t>Zwerge (Schwarzalben)</t>
+  </si>
+  <si>
+    <t>Feen (Lichtalben)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acheron, Archilleus, Adelphos, Aegidos, Agapetos, Agapios,
+Agenor, Aeneas, Aiolos, Ajax, Alastor, Alexandros, Alphios,
+Anakletos, Anastasios, Andronikos, Antaios, Anthimos, Apollonios,
+Archimedes, Areion, Aristeas, Aristides, Askanios, Atanasios,
+Atreus, Basileios, Daedalos, Daimon, Dardanos, Dasios, Demokritos,
+Demosthenes, Egeas, Epimachos, Fedon, Filonas, Glaukos, Grigorios,
+Hektor, Helenos, Herakles, Heraklitos, Heron, Hippolytos, Iakos,
+Iason, Ikaros, Kaikos, Kallistos, Kimon, Kleitos, Kreon, Kriton,
+Kyriakos, Kyros, Laertes, Leandros, Leonidas, Linos, Loukas, Lynx,
+Lysandros, Makarios, Menelaos, Midas, Miltiades, Nereus,
+Narkissos, Nikon, Odysseus, Orestes, Orion, Orpheus, Pankratios,
+Pantaleon, Patroklos, Pelagios, Perseus, Petros, Phaon, Phileas,
+Philippos, Philon, Phoibos, Polydeukes, Polyphem, Priamos,
+Ptolemaios, Pyrros, Serapion, Silenos, Sinon, Sophokles, Sophos,
+Stratos, Tantalos, Tarasios, Telamon, Telemachos, Telesphorus,
+Thales, Thanatos, Theodem, Theodosios, Theseus, Thymios, Timaios,
+Timon, Xanthos, Xystos, Zelos, Zenon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abbar, Abdasar, Abibal, Abimilku, Abishemu, Achiram, Agenas,
+Alef, Anisar, Aribas, Balef, Balesar, Balgor, Balmeg, Bolomeg,
+Bomilkar, Elam, Elulas, Eugoras, Evagor, Gisko, Hamilkar, Hannibal,
+Hanno, Hasdrubal, Himilko, Hiram, Iosmeg, Ithobal, Mago, Malko,
+Mattan, Osbal, Pummay, Pygmalion, Ribadda, Sidilku, Tenay, Tenef,
+Tengor, Termeg, Tyrbal, Tyrgor, Urumeg, Urumilku, Yakinbal,
+Zakarbal, Zimilku, Zimrida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancus, Appius, Aulus, Caeso, Cossus, Decimus, Drusus, Gaius,
+Gnaeus, Hostus, Lucius, Mamercus, Manius, Marcus, Novius,
+Numerius, Occius, Opiter, Proculus, Publius, Quintus, Salvius,
+Sertot, Servius, Sextus, Spurius, Statius, Tiberius, Titus, Trebius,
+Tullus, Vibius, Volero, Vopiscus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Artur, Alan, Ariax, Ambian, Albin, Aivex, Alain, Aurin, Amergin,
+Ardrix, Avallax, Bran, Briktorix, Brenton, Bevin, Bortax, Konan,
+Kolman, Dilan, Darin, Durix, Durian, Davon, Dumnoran, Enjo,
+Eiman, Erax, Flin, Fion, Fallax, Finan, Gandrix, Gavain, Gundrix,
+Herial, Horix, Hartax, Hovian, Ivain, Kaden, Kimbal, Kingetorix,
+Lenox, Liox, Laurax, Lingoterix, Marlon, Merlin, Melvin, Nolix,
+Oberon, Orin, Orgetorix, Parsival, Raik, Rix, Roldan, Roiax, Ronan,
+Roy, Skilan, Sygbal, Tristan, Taran, Tarax, Torix, Urian, Urbin,
+Vidan, Valarix, Viktorix, Vedin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abar, Abarkis, Arkebor, Arkis, Arkisosin, Atin, Balkatin, Balkebor,
+Balkeskar, Belesbor, Birtanek, Ekartu, Elerkei, Estobeles, Iarsoket,
+Ikorbos, Iltiahin, Iltiarker, Iltiatin, Iltu, Iltubeles, Iltuberi, Iltusker,
+Iskebor, Iskerbeles, Korbolei, Korskar, Kulestar, Lakobeles, Lorkatu,
+Nesaker, Nesbartas, Nesberi, Nistolor, Sakarbin, Sikebor, Silitar,
+Sorbolai, Sosatin, Sosinbor, Talskubas, Tanabar, Tanalor, Tanatin,
+Tanbeles, Taniltur, Tankibas, Tarban, Tarbansitu, Tibas, Tibasberi,
+Tibastu, Tumar, Urkabar, Urkaberi, Urkatin, Urkisker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ardas, Agades, Aiodor, Aldas, Antidas, Askamor, Avidas, Danodes,
+Dapadas, Denides, Diridor, Dorides, Egidor, Eidas, Feldor, Fifnadas,
+Fordes, Galades, Gilidas, Grindor, Haudas, Heldor, Herades, Ilidor,
+Kalidor, Kalidas, Kelkodes, Kildas, Kridas, Leodor, Lidas, Lokedas,
+Logades, Loiodor, Maidas, Makades, Mendor, Mirdas, Mordas,
+Nedas, Oremor, Paladas, Saldor, Saidas, Silidor, Soiodes, Tanador,
+Tandas, Teidas, Tidas, Tiridor, Tirimor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alenko, Antek, Bartosch, Bela, Bero, Blaz, Bogdan, Bogislaw,
+Bogomil, Bogomir, Bor, Boris, Borya, Dajan, Damir, Danko, Darino,
+Dario, Darko, Dejan, Djuka, Dobroslaw, Dragan, Dragomir, Drawen,
+Drawko, Duan, Dusko, Ekrem, Finjan, Galeb, Gono, Goran, Iwan,
+Jaron, Jaropolk, Jaroslaw, Ladislaw, Lasotek, Lech, Malomir, Mijan,
+Milan, Milorad, Milosch, Miro, Miroslaw, Neboja, Neven, Ogjan,
+Pavel, Radik, Radost, Radovan, Raik, Ratilo, Rudin, Rumo, Sanel,
+Sanjo, Savko, Stanislaw, Sveto, Svetomir, Svjetlan, Tajan, Tihomir,
+Tinko, Tome, Tugomir, Vin, Vito, Vlad, Vladimir, Vladislav, Vlado,
+Vuk, Wassili, Wero, Woldek, Wolod, Yasen, Zlatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adramyttos, Alkaios, Alyattes, Ardys, Astyages, Atys, Belos, Damnonno,
+Darses, Daskylos, Deiokes, Drynno, Elos, Garyges, Golyses,
+Gyges, Kadys, Kambles, Kandaules, Karaxes, Kerses, Kroisos, Kyalos,
+Kyaxares, Meles, Mermnys, Moxos, Myrsos, Ninos, Phraortes,
+Pindaros, Pysos, Sadyattes, Taichmes, Thasyges, Thrasybolos, Tmolos,
+Tritantes, Tylos, Tyrsenos, Tyrses, Xantysos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Achaimenes, Aftab, Arash, Ardalan, Ariaramna, Artaxerxes, Artin,
+Aryan, Ashama, Ashkan, Awesta, Azad, Babak, Bahman, Bahram,
+Bahroz, Bajan, Bardija, Behnam, Behruz, Behzad, Dareios, Daris,
+Dasta, Ersan, Esfandir, Fareidun, Farhad, Farrok, Farzad, Gajumart,
+Gaumata, Homan, Histapes, Jamshid, Jawid, Kambyses, Kamran,
+Kaspar, Kaweh, Keyhan, Kijan, Kiros, Maziar, Mehran, Nasim, Nawid,
+Nerm, Nilan, Parham, Parwis, Pedram, Peros, Poja, Rahan,
+Ramin, Reza, Romal, Sahan, Salar, Saman, Sasan, Shadad, Shadin,
+Sharam, Sharok, Shazad, Shajan, Siamak, Tahmtan, Xerxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agaue, Aigeira, Aktaia, Alkione, Amatia, Ampela,
+Aretusa, Boiotia, Deiopea, Dero, Dione, Doto,
+Drymo, Dyname, Eione, Elektra, Erato, Earne,
+Eudora, Eudore, Eukante, Eulimene, Eunike,
+Galateia, Galene, Halie, Halimede, Iaira, Ianassa,
+Ianeira, Ione, Kallianira, Kalypso, Karya, Kelaino,
+Keto, Klio, Klymene, Koronis, Krania, Kreneis,
+Kymo, Laomedia, Leiagore, Ligea, Limnoria,
+Lykoria, Lysia, Maera, Maia, Melite, Merope,
+Neomeris, Nesaia, Neso, Opis, Orea, Oritia,
+Panopa, Panope, Pasitea, Pedile, Sao, Speo, Syke,
+Taygete, Thalia, Themisto, Thetis, Tione</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Durin, Dwalin, Nyi, Nidi, Nordri, Sudri, Austri,
+Vestri, Altjof, Nar, Nainn, Niping, Dain, Bifur,
+Bafur, Wili, Bömbur, Hanar, Nori, Ori, Anar, Ai,
+Wig, Gandalf, Windalf, Thorin, Thrain, Thror,
+Thekk, Lit, Wit, Nyr, Nyrad, Rekk, Radswid, Fili,
+Kili, Fundin, Nali, Hepti, Swid, Billing, Bruni, Bild,
+Buri, Frar, Hornbori, Fräg, Loni, Aurwang, Jari,
+Har, Haugspori, Hlewang, Gloi, Dori, Ori, Duf,
+Andwari, Wirwir, Skafid, Finn, Lofar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aea, Alla, Alma, Alsa, Asa, Asla, Aura, Hara, Hea,
+Hela, Helia, Hira, Ida, Idea, Ira, Isa, Saia, Seda,
+Sela, Selia, Sira, Suna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aegina, Adrastea, Agape, Agate, Alea, Alexandra, Amaltheia,
+Antheia, Anthelia, Apollonia, Arachne, Argia, Ariadne, Aristea,
+Arite, Astaria, Briseis, Daphne, Danae, Delia, Despoina, Diantha,
+Dorea, Elaia, Electra, Eris, Eudokia, Galatea, Hagne, Hedone,
+Hekabe, Helena, Heliodora, Hesione, Idalia, Ilina, Iolanthe,
+Iphigenia, Irelia, Ismene, Kalliope, Kallisto, Kalypso, Kassandra,
+Kassiopeia, Kiria, Klea, Klio, Kore, Kynthia, Kyra, Kyrene,
+Laomedeia, Leda, Leucadia, Lethia, Leto, Leukothea, Lysandra,
+Medea, Megara, Melania, Merope, Metis, Myrto, Nektaria, Nemea,
+Nike, Niobe, Opala, Ophelia, Otrera, Pandora, Parthena, Pelagia,
+Pherenike, Philyra, Phylis, Pythia, Rhea, Rhode, Sapho, Semele,
+Skylla, Thalia, Tharalea, Theia, Theokleia, Theta, Xenia, Zelia,
+Zenaida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asalith, Astar, Bala, Balith, Bayssa, Dido, Dorite, Elaydo, Elissa,
+Hamila, Hazite, Ilith, Ishtar, Jarote, Kana, Lassa, Litar, Mara, Melte,
+Monika, Nida, Palyte, Rilith, Tanith, Taydo, Tyro, Yata, Zissa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acca, Aemilia, Antonia, Appia, Caecilia, Cassia, Claudia, Cornelia,
+Fabia, Ferda, Flavia, Gaia, Hostilia, Iona, Julia, Larentia, Livia, Lucia,
+Numa, Porcia, Quarta, Quinta, Severa, Tarratia, Tiberia, Tullia,
+Virgilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aeryn, Ailis, Alanis, Amena, Argrona, Arlen, Arlen, Audra, Brianda,
+Brianna, Britta, Brynna, Eara, Edana, Elenora, Epona, Evelin, Fia,
+Fiona, Gael, Genoveva, Ginevra, Gwenda, Gwendolin, Gwyneth,
+Iola, Iruna, Isa, Kadha, Kaja, Keena, Kiara, Kiarra, Lorena, Moira,
+Morgan, Radha, Rhena, Rhona, Sabia, Selma, Senara, Taria, Thara,
+Tira, Una</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abada, Abaleia, Arkola, Arina, Arkisa, Baleia, Balkasa, Balkebela,
+Belesbada, Birola, Ekasa, Elbada, Estobela, Ina, Ikola, Iltiasa, Iltibela,
+Iskebola, Korina, Korsola, Kuleia, Lakola, Lobela, Nesina, Nesbada,
+Nisa, Sakabela, Sakaleia, Sakasa, Sorbola, Sosbea, Taleia, Tibada,
+Tibasa, Tibola, Tumina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adalgis, Adelinde, Algard, Alla, Alrun, Alsuna, Amalgund, Astrid,
+Bernfriede, Brunhild, Burgunde, Dietrun, Eike, Eila, Elfriede, Elma,
+Emma, Emmeline, Engelfriede, Erla, Erlfried, Erltraud, Erna, Fara,
+Fehild, Fenja, Fredegunde, Frieda, Gerwine, Gisela, Goda,
+Godelinde, Gothild, Gudrun, Gundula, Gunja, Halgard, Halma,
+Hedda, Hedwig, Heide, Heidelinde, Heidrun, Heilgard, Helga,
+Helja, Hemja, Herlinde, Hermine, Hilde, Hilke, Hilma, Hilse, Hulda,
+Ida, Iduna, Ilvi , Ingja, Irwina, Isa, Islinde, Isolde, Isrun, Laberta,
+Lewina, Liebhild, Lieva, Linda, Lindfrieda, Lindgard, Lindrun,
+Lotara, Ludberga, Ludhilde, Maralda, Marlinde, Matilda, Merlinde,
+Minka, Minna, Nanna, Nordhilde, Nordrun, Norja, Norlinde, Oda,
+Oslinde, Osterhild, Ragna, Ronja, Rosalinde, Runa, Rungard,
+Runhild, Rutlieb, Salgard, Salinde, Sarhild, Sieghild, Sigrun, Solveig,
+Sonja, Sungard, Svea, Swanhild, Thorun, Tyra, Ulfrieda, Walinde,
+Walja, Wanhild, Wendelind, Wenja, Wiebke, Wiga, Wolgard, Wunna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agadia, Alemda, Arda, Asadoa, Badia, Danodea, Deneda, Dorida,
+Eida, Elda, Endia, Faldoa, Fildia, Galadea, Galdoa, Gildia, Helda,
+Herada, Hilidoa, Holda, Ilda, Kaldea, Kalida, Kendia, Leada, Lenida,
+Limeda, Lindea, Lirida, Logeda, Luanda, Maiada, Medea, Mirida,
+Nedea, Oreda, Padia, Palida, Saida, Saldia, Sidia, Taida, Tanadea,
+Teidea, Tiridea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ajka, Ajla, Besna, Biljana, Blazenka, Bodana, Boleslawa, Bosiljka,
+Bozna, Brana, Branka, Branislava, Kveta, Damira, Dania, Danika,
+Danija, Daria, Dejana, Dobrina, Dragana, Dubravka, Dunja, Emsada,
+Gorana, Iwana, Jagoda, Jasenka, Jasna, Jeska, Kascha, Kirjana,
+Krunoslawa, Ladislawa, Laive, Libusa, Litwina, Leposawa, Meira,
+Mila, Milada, Milanka, Miljana, Mira, Mladena, Nadija, Nadinka,
+Nevena, Nida, Radenka, Radmila, Radojka, Rajka, Relana, Ruzika,
+Sawka, Senia, Sladjana, Slavena, Slobodanka, Smiljana, Stana,
+Stewka, Tajana, Vania, Velika, Vera, Vesna, Vlada, Zoyra, Zorina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adranea, Aryenis, Bela, Damnea, Deionis, Drysea, Elonis, Gargea,
+Garis, Gygea, Kandis, Karea, Kyala, Sasa, Saya, Sedea, Sobonis,
+Thasa, Thea, Trydis, Tynis, Xaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arya, Ahu, Almas, Almira, Amina, Anahi, Arezu, Arta, Artina, Arzu,
+Asal, Ashana, Atusa, Awissa, Bahar, Daria, Dila, Dilshad, Dorsa,
+Ebru, Elinia, Enissa, Eshter, Farah, Farideh, Farsaneh, Firuzeh, Geti,
+Gohar, Gulderen, Gulhan, Gulsah, Haleh, Hanzade, Jasamin, Jihane,
+Katajun, Kimia, Ladan, Lejal, Lejan, Mahtap, Mahsa, Malakeh, Manijeh,
+Mojan, Naida, Narmina, Najab, Negin, Nigar, Nihal, Nursah,
+Parastu, Parisa, Parmida, Parwaneh, Pegah, Ranim, Roksana, Sahba,
+Saria, Sajeh, Shanaz, Sherin, Sepanta, Setareh, Shadia, Shazad,
+Shajeste, Sheherazade, Sherin, Sima, Soheila, Soraia, Suzan, Tahmina,
+Tiam, Tiara</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aivaras, Alenas, Algimantas, Algirdas, Algis, Arvaidas, Auseklis, Austris, Dalius, Danius, Daumants, Ellis, Gatis, Imants, Kajus, Lenas, Linas, Miervaldis, Nirs, Orinas, Raivis, Rasas, Rimantas, Rimas, Rimgaudas, Rimwidas, Romas, Romwaldas, Savas, Schydrunas, Skasas, Vaidas, Viesturs, Viltas, Viltautas, Vytas, Vytautas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agota, Aivara, Alena, Algimante, Algirda, Auria, Birute, Auschra, Daina, Daiva, Dalia, Dangule, Danuta, Daria, Deima, Gabija, Goda, Indre, Saule, Inia, Irbe, Jolita, Jurante, Laima, Laiska, Lina, Milda, Neringa, Niruscha, Orinta, Rasa, Rima, Schydrune, Skaisa, Vaida, Vaiva, Vilija, Vilte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aimo, Änis, Armas, Arvo, Atu, Aulis, Eino, Elmer, Ensio, Esko, Hemmo, Ikka, Imaro, Into, Ippo, Isto, Jalo, Jamo, Jouko, Jussi, Kalervo, Kauko, Kauno, Keimo, Kejo, Kuisma, Kulervo, Maino, Manu, Miro, Mis, Nuutu, Oiva, Onni, Orvo, Osmo, Ossan, Otso, Panu, Pellervo, Piri, Pirka, Rami, Rauli, Reko, Roni, Sampo, Sampsa, Sippo, Sulevu, Sulo, Taisto, Tapio, Tarvo, Tauno, Teijo, Teno, Tino, Touko, Tukka, Uljas, Uno, Urmas, Uro, Urpo, Usko, Väino, Valo, Veeti, Veijo, Veini, Vekko, Voito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aamu, Aija, Aili, Aina, Aira, Alli, Anelma, Ansa, Armi, Auli, Eija, Elvi, Enni, Heli, Helmi, Hilja, Hilkka, Ilma, Ilta, Immi, Kaini, Kastehelmi, Kila, Kukka, Laina, Laja, Lauha, Lemmikki, Lija, Meri, Mervi, Pälvi, Pulma, Suvi, Taimi, Taina, Tarja, Teea, Tellervi, Teri, Tuja, Tuomi, Tuovi, Tuula, Tyni, Ulla, Ulpa, Unelma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adalger, Adalrich, Alberich, Albrand, Alfried, Alwin, Amalrich, Arbogast, Arnfried, Arnolf, Astolf, Baldemar, Balderich, Balduin, Bardolf, Bernolf, Berwin, Björn, Bodomar, Brandolf, Brunold, Burgwald, Burgwin, Dankwart, Dietbert, Dietmar, Dietrich, Dietwald, Dracholf, Eberhard, Eckehard, Edmund, Edward, Egil,
+Eginald, Egon, Einar, Einhard, Eivar, Emmerich, Ergot, Erhard,
+Erich, Erlbrecht, Ernst, Erwin, Ewald, Falk, Falkmar, Farold, Folke,
+Friedbert, Friedger, Frowin, Garelf, Gerbald, Gerfried, Gerwald,
+Gerwin, Gismar, Godwin, Gralf, Grimwald, Grimwolf, Gundomar,
+Gunthart, Hadmar, Hadubrand, Hadwin, Hagen, Halder, Halfried,
+Harald, Harbert, Hardrad, Haribald, Haribert, Hariolf, Hartwin,
+Haunold, Haunolf, Heidolf, Heidrich, Hein, Heinolf, Helfrich,
+Helmrich, Hembrand, Hembrecht, Herbrand, Herbrecht, Herland,
+Herulf, Herward, Hildebrand, Hildgrim, Hildmar, Hjalmar, Holger,
+Holmar, Holmrich, Horsa, Hubrand, Hugolf, Huldrich, Huwald,
+Ingebrand, Ingolf, Iwar, Karlfried, Knut, Kundrich, Kunrad,
+Landelin, Landogar, Landolf, Landrich, Lebrecht, Leibrand, Leif,
+Leinolf, Leinrich, Leiwolf, Leobrand, Leobrecht, Leogrim, Leomar,
+Leonhard, Leorich, Leuwald, Lindolf, Lindrich, Lodgar, Lodrich,
+Loger, Lotbrecht, Ludebrand, Ludger, Ludhard, Ludolf, Manhard,
+Manwald, Markebrand, Markerich, Markulf, Markwald, Markwart,
+Meinulf, Merebrand, Mergrim, Merwin, Mutwald, Mutwin,
+Nordgar, Nordrich, Norfried, Norgrim, Norolf, Norwald, Odwin,
+Olaf, Oldrich, Olf, Olfrich, Ortwin, Oswart, Radebrand, Radger,
+Radolf, Ragnar, Ramwald, Reginald, Reinolf, Richald, Ringolf,
+Roderich, Rudgar, Sarolf, Siegerich, Siegfried, Siegleif, Siegmar,
+Siegmund, Siegwald, Siegward, Steinbrand, Stenrich, Sturmbrecht,
+Thorald, Thoralf, Thorbrand, Thorleif, Thorwald, Thorwin, Udalrich,
+Ulfrich, Volkward, Volkwin, Waldemar, Waldrich, Walrich,
+Wedekind, Werbrand, Werhard, Werleif, Werrich, Wiedmar,
+Wieland, Wigleif, Wildrich, Winfried, Wittig, Wolferich, Wolfger,
+Wolfhard, Wolfrad, Wolfried</t>
   </si>
 </sst>
 </file>
@@ -7910,7 +8224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7978,6 +8292,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -16430,7 +16750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A19E005-4834-49D1-89BA-E12BAE5D6155}">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
@@ -22334,6 +22654,196 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC89094B-669E-435B-929B-093DFFD981B1}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="77.85546875" customWidth="1"/>
+    <col min="3" max="3" width="110.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4932D4FC-8A82-45CA-8404-E38197EC582B}">
   <dimension ref="A1:D93"/>
   <sheetViews>
@@ -23657,7 +24167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C3DD42-32BE-4AC9-A853-42A0246C7FC1}">
   <dimension ref="A1:A42"/>
   <sheetViews>
@@ -57840,7 +58350,7 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A28" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TüfteltruheDatenbank Tabellengrundlage.xlsx
+++ b/TüfteltruheDatenbank Tabellengrundlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekte\Projekt Tüfteltruhe\Tüfteltruhe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D119D2-1D30-4045-B026-1CF69EA83A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33262D57-FA5A-4F17-BF48-129721B17C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="555" windowWidth="27345" windowHeight="14385" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schiffstypen" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7844" uniqueCount="2608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8129" uniqueCount="2877">
   <si>
     <t xml:space="preserve">Schiffstyp </t>
   </si>
@@ -8071,6 +8071,813 @@
 Wedekind, Werbrand, Werhard, Werleif, Werrich, Wiedmar,
 Wieland, Wigleif, Wildrich, Winfried, Wittig, Wolferich, Wolfger,
 Wolfhard, Wolfrad, Wolfried</t>
+  </si>
+  <si>
+    <t>Die Wirkung dieser Kraft dauert [6 Stunden / 1 Tag / 1 Woche]. Für diese Dauer kann der Wirkende eine Anzahl von [Kommando / Kommando * 2 / Kommando * 4] Kreaturen vollständig kontrollieren (Handlungen, Gedanken, Worte). Dies geht, solange sich diese Kreaturen [in Sichtweite / 10 Meilen entfernt / beliebig] befinden. Der Wirkende kann sich hierfür auf die Handlungen aller Kontrollierten gleich-zeitig konzentrieren (als hätte er X Hirne). Um eine Kontrolle herzustellen, muss der Wirkende die Kreatur nicht sehen, sondern nur grob wissen, wo sie ist. Die Zielkreatur kann einmalig einen Manipulationsresistenztest machen um zu widerstehen.</t>
+  </si>
+  <si>
+    <t>Die Wirkung dieser Kraft dauert [1 Stunde / 8 Stunden / 1 Tag]. Für diese Dauer kann der Wirkende nach Belieben für Tests, die er selbst oder Charaktere in Sichtweite machen müssen, bestimmen, ob sie mit Erfolg, Fehlschlag oder Teilerfolg enden sollen.</t>
+  </si>
+  <si>
+    <t>Bei Wirkung dieser Kraft wählt der Wirkende einen der drei Lebenszauber (5.2 Zauberformeln: Irreguläre Zauberei). Diese sind „Körper-liche Verzauberung“, „Zauberhaut“ und „Erbwandlung“. Der gewählte Zauber tritt ein. Alternativ kann diese Kraft genutzt werden um, A) eine unfruchtbare Kreatur dauerhaft fruchtbar zu machen, B) eine weibliche Kreatur durch bloße Zauberwirkung zu schwängern, C) einer weiblichen und schwangere Kreatur, die weniger als 25% der Schwangerschaftsdauer hinter sich hat Zwillinge zu bescheren, D) ein Ei egal welchen Alters durch bloße Zauberwirkung zu befruchten, E) fruchtbare Samen einer beliebigen Pflanze zu gewinnen.</t>
+  </si>
+  <si>
+    <t>Die Wirkung dieser Kraft dauert [1 Stunde / 8 Stunden / 1 Tag]. Für diese Dauer kann der Wirkende nach Belieben: Brennbare Gegenstän-de sofort entzünden, Feuer beenden, berührte Gegenstände auf bis zu 1000 ° C erhitzen, Wasser verdampfen lassen, Wasser einfrieren, Windstöße hervorrufen, das Wetter ändern, Stürme heraufbeschwören, Windstille gebieten, Lawinen, Erdbeben, Erdspalte und Erdrutsche erzeugen, Blitze einschlagen lassen. Auf diese Weise kann er [2 / 3 / 4] Elemente gleichzeitig beherrschen.</t>
+  </si>
+  <si>
+    <t>Ein Ereignis, dass der Wirkende bereits erlebte, oder von dem er weiß, dass es stattfand, wird vor seinem geistigen Auge in allen Details abgespielt. Das Erlebnis darf nicht länger als [1 Jahr / 10 Jahre / beliebig] zurückliegen und nicht länger als [5 Minuten / 1 Stunde / 3 Tage] andauern. Es können [1 / 3 / 8] weitere Kreatur(en) in Berührung gewählt werden, die an diesem Einblick teilhaben.</t>
+  </si>
+  <si>
+    <t>Die Wirkung dieser Kraft dauert [6 Stunden / 1 Tag / 1 Woche]. Für diese Dauer kann der Wirkende nach Belieben Kreaturen in Hörweite durch gewaltigen Zuruf in Raserei versetzen. Nach Wahl des Wirkenden ist diese Raserei [blind für Freund-Feindschaft / nur gegen Feinde gerichtet / nur gegen bestimmte Feinde gerichtet]. In dem Zustand der Raserei hat eine Kreatur +10 Kampfgeist, +10 Adrenalin, +5 Waffenenergie und Vorteil auf alle Waffen-Tests. Eine Raserei dauert [5 Minuten / 30 Minuten / 1 Stunde]. Nach Ende der Raserei verliert der Betroffene 5 Ausdauer.</t>
+  </si>
+  <si>
+    <t>Der Wirkende nimmt für [8 Stunden / 1 Tag / 7 Tage] eine andere äußere Gestalt an. Körperlich verändert er sich nicht, doch ein in allen Formen lebensechtes Scheinbild übermalt ihr Äußeres. Das Erscheinungsbild ist beschränkt auf [seine Spezies / Humanoide / seine grobe Körperform und Masse]. Alternativ können [1 / 3 / 8] Kreatur(en) in Berührung gewählt werden, auf die diese Wirkung zutrifft.</t>
+  </si>
+  <si>
+    <t>Wähle [einen unverzauberten Gegenstand / eine Zauberwirkung / ein Artefakt] in [Berührung / 30 Fuß / Sichtweite] Das gewählte wird [nach 1 Stunde / nach einer Minute / sofort] restlos vernichtet bzw. beendet, wenn es sich um Zauberwirkung handelt.</t>
+  </si>
+  <si>
+    <t>Wenn diese Kraft gewirkt wird, ist die Zauberwirkung bei Zauberstein-Alchemie, Brauen und Artefaktkunde erfüllt (5.3 Zauberhandwerke). Weitere Schritte dieser Zauberhandwerke (z.B. Trankzubereitung) sind damit nicht erfüllt. Die Bonusstufenzahl die bei dieser Titanenkraft gewählt werden dürfen, ergibt die Bonusstufenzahl, die dann im Trank möglich ist.</t>
+  </si>
+  <si>
+    <t>Wenn diese Kraft gewirkt wird, ist die Zauberwirkung bei Weissagung erfüllt (5.3 Zauberhandwerke).</t>
+  </si>
+  <si>
+    <t>Wähle eine dir bekannte Kreatur. Hast du einen Gegenstand, den diese getragen hat, oder einen Körperrest desselben, so wird dir vor deinem inneren Auge für 30 Sekunden der Aufenthaltsort der Kreatur gewahr. Sowohl Himmelsrichtung und Entfernung, als auch eine bildli-che Erscheinung der direkten Umgebung.</t>
+  </si>
+  <si>
+    <t>Wähle einen Gegenstand innerhalb von 30 Fuß, der gerade geschmiedet wird. Ist es eine Waffe, so erhält diese dauerhaft +1 Waffenschaden. Ist es ein Rüstungsgegenstand, so erhält er dauerhaft +1 auf eine der drei Resistenzen. Alle sonstigen Gegenstände werden durch den Spruch gehärtet und bruchfest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle einen oder mehrere Wertgegenstände innerhalb von 30 Fuß. Ein Geisterwesen erscheint, das diese Wertgegenstände für 18 Tage bewacht, bis es besiegt wird. Das Geisterwesen nimmt die Form und die Eigenschaften einer Kreatur an (z.B. Wolf, Bär, Drache). Das Gewicht dieser Kreatur darf das Gewicht des Schatzes nicht übersteigen. Was als Wertgegenstand gilt und welches Wesen erscheint, entscheidet der SL.  </t>
+  </si>
+  <si>
+    <t>Bei Wirkung dieser Kraft wählt der Wirkende einen der fünf Totenzauber (5.2 Zauberformeln: Irreguläre Zauberei). Diese sind „Totenruf“, „Totenlockung“, „Leichenbelebung“, „Totenzwang“ und „Ewiger Lebenswille“. Der gewählte Zauber tritt ein.</t>
+  </si>
+  <si>
+    <t>Der Wirkende kann sich für [30 Minuten / 6 Stunden / 24 Stunden] restlos [unsichtbar / unkörperlich / unsichtbar und unkörperlich] machen, einschließlich aller Gegenstände, die er trägt. Es können [0 / 2 / 5] weitere Kreatur(en) in Berührung gewählt werden, die dieselbe Wirkung erfahren. Unsichtbare sehen sich selbst und merken, wenn die Zauberwirkung abklingt. Unkörperlichkeit bedeutet, dass die Kreaturen keine Kraftwirkungen von außen erfahren, wohl aber selbst willentlich Kraftwirkungen hervorrufen können. Demzufolge „schweben“ Unkörperliche.</t>
+  </si>
+  <si>
+    <t>Wähle bis zu [1 / 3 / 10] Pfund an [lebloser / organischer / lebendiger] Materie. Nach [1 Tag / 6 Stunden / 1 Stunde] ist die Materie umgewandelt in eine beliebige neue Form desselben Gewichts. Lebloses kann nur zu leblosem, organisches nur zu organischem, lebendiges nur zu lebendigem werden. Lebendiges bedeutet lebende Organismen, die zu neuen lebenden Organismen werden. Mit dieser Kraft kann also beispielsweise Gold geschaffen werden, neuartige Viren und Bakterien geschaffen werden, seltene Zutaten erzeugt werden. Einzige Einschränkung ist, dass Ausgangs- und Ergebnismaterie homogen und in natürliche Form sein müssen. Es kann also nicht etwa eine Rüstung erzeugt werden, da diese ein menschliches Kunstprodukt ist.</t>
+  </si>
+  <si>
+    <t>Wähle ein Schloss oder einen Riegelmechanismus in Berührung. Es wird abgeschlossen, auch wenn der Schlüssel dazu fehlt. Für 24 Stunden kann es nicht geöffnet werden, sondern ist durch Zauberkraft verschlossen.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur innerhalb von 30 Fuß, die nicht intelligent (lern- und identitätsfähig) ist. Für 5 Minuten hat der Wirkende „Weisungsbefugnis“ über die Kreatur. Er kann also Anweisungen geben, die erfüllt werden, wenn er bei einem Test (3W6 + Kommando) gegen ZW 12 Erfolg hat.</t>
+  </si>
+  <si>
+    <t>Wähle ein Projektil innerhalb von 300 Fuß. Entweder als Reaktion auf einen unmittelbar erfolgenden Schuss oder während gezielt wird. Das Projektil verliert alle Bewegungsenergie und fällt zu Boden. Auch wenn es noch nicht abgeschossen wurde.</t>
+  </si>
+  <si>
+    <t>Wähle eine Giftwirkung in Selbst oder Berührung. Diese endet sofort.</t>
+  </si>
+  <si>
+    <t>Wähle ein Ziel in Berührung. Es erhält 2W6 Schaden und ist für 6 Sekunden (in seinem nächsten Zug) paralysiert, also handlungsunfähig.</t>
+  </si>
+  <si>
+    <t>Wähle eine Zielkreatur. Deren Gefühlslage wandelt sich schlagartig zu einer inneren Ruhe. Wenn sie sich im Kampf befunden hat, und noch keinen Schaden erlitten hat, beendet sie die Kampfhandlung. Wenn sie aber Verbündete hat, die nach 30 Sekunden immer noch kämpfen, wird sie sich diesen wieder anschließen.</t>
+  </si>
+  <si>
+    <t>Wähle eine Zielkreatur innerhalb von 30 Fuß. Deren Bewegung wird für 1 Minute auf 5 Fuß reduziert.</t>
+  </si>
+  <si>
+    <t>Wähle eine Blutung in Selbst oder Berührung. Diese endet sofort.</t>
+  </si>
+  <si>
+    <t>Der Wirkende wird für 1 Minute stark durchsichtig, sodass nur die Umrisse erkennbar sind. Bei Bewegungslosigkeit ist er damit von mehr als 300 Fuß kaum mehr zu erkennen. Auch bei Bewegung ist er schwerer wahrzunehmen. Er hat Doppel-Vorteil auf Schleichen und Vorteil auf Nahkampfangriffe.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt innerhalb von 30 Fuß. In einem Radius von 30 Fuß um diesen Punkt (oder in dem ganzen Gebäuderaum der diesen Punkt umgibt, wenn er nicht wesentlich größer ist) ist für 1 Minute keine Schallübertragung mehr möglich. Auch Zauberwirkungen, die gesprochene Worte erfordern, sind damit nicht möglich.</t>
+  </si>
+  <si>
+    <t>Bewege dich um so viel Fuß wie dein Wert Bewegung angibt. Dies dauert 0 Sekunden.</t>
+  </si>
+  <si>
+    <t>Kann als Reaktion auf eine Zauberwirkung (Spruch, Artefakt, usw.) gewirkt werden. Jeglicher Hitze- und Kälteschaden des Zaubers verfällt.</t>
+  </si>
+  <si>
+    <t>Wähle ein Ziel in Berührung. Es erhält 4W4 Hitzeschaden.</t>
+  </si>
+  <si>
+    <t>Wähle eine Waffe innerhalb von 30 Fuß. Diese verschwindet und erscheint wieder am Boden und 10 Fuß von seiner vorherigen Position entfernt.</t>
+  </si>
+  <si>
+    <t>Wähle eine Zielkreatur innerhalb von 30 Fuß. Diese wird durch einen unsichtbaren kräftigen Druck 50 Fuß von dir fortgeschoben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle eine humanoide Kreatur in Sichtweite. Für die nächsten [3 Stunden / 6 Stunden / 12 Stunden] kann die Kreatur eine zusätzliche Hand kontrollieren. Die Hand ist zauberhaft und unsichtbar, kann sich aber nicht weiter vom Körper entfernen, als es die normalen Hände der Kreatur können. Die Hand hat normale Handtragkraft, wie die anderen beiden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle eine Kreatur in Sichtweite. Für die nächsten [5 Minuten / 1 Stunde / 3 Stunden] wird das Ziel für alle anderen Kreaturen gänzlich unsichtbar. Das Ziel kann sich selbst sehen. Gegenstände, die es trägt, werden auch unsichtbar. Wenn die Unsichtbarkeit endet, bemerkt die Kreatur selbst dies auch innerlich. Die Angriffe der unsichtbaren Kreatur können nicht wahrgenommen werden. Angegriffene Kreaturen können also weder ausweichen, noch blocken oder parieren, sondern werfen einfach nur 3W6 (bei Fernkampf + Schirmwert) für den Verteidigungswurf. </t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Diese erhält eine zufällige Alterungserscheinung (4.8 Alterung). Das Ziel ist für [2 Jahre / 1 Jahr / 6 Monate] nicht in der Lage, die Wirkung dieses Zaubers erneut zu erfahren.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Für die nächsten [30 Minuten / 3 Stunden / 12 Stunden] sind Intuition und Sinne dieser um [2 / 3 / 4] erhöht.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Sie löst sich sofort auf und erscheint nach 12 Sekunden an einem Zielpunkt innerhalb von [30 Fuß / 300 Fuß / Sichtweite des Wirkenden]. Am Zielpunkt muss Platz für die Kreatur sein, ansonsten erscheint die Kreatur in nächster Nähe. Der Zielort muss in jedem Fall vom Wirkenden eingesehen werden können.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Für die nächsten [3 Tage / 9 Tage / 3 Wochen] kann nichts und niemand die Seele dieser Kreatur manipulieren oder von ihrem Körper lösen. Die einzige Ausnahme ist der Tod.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. [Nach 1 Tag / Nach 1 Stunde / Sofort] verliert die das Ziel Verzauberung oder Zauberwirkung, die sie betrifft, auch dauerhafte. Der Wirkende muss zumindest erahnen, in welche grobe Richtung das Ziel verzaubert ist, um diese Verzauberung auswählen zu können. Er kann entscheiden, wenn er von mehreren Verzauberungen weiß.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Für die nächsten [5 Minuten / 1 Stunde / 3 Stunden] hat das Ziel Vorteil auf alle Waffen-Tests bei der Aktion „Nahkampfangriff“.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Für die nächsten [5 Minuten / 1 Stunde / 3 Stunden] hat das Ziel Vorteil auf alle Waffen-Tests bei den Aktionen „Fernkampfangriff“ und „Waffe werfen“.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt in [30 Fuß / Sichtweite / Sichtweite]. An dieser Stelle wird ein optisches Trugbild geschaffen, dass bis zu [5 Minuten / 3 Stunden / 1 Tag] anhält und dann verschwindet. Das Bild erzeugt keine Gerüche, Geräusche oder sonstige Einflüsse auf die Umwelt. Es kann eine Größe von [3 / 9 / 15] Fuß in alle drei Dimensionen haben. Es kann [nur statisch sein / sich von selbst auf natürliche Weise bewegen / sich so bewegen und verhalten, wie der Wirkende wünscht (Konzentration)].</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Für die nächsten [5 Minuten / 1 Stunde / 3 Stunden] sind alle Resistenzwerte aller Rüstungsteile dieser Kreatur um [50% / 100% / 150%] gesteigert.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Sie erhält bis zu [W8 / W10 / W12] verlorene Gesundheitspunkte zurück.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Das Ziel vergisst ein Erlebnis. Das Erlebnis darf nicht länger als [10 Minuten / 1 Stunde / 3 Stunden] gedauert haben und nicht länger als [1 Tag / 1 Woche / 1 Monat] zurückliegen.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Für die nächsten [5 Minuten / 1 Stunde / 3 Stunden] muss jede Kreatur, die innerhalb eines Radius von [5 Fuß / 10 Fuß / 20 Fuß] um diese Kreatur befindet, pro Runde (6 Sekunden) einen Hitzeresistenztest gegen ZW 10 machen. Bei Fehlschlag verliert sie 1 Gesundheit.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Das Ziel verliert eine [zufällige / zufällige / beliebige] erhaltene Alterungserscheinung (4.8 Alterung). Das Ziel ist für [2 Jahre / 1 Jahr / 6 Monate] nicht in der Lage, die Wirkung dieses Zaubers erneut zu erfahren.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Für die nächsten [12 Sekunden / 1 Minute / 30 Minuten] kann die Kreatur keine Gesundheitspunkte verlieren.</t>
+  </si>
+  <si>
+    <t>Sonnenneigung: Der Wirkende wählt eine Kreatur und kann dieser eine telepathische Nachricht senden. Mondneigung: Der Wirkende wählt eine Kreatur und diese kann dem Wirkenden eine telepathische Nachricht senden. Sie versteht intuitiv, dass sie dies kann. Das Ziel muss in [Berührung / 30 Fuß / Sichtweite] sein. Die Nachricht kann einen Umfang von [3 / 7 / 10] sinntragenden Sätzen.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Für die nächsten [3 Stunden / 12 Stunden / 3 Tage] erhält die Kreatur [+2 / +3 / +4] Schirmwert. Wirkt ein Sonnenneigender den Zauber, so wird Schirmwert verloren.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Sie kann für die nächsten [3 Stunden / 12 Stunden / 3 Tage] in einem Radius von [30 Fuß / 300 Fuß / Sichtweite] durch [Nacht / Nacht / völlige Dunkelheit] sehen.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Für die nächsten [3 Stunden / 12 Stunden / 3 Tage] ist die Reisegeschwindigkeit dieser um [50% / 100% / 150%] erhöht.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Die Furchtstufen dieser Kreatur reduzieren sich um [1 / 2 / 3]. Wirkt ein Sonnenneigender den Zauber, so werden Furchtstufen erhalten.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Für die nächsten [3 Stunden / 12 Stunden / 3 Tage] ist die Belastung des Ziels verringert. Sie ist um [1 / 2 / 3] Schritte verringert. Als Schritt gilt in diesem Fall beispielsweise der Schritt von Schwerer zu Mittlerer Belastung.</t>
+  </si>
+  <si>
+    <t>In der Hand des Wirkende entstehen [3 / 5 / 7] Goldmünzen. Diese lösen sich nach [3 Minuten / 1 Stunde / 1 Tag] auf.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Für die nächsten [3 Stunden / 12 Stunden / 3 Tage] wird jedes Mal, wenn die Kreatur Schaden austeilt, die Schaden erhaltende Kreatur vergiftet. Das Gift ist Schlangengift in einer Portion von [2 / 3 / 4] Giftportionen.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Für die nächsten [3 Stunden / 12 Stunden / 3 Tage] darf die Kreatur ihre Position innerhalb der Kampfreihenfolge von Gefechten selbst bestimmen.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Sichtweite. Ihr Gesundheitsmaximum ist für [3 Stunden / 12 Stunden / 3 Tage] um [5 / 7 / 10] Punkte erhöht. Mit der Steigerung des Maximums ändert sich gleichermaßen auch der aktuelle Gesundheitswert. Mit dem späteren Absinken auf den Normalzustand dagegen nicht.</t>
+  </si>
+  <si>
+    <t>Wähle ein unlebendiges Objekt von [maximal 50 Pfund / maximal 500 Pfund / beliebiger Masse] in [Berührung / 15 Fuß / Sichtweite]. [Nach 30 Minuten / Nach 1 Minute / Sofort] erfährt der Wirkende wer [der letzte Vorbesitzer / die letzten drei Vorbesitzer / sämtliche Vorbesitzer] des Objektes waren. Als Vorbesitzer zählt jede intelligente Kreatur, die den Gegenstand für mindestens 1 Stunde in Besitz hatte.</t>
+  </si>
+  <si>
+    <t>Wähle ein unlebendiges Objekt von [maximal 10 Pfund / maximal 100 Pfund / 1000 Pfund] in [Berührung / 15 Fuß / Sichtweite]. Für [1 Minute / 1 Stunde / 1 Tag] wird der Gegenstand um bis zu [100 Jahre gealtert / 100 Jahre verjüngt / 1000 Jahre gealtert oder verjüngt]. Für diese Alterung bzw. Verjüngung wird angenommen, dass sich das Objekt in anzunehmender Umgebung befindet und z. B. Witterungsbedingungen ausgesetzt ist (Eisen kann rosten oder von Rost befreit werden, Holz kann zerfallen, Steine werden porös). Der minimale Zeitpunkt der Verjüngung ist der Zeitpunkt der Entstehung.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Selbst / Berührung / Sichtweite]. Für [1 Minute / 1 Stunde / 1 Tag] wird der Körper der Kreaturen um bis zu [10 / 20 / 40] Jahre verjüngt.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Selbst / Berührung / Sichtweite]. Für [1 Minute / 10 Minuten / 8 Stunden] haben diese Kreaturen [verdoppelte Bewegung bei Fortbewegung im Wasser / vervierfachte Bewegung bei Fortbewegung im Wasser / vervierfachte Bewegung bei Fortbewegung im Wasser und unbegrenzte Tauchfähigkeit].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Kreaturen in [Selbst / Berührung / Sichtweite]. Für [1 Minute / 10 Minuten / 8 Stunden] haben diese Kreaturen [+2 / +4 / +6] auf alle Sozialen Fähigkeiten.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Berührung / 15 Fuß / Sichtweite]. Der Wirkende erfährt [nach 1 Stunde / nach 1 Minute / sofort] über diese Kreaturen [die Wahrheit einer Aussage / die Aufrichtigkeit und das Wohlwollen ihrer Pläne und Motive / ihr gesamtes bisheriges Ehrverhalten].</t>
+  </si>
+  <si>
+    <t>Wähle eine Pflanze in [Berührung / 15 Fuß / Sichtweite]. Du erhältst [W4 / 2W6 / 4W8] Samen von dieser Pflanze. Die Samen verfaulen [nach 1 Stunde / nach 1 Tag / nach 1 Woche] wenn sie nicht bis dahin eingepflanzt werden.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Kreaturen in [Selbst / Berührung / Sichtweite]. Die Kreaturen haben für [3 Runden / 3 Minuten / 3 Stunden] [+1 / +2 / +3] auf alle Waffentests.</t>
+  </si>
+  <si>
+    <t>Wähle [1 Kreatur oder ein unlebendiges Objekt von maximal 5 Pfund / 2 Kreaturen oder ein Objekt von maximal 50 Pfund / 5 Kreaturen oder ein Objekt von maximal 500 Pfund] in [Selbst / Berührung / Sichtweite]. Die Ziele werden [nach 1 Woche / nach 1 Tag / nach 1 Stunde] von [allen Zaubern / beliebigen Zaubern / allen Zaubern und Flüchen] dauerhaft befreit.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Selbst / Berührung / Sichtweite]. Die Kreaturen haben für [3 Runden / 3 Minuten / 3 Stunden] [+2 Initiative, +2 Adrenalin und +5 Bewegung /+4 Initiative, +4 Adrenalin und +10 Bewegung / +6 Initiative, +6 Adrenalin und +15 Bewegung].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Selbst / Berührung / Sichtweite]. Diese regenerieren [nach 1 Stunde / nach 1 Minute / Sofort] [20% / 40 % / 60%] ihrer Ausdauer, Willenskraft und Fokus.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Kreaturen in [Selbst / Berührung / Sichtweite]. Die Kreaturen haben für [3 Runden / 3 Minuten / 3 Stunden] [+1 / +2 / +4] auf alle Resistenzen (Schnitt, Wucht, Stich, Hitze, Kälte, Gift, Krankheit, Manipulation).</t>
+  </si>
+  <si>
+    <t>In [deiner Hand / 15 Fuß / Sichtweite] wird [1 Pfund / 2 Pfund / 4 Pfund] an Nahrung deiner Wahl herbeibeschworen. Die Nahrung ist [geschmacklos und nährstoffarm /vollwertig /geschmacksintensiv und nährstoffreich]. Nach [1 Minute / 1 Stunde / 7 Tagen] beginnt die Nahrung zu faulen, falls sie bis dahin nicht konsumiert wurde.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Kreaturen in [Berührung / 15 Fuß / Sichtweite]. Diese sind für [1 Runde /3 Runden / 6 Runden] [Bewegungsunfähig / Bewegungsunfähig / Handlungsunfähig]. Bewegungsunfähigkeit bedeutet, dass alle Beine der Kreatur wie eingefroren stillhalten. Handlungsunfähigkeit, bedeutet, dass dies auf den ganzen Körper zutrifft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle eine Kreatur in [Berührung / 15 Fuß / Sichtweite]. Die Kreatur wird für [1 Runde / 2 Runden / 4 Runden] von dir physisch kontrolliert. Du kontrollierst [seine Beine und damit seine Fortbewegung / seine Beine und damit seine Fortbewegung / sämtliche seiner Muskeln]. Um Kontrolle auszuüben musst du bei Bewusstsein und in der Lage sein, klar zu denken. Du dringst nicht in den Geist der Kreatur ein, sondern kontrollierst lediglich seine Bewegungen. Jedes Mal, wenn die Kreatur gezwungen wird, einer anderen Kreatur Schaden zuzufügen (bzw. eine Handlung auszuführen, die dazu bestimmt ist), darf sie einen Manipulationsresistenztest machen. Sie hat Vorteil, wenn es darum geht, sich selbst zu verletzen und Doppel-Vorteil wenn sie sich selbst töten soll. Bei Erfolg widersteht sie dem Zwang (aber der Zauber endet dadurch nicht). </t>
+  </si>
+  <si>
+    <t>Ein schwerer Hagelsturm wird erzeugt. Er [bildet sich um den Standpunkt des Wirkenden und bleibt dort / folgt dem Wirkenden / wird an einem Ort in Sichtweite gebildet und bleibt dort] für [1 Minute / 15 Minuten / 4 Stunden]. Der Hagelsturm hat einen Durchmesser von [15 Fuß / 30 Fuß / 45 Fuß] und ist stark genug um [Pflanzen und Ernte zu beschädigen /Häuser und Konstruktionen zu beschädigen / ihm direkt ausgesetzte Lebewesen mit 1 Schaden je 2 Runden zu verletzen]. Der Wirkende ist gegen die Auswirkungen des Hagels immun, kein Korn und kein Wind berührt ihn.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Kreaturen in [Selbst / Berührung / Sichtweite]. Die Kreaturen sind für [1 Runde / 3 Runden / 5 Runden] immun gegen [lediglich physischen / lediglich physischen / jeglichen] Schaden.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in [Selbst / Berührung / Sichtweite]. Die Kreatur verliert [nach 6 Monaten / nach 4 Monaten / nach 1 Monat] eine Beeinträchtigung deiner Wahl. Die Beeinträchtigung darf eine [geringfügige geistige / geringfügige körperliche / beliebige] Beeinträchtigung sein. Als „geringfügig“ gelten Beeinträchtigungen, die eine Erhaltungschance von 2% oder höher haben (3.5 Eigenschaften).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle ein unlebendiges Objekt von [maximal 50 Pfund / maximal 500 Pfund / beliebiger Masse] in [Berührung / 15 Fuß / Sichtweite]. Du erfährst [nach 1 Stunde / nach 1 Minute / sofort] was es mit dem Objekt auf sich hat. Die Ausführlichkeit der Informationen ist [oberflächlich, sachlich, deskriptiv und funktionsorientiert / kontextbezogen, weiterführend und verknüpfungsorientiert / ausführlich, hintergründig und verständnisorientiert]. </t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Kreaturen in [Selbst / Berührung / Sichtweite]. Die Kreaturen verlieren für [1 Minute / 1 Stunde / 1 Tag] sämtliche Furchtstufen und können keine erhalten.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in [Selbst / Berührung / Sichtweite]. Die Kreatur hat [+3 / +6 / +9] auf die nächsten [1 / 2 / 4] Wissenstests (=Fähigkeitstests mit Wissensfähigkeiten). Die Wirkung des Zaubers endet nach [1 Minute / 2 Stunden / 7 Tagen].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 1 / 2] Kreaturen in [Berührung / Sichtweite / beliebiger Entfernung, wenn Name und Gesicht dem Wirkenden bekannt sind]. Die Kreaturen erleiden [nach 1 Stunde / nach 1 Minute / sofort] [W4 / 2W4 / 3W4] unvermeidbaren Schaden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle [1 / 2 / 5] Kreaturen in [Selbst / Berührung / Sichtweite]. Die Kreaturen werden [nach 24 Stunden / nach 1 Stunde / sofort] von sämtlichen [Giftwirkungen / Krankheitswirkungen / Gift- und Krankheitswirkungen] befreit. Gifte, deren Giftstärke höher ist als deine Runenmacht, sind davon nicht betroffen. </t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / beliebig viele] Schlösser in [Berührung / 15 Fuß / Sichtweite]. Die Schlösser dürfen maximal [Simpel / Aufwändig / Kompliziert] konstruiert sein. Die Schlösser öffnen sich [nach 10 Minuten / nach 1 Minute / sofort].</t>
+  </si>
+  <si>
+    <t>Deine eigene Seele entschlüpft deinem Körper, womit dieser in unweckbaren Schlaf verfällt. Wähle ein Tier innerhalb von 30 Fuß. Deine Seele schlüpft in das Tier und dessen Seele wird dadurch frei und umschwebt den Körper für die Dauer des Zaubers. Du steuerst nun den Körper des Tieres aber ohne deinen ursprünglichen Geist dabei zu verlieren. Der Zauber endet nach 24 Stunden und damit fährt deine Seele aus dem Tierkörper wieder heraus und schlüpft in deinen Körper zurück. Die Tierseele schlüpft wieder in den Körper, falls sie zu diesem Zeitpunkt innerhalb von 10 Meilen dessen ist. Falls nicht, stirbt das Tier und die Tierseele wird zur toten Seele.</t>
+  </si>
+  <si>
+    <t>Je nach Situation gewährt dir ein Reich der Natur eine große Hilfeleistung (5.1 Wege der Zauberei: Naturzauberei: Hilferufe). Ein Sonderfall ist das Schaffen permanenter Zauberpflanzen (8.8 Kreaturen: Zauberwesen).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn diese Ruf gemacht wird, ist die Zauberwirkung bei Zauberstein-Alchemie erfüllt (5.3 Zauberhandwerke). </t>
+  </si>
+  <si>
+    <t>Wähle eine Seele in einem lebenden Tier oder einer lebenden Pflanze innerhalb von 30 Fuß von dir. Die Seele dieses Lebewesens schlüpft vorübergehend in deinen Körper. Der Körper des Lebewesens dagegen fällt in unweckbaren Schlaf, falls er nicht schon in solchem ist. Weil die gewählte Seele eine Kreatur, dein Körper aber menschenhaft intelligent ist, so wird dein Körper nach wie vor von deinem intelligenten Geist gesteuert, aber dieser erhält je nach Kreaturenart, die ihn beseelt einen besonderen Vorteil. Der Zauber endet nach 24 Stunden und damit fährt die gewählte Kreaturenseele aus deinem Körper wieder heraus und schlüpft in den alten Kreaturenkörper zurück, falls dieser zu diesem Zeitpunkt innerhalb von 10 Meilen ist. Falls nicht, stirbt das Wesen und dessen Seele wird zur toten Seele. Der Vorteil ist bei Bären und Wölfen +5 Kampfgeist, bei Raubkatzen +5 Spurensuche und +5 Schleichen, bei Vögeln +5 Orientierung und +5 Initiative, bei Fischen +5 Schwimmen und +5 Initiative, bei Fluchttieren +5 Akrobatik und +10 Bewegung, bei Reptilien +5 Täuschen und Schleichen, bei massiven Landsäugern +5 Ausdauer- und Willenskraftmaximum, bei Pflanzen +5 Manipulationsresistenz und +5 Klettern. Die Stufe dieses Zaubers ist um 1 reduziert, wenn ein wichtiges Organ (Herz, Leber, Hirn, Lunge, Wurzel, Blüte) der entsprechenden Tierart sich im Verdauungstrakt des gewählten Körpers befindet, bzw. um 2 reduziert, wenn dies von mehreren verschiedenen Organen der Fall ist.</t>
+  </si>
+  <si>
+    <t>Deine eigene Seele entschlüpft deinem Körper, womit dieser in unweckbaren Schlaf verfällt. Wähle eine Pflanze innerhalb von 30 Fuß. Deine Seele schlüpft in die Pflanze und dessen Seele wird dadurch frei und umschwebt den Pflanzenkörper für die Dauer des Zaubers. Du steuerst nun die Pflanze aber ohne deinen ursprünglichen Geist dabei zu verlieren. Du kannst Wurzeln, Äste und andere Teile der Pflanze aktiv bewegen und Kraft damit ausüben. Der Zauber endet nach 24 Stunden und damit fährt deine Seele aus der Pflanze wieder heraus und schlüpft in deinen Körper zurück. Die Pflanzenseele schlüpft wieder in den Körper, falls sie zu diesem Zeitpunkt innerhalb von 10 Meilen dessen ist. Falls nicht, stirbt die Pflanze und die Pflanzenseele wird zur toten Seele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn diese Kraft gewirkt wird, ist die Zauberwirkung bei Brauen erfüllt (5.3 Zauberhandwerke). Weitere Schritte dieses Zauberhandwerks (z.B. Trankzubereitung) sind damit nicht erfüllt. </t>
+  </si>
+  <si>
+    <t>Wähle eine Pflanze in Berührung, die Wurzeln hat. Sofort verschwindet dein Körper und reist mit einer Geschwindigkeit von einer Meile pro Minute durch das Wurzelnetz unter der Erde. Die Reichweite dieser Reise ist also auf Pflanzenbewuchs beschränkt. Der Wirkende kann das Ziel grob bestimmen oder genau wählen, wenn es ihm bekannt ist. Am Ende der Reise bildet sich der Körper wieder.</t>
+  </si>
+  <si>
+    <t>Je nach Situation leistet dir ein Reich der Natur eine kleine Hilfestellung (5.1 Wege der Zauberei: Naturzauberei: Hilferufe).</t>
+  </si>
+  <si>
+    <t>Wähle eine Art. Du spürst den Aufenthalt aller Wesen dieser Art im Umkreis von 1 Meile.</t>
+  </si>
+  <si>
+    <t>Wähle eine [geringfügige / relevante / beliebige] Information (im Sinne eines Gedankeninhalts oder Ereignisses). Diese Information darf nicht mehr als [5 / 20 / 100] Individuen bekannt sein. Für [1 Tag / 1 Woche / 1 Monat] wird es unmöglich, diesen Gedanken zu vermitteln, sprich von einem Bewusstsein in ein anderes sinnvoll zu übertragen. Jeder Versuch, dies zu tun endet in nachdenklichem Schweigen. Alternativ kann beim Wirken des Zaubers eine Kreatur berührt werden. Damit ist diese Kreatur allein von dem Zauber betroffen (in beiden Richtungen). Durch diese Version des Zaubers wird seine Dauer mit dem Intelligenzwert des Wirkenden multipliziert. Der Betroffene kann jedoch einen Manipulationsresistenztest machen, um die Auswirkung des Zaubers zu verhindern.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Kreaturen in [Selbst / Berührung / Sichtweite]. Für [1 Stunde / 6 Stunden / 12 Stunden] wird jeder Fähigkeitstest, den diese Kreaturen durchführen mindestens ein [Teilerfolg / Teilerfolg / Erfolg].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Kreaturen in [Selbst / Berührung / Sichtweite]. Für [2 Runden / 5 Runden / 10 Runden] wird [25% /50% / 100%] des Schadens, den diese Kreaturen durch Angriffe oder Zauber anderer Kreaturen erleiden, nicht erlitten, sondern stattdessen vom Verursacher erlitten.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Kreaturen in [Selbst / Berührung / Sichtweite]. Für [1 Minute / 1 Stunde / 1 Tag] haben diese [+4 / +8 / +12] auf alle Wissensfähigkeiten. Sie sind damit in der Lage, Wissen abzurufen, dass beliebige ihrer Vorfahren hatten, ohne dass sie jemals davon zu eigenen Lebzeiten wussten.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Selbst / Berührung / Sichtweite]. Für [1 Minute / 1 Stunde / 1 Tag] haben diese nach Willkür des Wirkenden emotionale Zustände wie [Wohlbefinden, Unbehagen, Vorsicht, Freundlichkeit / Vertrauen, Misstrauen, Freude, Trauer / Liebe, Hass, Aggression, Euphorie, Depression].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Kreaturen in [Selbst / Berührung / Sichtweite]. Deren Gesundheit kann für [2 Runden / 5 Runden / 10 Runden] nicht durch [Nahkampfangriffe / Fernkampfangriffe / jegliche äußere Einwirkung] gesenkt werden. Gesundheitsverlust durch Krankheiten, innerlich aufgenommene Gifte oder mentale Schadenswirkung werden durch diesen Zauber nicht abgewehrt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle [1 / 2 / 5] tote Kreaturen, von denen du [den Leichnam oder Überrest berührst / am Grab oder Todesort bist / den Namen kennst]. Nach [1 Tag / 1 Stunde / 1 Minute] können diese für [5 Sätze / 1 Minute / 10 Minuten] mit dir telepathisch kommunizieren (sofern beide dieselbe Sprache beherrschen). Ahnenkundige können zwar durch Kontaktaufnahme mit gerade anwesenden Geistern kommunizieren, diese Seelen haben jedoch keinerlei geordneten Verstand, raumzeitliche Orientierung oder richtigen Bezug zur realen Welt und ihrem einstmaligen Gedächtnis sondern sind bloße umherirrende Wesen mit begrenzter Aufnahme- und Verstandesfähigkeit, die sich meist stur einer „Tätigkeit“ widmen. Werden Tote jedoch zum Totenwort herbeigerufen, wird aus ihrem tiefsten Seelenbewusstsein alles herausgeholt, was noch an Lebenserinnerungen vorhanden ist. Je länger eine Seele tot ist, desto weniger kann sie davon abrufen. Ein erst kürzlich Verstorbener ist durch diesen Zauber jedoch wieder bei vollem geistigem Bewusstsein. </t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Kreaturen in [Selbst / Berührung / Sichtweite]. Für [1 Minute / 1 Stunde / 1 Tag] haben sie [+2 / +4 / +6] an Kampfgeist und Adrenalin.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt in [Berührung / 30 Fuß / Sichtweite]. In einem Radius von [15 Fuß / 150 Fuß / 1 Meile] um diesen Punkt werden für [1 Minute / 1 Stunde / 1 Tag] sämtliche schädlichen Kräfte die auf den Elementen Wasser und Wind basieren und [natürlichen / natürlichen / zauberhaften] Ursprungs sind, aufgehoben. Was als schädlich empfunden wird, hängt von Situation und Einschätzung des Wirkenden ab. Der Wirkende kontrolliert damit mental das Ausmaß an Einschränkung in Echtzeit, solange er in der Lage ist, zu denken und die Situation einzuschätzen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle einen Punkt in [Berührung / 30 Fuß / Sichtweite]. In einem Radius von [15 Fuß / 150 Fuß / 1 Meile] um diesen Punkt werden für [1 Minute / 1 Stunde / 1 Tag] sämtliche schädlichen Kräfte die auf den Elementen Feuer und Erde basieren und [natürlichen / natürlichen / zauberhaften] Ursprungs sind, aufgehoben. Was als schädlich empfunden wird, hängt von Situation und Einschätzung des Wirkenden ab. Der Wirkende kontrolliert damit mental das Ausmaß an Einschränkung in Echtzeit, solange er in der Lage ist, zu denken und die Situation einzuschätzen. </t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt [an deinem jetzigen Standpunkt / an dir selbst, der sich mitbewegt / innerhalb von 300 Fuß]. In einem Radius von [5 Fuß / 15 Fuß / 45 Fuß] um diesen Punkt entsteht eine geschosshemmende Aura, die alle geworfenen oder geschossenen Projektile, inklusive Steine und durch Zauber hervorgerufene Projektile [abschwächt, sodass sie nur halben Schaden austeilen / zu Boden fallen lässt / nach Belieben sanft in die Hand des Wirkenden gleiten lässt] sobald sie sich innerhalb der Aura befinden, das heißt auch wenn sie von innen geworfen/geschossen wurden. Der Wirkende kann, wenn er sich auf den Zauber konzentriert und dabei nichts anderes tut, beliebige Kreaturen von diesem Bann befreien.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle [1 / 2 / 5] Kreaturen in [Berührung / 30 Fuß / 300 Fuß]. Für [1 Runde / 3 Runden / 1 Minute] sind die Kreaturen unfähig, Handlungen zu vollziehen, die anderen Kreaturen Schaden zuführen. Bei jeder solchen Handlung kann [6 / 12 / unmöglich] Willenskraft abgegeben werden, um den Bann zu umgehen und dennoch entsprechend zu handeln. Das schließt physische Angriffe, sowie mutwillig schädliche Zauber aus. Handlungen oder Zauber, die erwartungsgemäß unschädlich sind, dann jedoch eine schädliche Wirkung entwickeln, sind nicht betroffen. </t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Kreaturen in [Berührung / 30 Fuß / Sichtweite]. Für [1 Minute / 1 Stunde / 1 Tag] erleben sie eine [geringfügige / deutlich erkennbare / überragende und betörende] Attraktivitätssteigerung gegenüber dem anderen Geschlecht. Der SL bestimmt hierbei die genauen Auswirkungen. Der Zauber ist jedoch in seiner stärksten Form durchaus in der Lage zuvor desinteressierte Charaktere in heftige Liebe entbrennen zu lassen. In seiner schwächsten kann er zumindest Vorteil auf Ablenkungs- oder Aufforderungsversuche verleihen. Die Attraktivität liegt dabei mehr in hormoneller Steuerung und Wahrnehmung. Der Zauber verändert das Aussehen der Kreaturen nicht direkt, höchstens über Ausschüttung von attraktivitätssteigernden Hormonen, Körperprozessen und Gefühlslagen.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt [an deinem jetzigen Standpunkt / an dir selbst, der sich mitbewegt / innerhalb von 300 Fuß]. In einem Radius von [15 Fuß / 150 Fuß / 1 Meile] um diesen Punkt werden für [1 Minute / 1 Stunde / 1 Tag] [alle unfreien Seelen / aller freien Seelen / nach Wahl des Wirkenden beliebige Seelen] vertrieben. Vertriebene Seelen können erst nach dem nächsten Neumond nach der Vertreibung an diesen Ort zurückkehren. Bis dahin sind sie in weiter Ferne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle [1 / 2 / 5] Kreaturen in [Berührung / 30 Fuß / Sichtweite]. Sie erhalten [nach 6 Stunden / nach 1 Stunde / sofort] [10% / 20% / 30%] ihres Gesundheitsmaximums an Gesundheitspunkten. </t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Kreaturen in [Selbst / Berührung / Sichtweite]. Sie erhalten [nach 1 Stunde / nach 1 Minute / sofort] von allen Fesseln oder körperlichen Einschränkungen befreit. Dies gilt auch für Eissäule, Versteinerung oder andere Formen der körperlichen Handlungs- oder Bewegungsunfähigkeit. Es gilt nicht für innere Einschränkungen, wie etwa Paralyse. Auch körperinterne Zustände, wie Schwäche- und Belastungszustände oder Zauber, die den Organismus betreffen, sind nicht miteingeschlossen. Nur äußerliche körperliche Beschränkungen werden entfernt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle [1 / 3 / 10] Kreaturen in [Berührung / 30 Fuß / Sichtweite]. Sie erhalten [nach 1 Stunde / nach 1 Minute / sofort] [25% / 50% / 100%] ihres Willenskraftmaximums an Willenskraftpunkten. </t>
+  </si>
+  <si>
+    <t>Wähle [2 / 5 / 20] Kreaturen in [Berührung / 30 Fuß / Sichtweite]. Für [1 Minute / 1 Stunde / 1 Tag] werden alle [angespannten feindseligen Stimmungen / verbalen Auseinandersetzungen / untödlichen Prügeleien oder Handgemenge] zwischen diesen Kreaturen beigelegt und brechen für die Dauer des Zaubers nicht erneut aus. Konflikte, in denen nach dem Leben getrachtet wird, sind von diesem Zauber nicht betroffen. Erst nach Ablauf des Zaubers kann erneut eine Situation auftreten, in der sich die gewählten Kreaturen untereinander streiten.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 /10] Kreaturen in [Selbst / Berührung / Selbst und Berührung]. Die Kreaturen sind für die nächsten [8 Stunden / 24 Stunden / 7 Tage] immun gegen jede Form von Zauberwirkung. Der Zauber „Entzauberung“ kann diesen Zauber und damit die Immunität aufheben.</t>
+  </si>
+  <si>
+    <t>Wenn der Wirkende erkennt, dass jemand einen Zauber vorbereitet oder bereits wirkt, oder das Sprechen der Zauberformel unmittelbar abgeschlossen ist, kann er diesen Zauber wirken, um die Zauberwirkung zu annullieren. Der Konterzauber wiederum kann nicht umgekehrt wieder durch weiteren Konterzauber annulliert werden.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt in [Berührung / 30 Fuß / Sichtweite]. In einem Radius von [300 Fuß / 3.000 Fuß / 10 Meilen] um diesen Punkt kann für die nächsten [3 Stunden / 24 Stunden / 7 Tage] keine Form der teleportierenden Fortbewegung erfolgen. Das schließt die Teleportation von Gegenständen mit ein. Auch die Ankunft von Teleportierenden in diesem Bereich ist nicht möglich.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt in [Berührung / 30 Fuß / Sichtweite]. In einem Radius von [300 Fuß / 3.000 Fuß / 10 Meilen] um diesen Punkt kann für die nächsten [3 Stunden / 24 Stunden / 7 Tage] keine Form der telepathischen Kommunikation erfolgen. Zauberwirkungen, die in den Geist von Lebewesen eindringen, können nicht eintreten.</t>
+  </si>
+  <si>
+    <t>Wähle einen unverzauberten Gegenstand von [5 / 50 / 500] Pfund in [Berührung / 30 Fuß / Sichtweite]. Der Gegenstand ist für die nächsten [7 Tage / 3 Monate / 10 Jahre] immun gegen jede Form von Zauberwirkung. Der Zauber „Entzauberung“ kann diesen Zauber und damit die Immunität aufheben.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in [Selbst / Berührung / Sichtweite]. Die Kreatur schläft ein und betritt im Geist ein Labyrinth. Der Schlaf und damit der Zauber endet erst dann, wenn es der Kreatur gelingt, das Labyrinth zu verlassen. Dazu muss es 5 erfolgreiche Orientierungs-Tests gegen ZW [13 / 14 / 15] absolvieren. Jeder gescheiterte Test erhöht die Anzahl der erforderlichen Tests um 1. Für jeden Test vergehen 10 Minuten. Auf normalem Weg kann die Kreatur nicht geweckt werden, es sei denn, sie verliert mehr als 10 Gesundheit (kumulativ). Dann endet der Zauber.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in [Selbst / Berührung / Sichtweite]. Die Kreatur schläft für [10 Minuten / 1 Stunde / 6 Stunden] und betritt in diesem Schlaf eine Traumwelt, die sie nach eigenen Vorstellungen gestalten kann, aber in jedem Fall klar und echt erlebt. Sie empfindet in dieser Welt keinen Schmerz. Der Zauber endet, sobald die Kreatur geweckt wird. Ist nicht der Wirkende selbst das Ziel des Zaubers, so kann dieser die Traumwelt betreten und darin mit der träumenden Kreatur interagieren. Auch der Wirkende kann dann die Welt gestalten. Wollen Träumender und Wirkender gegensätzliche Dinge verwirklichen, muss ein Willensstärke-Test entscheiden, wer sich durchsetzt.</t>
+  </si>
+  <si>
+    <t>In einem Umkreis von 30 Fuß um dich herum kannst du für [5 Minuten / 1 Stunde / 6 Stunden] nach Belieben Figuren und bildliche Abläufe und Szenerien darstellen. Es ist offensichtlich, dass es sich um Trugbilder handelt, denn sie flimmern leicht und sind leicht durchsichtig. Die Abläufe richten sich ggf. begleitend nach deinen Gedanken oder Worten.</t>
+  </si>
+  <si>
+    <t>In einem Umkreis von 30 Fuß um dich herum kannst du für [5 Minuten / 1 Stunde / 6 Stunden] nach Belieben Musik ertönen lassen. Die Musik kann aus [einem Instrument / einem Instrument mit Gesang / vielen Instrumenten und Gesang] bestehen. Sie muss dir bekannt sein.</t>
+  </si>
+  <si>
+    <t>In einem Umkreis von 30 Fuß um dich herum kannst du für [12 Sekunden / 1 Minute / 1 Stunde] nach Belieben kleine bunte bewegliche Lichter erscheinen lassen. Die Lichter sind [farbig / farbig und musterbildend / farbig und formenbildend].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Berührung / 30 Fuß / Sichtweite]. Für [10 Minuten / 1 Stunde / 6 Stunden] können die Kreaturen keine wahren Aussagen machen und keine Fragen wahr beantworten. Sie müssen mindestens [an der Wahrheit vorbeireden / das Gegenteil der Wahrheit behaupten / ausgeklügelte Lügengeschichten erfinden].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Berührung / 30 Fuß / Sichtweite]. Für [10 Minuten / 1 Stunde / 6 Stunden] müssen die Kreaturen unablässig lachen oder weinen (nach Wahl des Wirkenden). Das Lachen bzw. Weinen ist so intensiv, dass es handlungsunfähig macht und die Kreaturen sich am Boden wälzen. Der Zauber endet für eine Kreatur, sobald sie Schaden erleidet.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Berührung / 30 Fuß / Sichtweite]. Für [10 Minuten / 1 Stunde / 6 Stunden] müssen die Kreaturen unablässig tanzen. Sie können währenddessen nichts tun, was mit einem Tanz unvereinbar wäre und müssen alle Körperteile einsetzen. Sie können jedoch sprechen und sich tanzend mit halber Bewegung fortbewegen. Der Zauber endet für eine Kreatur, sobald sie Schaden erleidet.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Berührung / 30 Fuß / Sichtweite]. Für [10 Minuten / 1 Stunde / 6 Stunden] müssen die Kreaturen mit allen Körperteilen und Kräften ein Tier deiner Wahl nachahmen. Sie können währenddessen nichts tun, was nicht auch das Tier tun würde. Der Zauber endet für eine Kreatur, sobald sie Schaden erleidet.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Berührung / 30 Fuß / Sichtweite]. Der nächste Angriffsversuch, den diese Kreaturen jeweils machen, endet mit einem Patzer.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Kreaturen in [Selbst / Berührung / Selbst und Berührung]. [Nach 1 Minute / nach 12 Sekunden / sofort] erhalten diese alle verlorenen Gesundheitspunkte zurück. Damit werden alle Wunden geheilt, die erlittenen Gesundheitsverlust verursacht haben.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Kreaturen in [Selbst / Berührung / Selbst und Berührung]. Für die nächsten [3 Stunden / 12 Stunden / 3 Tage] haben die Kreaturen ein um [5 / 7 / 10] erhöhtes Gesundheitsmaximum. Mit der Steigerung des Maximums ändert sich gleichermaßen auch der aktuelle Gesundheitswert. Mit dem späteren Absinken auf den Normalzustand dagegen nicht.</t>
+  </si>
+  <si>
+    <t>Wähle eine schwangere Frau in Berührung. Für die nächsten [3 Tage / 28 Tage / 3 Monate] ist sie von allen Komplikationen der Schwangerschaft und Geburt befreit. Die Geburt ist damit nicht schmerzfrei aber frei von unglücklichen Entwicklungen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle [1 / 3 / 10] lebende oder tote Kreaturen (Kadaver bzw. Leichen). Für die nächsten [3 Monate / 3 Jahre / 30 Jahre] können deren Körper nicht zu körperlichen Wiedergängern werden. </t>
+  </si>
+  <si>
+    <t>Wähle einen Ort in [deiner Hand / 30 Fuß / Sichtweite]. [Nach 1 Stunde / nach 1 Minute / sofort] erscheinen dort [2 / 4 / 6] Pfund an Nahrungsmitteln deiner Wahl. Die Speisen sind [geschmacklos und haben nur halben Nährwert / geschmacklos / geschmackvoll und vollwertig].</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in Berührung. Sie stirbt durch Herzversagen.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Kreaturen in [Berührung / 30 Fuß / Sichtweite]. Innerhalb des nächsten [Jahres / Tages / Minute] altern die Kreaturen erheblich beschleunigt. Die Alterung in diesem Zeitraum ist [10 / 20 / 30] Jahre. Es sollte auf Alterungserscheinungen geprüft werden (4.8 Alterung).</t>
+  </si>
+  <si>
+    <t>Wähle [eine Waffe / einen Gegenstand / eine Kreatur] in [Berührung / 30 Fuß / Sichtweite]. Das Objekt wird [nach 1 Tag / nach 1 Stunde / sofort] vergiftet. Das Gift ist [Schlafgift / Drachengift / Königsgift]. Vergiftete Waffen teilen das Gift für die nächsten 6 Treffer aus. Vergiftete Gegenstände teilen das Gift aus, sobald sie berührt werden und zwar für die nächsten 6 Berührungen. Vergiftete Kreaturen erhalten das Gift sofort und ohne einen Giftresistenztest machen zu können.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Kreaturen in [Berührung / 30 Fuß / Sichtweite]. Die Kreaturen erhalten [nach 1 Tag / nach 1 Stunde / nach 1 Minute] die Krankheit [Grippe / Typhus / Sumpffieber]. Es ist kein Krankheitsresistenztest möglich.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Kreaturen in [Berührung / 30 Fuß / Sichtweite]. Die Kreaturen verlieren sofort [5 / 6 / 7] Gesundheit.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Kreaturen in [Selbst / Berührung / Sichtweite]. Für [5 Minuten / 3 Stunden / 12 Stunden] sind die Kreaturen für alle anderen Kreaturen gänzlich unsichtbar. Nur die von diesem Zauber erfassten Kreaturen können einander sehen und sich auch selbst sehen. Gegenstände, die sie tragen, werden auch unsichtbar. Wenn die Unsichtbarkeit endet, bemerken die Kreaturen dies auch innerlich. Die Angriffe unsichtbarer Kreaturen können nicht wahrgenommen werden. Angegriffene Kreaturen können also weder ausweichen, noch blocken oder parieren, sondern werfen einfach nur 3W6 (bei Fernkampf + Schirmwert) für den Verteidigungswurf.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Kreaturen in [Selbst / Berührung / Sichtweite]. Für [5 Minuten / 3 Stunden / 12 Stunden] hinterlassen die Kreaturen [keine Fußspuren / keine Fußspuren / keinerlei Spuren, weder Gerüche, Tritte, Wegmarken]. Die Spuren und Eindrücke, die entstehen sollten begeben sich dabei binnen Sekunden wieder in ihre Ausgangsposition.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Kreaturen in [Selbst / Berührung / Sichtweite]. Für [5 Minuten / 3 Stunden / 12 Stunden] haben die Kreaturen [+4 / +6 / +8] auf Schleichen.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt [an deiner Stelle / an dir und wird mit dir mitbewegt / innerhalb von 300 Fuß]. An dieser Stelle wird eine unnatürliche Wolke Dunkelheit geschaffen, die [5 Minuten / 3 Stunden / 12 Stunden] anhält und dann verschwindet. Die Dunkelheit ist undurchdringlich und kann nicht durch Wind vertrieben werden. Sie erscheint besonders dann unnatürlich, wenn es eigentlich hell sein müsste. In dunkeln Räumen und bei Nacht fällt die Unnatürlichkeit weniger auf. Sie hat einen Radius von [10 / 20 / 30] Fuß um den gewählten Punkt. Innerhalb der Dunkelheit ist die Sicht auf höchstens 1 Fuß beschränkt. Einzig der Wirkende kann durch sie sehen. Die Dunkelheit hat weiterhin die Eigenschaft, dass [der Wirkende bis zu 5 Kreaturen wählen kann, die ebenso hindurchblicken können / der Wirkende die Dunkelheit beliebig verkleinern und vergrößern kann, solange er den Radius nicht übersteigt / der Wirkende die Dunkelheit für die Dauer des Zaubers beliebig erscheinen und verschwinden lassen kann].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle einen Punkt [an deiner Stelle / an dir und wird mit dir mitbewegt / innerhalb von 300 Fuß]. An dieser Stelle wird ein dichter Nebel geschaffen, der [5 Minuten / 3 Stunden / 12 Stunden] anhält und dann verschwindet. Die Nebelwolke ist natürlich und kann durch starken Wind vertrieben werden. Ansonsten bildet sie sich in einem Radius von [10 / 20 / 30] Fuß um den gewählten Punkt. Innerhalb des Nebels ist die Sicht auf höchstens 5 Fuß beschränkt. </t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Kreaturen in [Selbst / Berührung / Selbst und Berührung]. Für [10 Minuten / 3 Stunden / 1 Tag] nehmen diese Kreaturen eine andere äußere Gestalt an. Körperlich verändern sie sich nicht, doch ein in allen Formen lebensechtes Scheinbild übermalt ihr Äußeres. Das Erscheinungsbild ist beschränkt auf [ihre Spezies / Humanoide / ihre grobe Körperform und Masse].</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt in [30 Fuß / Sichtweite / Sichtweite]. An dieser Stelle wird ein Trugbild geschaffen, dass bis zu [1 Stunde / 1 Tag / 1 Woche] anhält und dann verschwindet. Es kann eine Größe von [10 / 30 / 100] Fuß in alle drei Dimensionen haben. Es kann [optisch und akustisch sein und sich natürlich bewegen / neben optischer und akustischer Wirkung auch Gerüche ausstrahlen und undurchdringlich sein bzw. mechanischen Widerstand leisten / optisch, akustisch, physisch und geruchssendend sein und sich so bewegen und verhalten, wie der Wirkende wünscht (Konzentration)].</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt in [Selbst / 30 Fuß / Sichtweite]. An dieser Stelle ertönt ein Geräusch, das nach Wunsch des Wirkenden [12 Sekunden / 1 Minute / 10 Minuten] lang ertönt. Das Geräusch kann sich ändern oder eine Summe an unterschiedlichen Geräuschen sein. Sie können so laut sein wie [ein Schrei / der Donner / ohrenbetäubend].</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt in [Selbst / 30 Fuß / Sichtweite]. An dieser Stelle ertönt eine Stimme, die nach Wunsch des Wirkenden [3 Sätze / 1 Minute lang / 10 Minuten lang] sprechen oder rufen kann. Die Stimme kann [nur die des Wirkenden / die Stimme einer dem Wirkenden bekannten Person / eine übersinnlich erscheinende Stimme] sein.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle einen Punkt in [30 Fuß / Sichtweite / Sichtweite]. An dieser Stelle wird ein optisches Trugbild geschaffen, dass bis zu [5 Minuten / 3 Stunden / 1 Tag] anhält und dann verschwindet. Das Bild erzeugt keine Gerüche, Geräusche oder sonstige Einflüsse auf die Umwelt. Es kann eine Größe von [3 / 9 / 15] Fuß in alle drei Dimensionen haben. Es kann [nur statisch sein / sich von selbst auf natürliche Weise bewegen / sich so bewegen und verhalten, wie der Wirkende wünscht (Konzentration)]. </t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in [Selbst / Berührung / Sichtweite]. Für [2 Minuten / 10 Minuten / 1 Stunde] nimmt diese Kreatur seine Umgebung vor dem geistigen Auge so wahr, wie sie in der Vergangenheit war. Hierfür muss der Wirkende einen Zeitraum oder Zeitpunkt definieren, etwa „vor 10 Tagen“ oder „vor 10 Jahren“. Der Zeitraum darf nicht länger zurückliegen als [1 Jahr / 10 Jahre / beliebig].</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in [Selbst / Berührung / Sichtweite]. Für [12 Sekunden / 30 Sekunden / 2 Minuten] hat diese Kreatur stark verschlechterte Bewegungswahrnehmung und Reaktionen. Das heißt sie nimmt die Welt in Zeitraffer wahr und hat weniger Zeit zu denken und zu reagieren. Das bedeutet sie hat Doppel-Nachteil auf alle Waffen-Tests und sonstige Tests, welche in irgendeiner Form Reaktionen und Bewegungspräzision erfordern. Der SL entscheidet im Detail.</t>
+  </si>
+  <si>
+    <t>Ein Erlebnis, dass der Wirkende bereits hatte, wird vor seinem geistigen Auge in allen Details abgespielt. Das Erlebnis darf nicht länger als [1 Jahr / 10 Jahre / beliebig] zurückliegen und nicht länger als [5 Minuten / 1 Stunde / 3 Tage] andauern.</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in [Selbst / Berührung / Sichtweite]. Für [12 Sekunden / 30 Sekunden / 2 Minuten] hat diese Kreatur stark verbesserte Bewegungswahrnehmung und Reaktionen. Das heißt sie nimmt die Welt in Zeitlupe wahr und hat mehr Zeit zu denken und zu reagieren. Das bedeutet sie hat Doppel-Vorteil auf alle Waffen-Tests und sonstige Tests, welche in irgendeiner Form Reaktionen und Bewegungspräzision erfordern. Der SL entscheidet im Detail.</t>
+  </si>
+  <si>
+    <t>Wähle einen Gegenstand, der von intelligenten Wesen geschaffen wurde in [Berührung / 30 Fuß / Sichtweite]. Du erfährst, wann der Gegenstand [entstanden ist / zuletzt verändert wurde / zuletzt verwendet wurde].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle einen Gegenstand von bis zu [1 / 10 / 100] Pfund Gewicht in [Berührung / 30 Fuß / Sichtweite]. [Nach 1 Tag / Nach 1 Stunde / Sofort] wird der Gegenstand in einen anderen Gegenstand verwandelt. Realwert und Gewicht des neuen Gegenstandes dürfen dabei im Vergleich zum alten maximal [verdoppelt / verdoppelt / verdreifacht] werden. </t>
+  </si>
+  <si>
+    <t>Wähle einen Gegenstand von bis zu [1 / 10 / 100] Pfund Gewicht in [Berührung / 30 Fuß / Sichtweite]. [Nach 1 Tag / Nach 1 Stunde / Sofort] wird eine identische Kopie des Gegenstands direkt neben diesem geschaffen. Die Kopie weist [bei genauerem Hinblick erkennbare / nur bei intensiver Prüfung feststellbare / keine] Unterschiede zum Original auf.</t>
+  </si>
+  <si>
+    <t>Wähle einen Gegenstand von bis zu [1 / 10 / 100] Pfund Gewicht in [Berührung / 30 Fuß / Sichtweite]. [Nach 1 Tag / Nach 1 Stunde / Sofort] wird der Gegenstand zersetzt, bis nichts mehr von ihm übrig bleibt. Es sind [keine verzauberten / keine verzauberten / verzauberte] Gegenstände wählbar.</t>
+  </si>
+  <si>
+    <t>Wähle Gegenstände von bis zu [1 / 10 / 100] Pfund Gewicht in [Berührung / 30 Fuß / Sichtweite]. Für [1 Minute / 1 Stunde / 6 Stunden] werden diese Gegenstände in ihrer Größe in alle drei Dimensionen gleichmäßig [auf bis zu 50% geschrumpft / auf bis zu 20% geschrumpft / auf bis zu 200% vergrößert]. Doppelte Größe bedeutet achtfaches Gewicht und umgekehrt.</t>
+  </si>
+  <si>
+    <t>Wähle einen Bruch oder Riss, der nicht größer ist als [5 Fingerbreit / 1 Fuß / 3 Fuß] in [Berührung / 30 Fuß / Sichtweite]. [Nach 1 Tag / Nach 1 Stunde / Sofort] wird der Bruch oder Riss geheilt. Es sind [nur homogene Oberflächen / auch komplexe Gegenstände / auch verzauberte Gegenstände] wählbar.</t>
+  </si>
+  <si>
+    <t>Wähle einen Gegenstand von höchstens [1 / 10 / 100] Pfund Gewicht in Berührung. [Nach 1 Tag / Nach 1 Stunde / Sofort] erfährt der Gegenstand eine Qualitätssteigerung um 1 Stufe (10.3 Handel und Dienstleistungen: Qualität).</t>
+  </si>
+  <si>
+    <t>Wähle einen Gegenstand von höchstens [1 / 10 / 100] Pfund Gewicht in [Berührung / 30 Fuß / Sichtweite]. Der Gegenstand wird nach Vorstellungen des Wirkenden verformt. Die Verformung kann auch Ausmaße annehmen, die unter normalen Kraftwirkungen unmöglich zu erzielen wären. Der Gegenstand verliert aber nicht seine physischen Eigenschaften und die Einflüsse der Umgebung. Die Verformung endet nach [1 Stunde / 1 Tag / Beliebig] und bildet den Gegenstand dann innerhalb von 5 Minuten zum unverzauberten Zustand zurück.</t>
+  </si>
+  <si>
+    <t>Wähle eine relativ homogene Materie (etwa Stein, Metall, Holz, Wasser, Luft, Lehmboden) von höchstens [1 / 10 / 100] Pfund Gewicht in [Berührung / 30 Fuß / Sichtweite]. Für [5 Minuten / 3 Stunden / 1 Tag] kann der Wirkende den Aggregatszustand der Materie nach Belieben ändern.</t>
+  </si>
+  <si>
+    <t>Wähle einen Gegenstand von höchstens [1 / 10 / 100] Pfund Gewicht in [Berührung / 30 Fuß / Sichtweite]. [Nach 1 Stunde / Nach 1 Minute / Sofort] wird dieser Gegenstand unmessbar hart und restlos immun gegen jede Belastung, Verformung oder Beschädigung, selbst Kratzer. Diese Wirkung hält [1 Stunde / 1 Tag / 1 Jahr] lang an.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Kreaturen in [Selbst / Berührung / Selbst und Berührung]. Für [1 Minute / 1 Stunde / 12 Stunden] haben diese Kreaturen [+3 / +4 / +5] auf alle Handwerk-Tests.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt in [30 Fuß / Sichtweite / Sichtweite]. Es erscheinen an diesem Ort [1 / 3 / 5] Lichtalbenhüter (bei Tag/Helligkeit) bzw. Schwarzalbenhüter (bei Nacht/Dunkelheit). Diese bleiben für [5 Minuten / 3 Stunden / 1 Tag] und sind währenddessen dem Wirkenden gegenüber „Loyal“ (4.5 Kontrolle). Der Zauber kann nur gelingen, wenn die Götter keinen Grund haben, dem Wirkenden feindlich zu sein.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt in [30 Fuß / Sichtweite / Sichtweite]. Es erscheinen an diesem Ort [2 / 3 / 4] Schrate. Die Art der Schrate wird durch die Umgebung bestimmt. Möglich sind: Erdgeist, Feuergeist, Luftgeist, Wassergeist, Waldgeist, Korngeist. Die Schrate bestehen für [5 Minuten / 3 Stunden / 1 Tag] und können währenddessen auf telepathische Weise vom Wirkenden Anweisungen erhalten (Konzentration während der Kommunikation erforderlich). Sie sind ungeschickt in allen Fähigkeiten (-5 auf Tests) und haben keine Handwerkseigenschaften. Sie können jedoch Schaden austeilen und verschwinden, wenn sie keine Gesundheitspunkte mehr haben.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt in [30 Fuß / Sichtweite / Sichtweite]. Es erscheint an diesem Ort ein [unsichtbarer / unverdächtig aussehender und menschlicher / je nach Belieben wechselnd unsichtbarer oder menschlicher] Diener. Der Diener hat keinen wirklichen Körper, sondern ist ein hauchdünner Zauberkörper, der nur durch Elementargeisterkraft Arbeit verrichtet und damit auch unverletzlich ist. Er besteht für [5 Minuten / 3 Stunden / 1 Tag] und kann währenddessen auf telepathische Weise vom Wirkenden Anweisungen erhalten (Konzentration während der Kommunikation erforderlich). Der Diener ist geschickt in allen Fähigkeiten (+5 auf Tests). Er kann jedoch keinen Schaden austeilen und kann maximal 40 Pfund an Gegenständen heben oder tragen. Der Diener [kann keine Zauberhandwerke und hat keine Handwerkseigenschaften / hat alle Handwerkseigenschaften / hat alle Handwerkseigenschaften und kann alle Zauberhandwerke].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] nicht intelligente Kreaturen in [Berührung / 30 Fuß / Sichtweite]. Für [5 Minuten / 3 Stunden / 12 Stunden] sind diese Kreatu-ren [nicht aggressiv gegen den Wirkenden / vertrauend gegenüber dem Wirkenden / loyal gegenüber dem Wirkenden]. Zu den Zuständen „Vertrauen“ und „Loyalität“ siehe 4.5 Kontrolle. Der Zauber endet, sobald eine der Zielkreaturen Schaden erhält oder anderweitig Gewalt oder Aggression erfährt.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 6] Gegenstände in [Berührung / 30 Fuß / Sichtweite]. Für [1 Minute / 1 Stunde / 12 Stunden] werden diese Gegenstände geisterhaft belebt und bewegen sich schwebend nach dem Willen des Wirkenden. Sie haben [Bewegung 20 / Bewegung 40 / Bewegung 60]. Alternativ kann eine Pflanze belebt werden und so zur Zauberpflanze (8.8 Kreaturen: Zauberwesen) werden. Diese kann sich nicht bewegen, es muss aber dennoch die Bonusstufe „Bewegung 60“ gewählt werden.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Selbst / Berührung / Selbst und Berührung]. Für [3 Stunden / 12 Stunden / 3 Tage] haben diese Kreaturen genaues Wissen vom Aufenthalt einer bestimmten Kreatur. Diese muss zumindest einmal gesehen worden sein bzw. in einer bestimmten Erinnerung abgespeichert worden sein. Das Wissen erstreckt sich über [die genaue Entfernung und die Himmelsrichtung / die genaue Entfernung und die Himmelsrichtung / den bestmöglichen Weg dorthin im Detail].</t>
+  </si>
+  <si>
+    <t>Wähle eine Kreatur in [Selbst / Berührung / Sichtweite]. Für [1 Minute / 1 Stunde / 12 Stunden] hat diese Kreatur bei [dem nächsten / den zwei nächsten / den drei nächsten] Treffern eine Chance von [50% / 70% / 90%] auf Verheerung. Diese Chance wird zusätzlich zu allen anderen Effekten ermittelt.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Selbst / Berührung / Selbst und Berührung]. Für [1 Minute / 1 Stunde / 12 Stunden] haben die Kreaturen die Fähigkeit, über große Entfernung Blut zu riechen. Dabei erkennen sie das Blut von allen Lebewesen, denen sie schon einmal unmittelbar gegenübergestanden haben. Sie können grobe Entfernung und Richtung der so erkannten Kreaturen abschätzen und verschiedene Kreaturen auseinanderhalten. Die Reichweite ist [1 Meile / 5 Meilen / 25 Meilen]. Natürlich sind nur Lebewesen, die Blut haben, riechbar.</t>
+  </si>
+  <si>
+    <t>Wähle einen Fährte in Berührung. Für [3 Stunden / 12 Stunden / 3 Tage] hast du im Kampf gegen [die Kreatur, welche die Spur hinterlassen hat / die Kreatur, welche die Spur hinterlassen hat / alle Kreaturen derselben Spezies der Kreatur, welche die Spur hinterlassen hat] [Vorteil auf alle Waffentests / +5 Waffenenergie / Vorteil auf alle Waffentests und +5 Waffenenergie].</t>
+  </si>
+  <si>
+    <t>Du erschaffst [1 / 5 / 25] zauberhafte Geschosse (Pfeile oder Bolzen) in [deiner Hand / einem Köcher in 30 Fuß / Sichtweite]. Die Geschosse lösen sich auf, sobald sie ein Ziel getroffen oder verfehlt haben, oder sobald [1 Minute / 1 Stunde / 1 Tag] vergangen ist. Wenn sie Schaden verursachen, so ist der Waffenschaden um [1 / 2 / 3] erhöht.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Selbst / Berührung / Selbst und Berührung]. Für [30 Sekunden / 5 Minuten / 1 Stunde] haben die Hände dieser Kreaturen die Fähigkeit, Gegenstände beliebiger Härte zu verformen, zu zerquetschen und zu brechen, ohne sich dadurch zu verletzen und ohne dass die Materie schwerer zu formen wäre als feuchter Ton. Andere Lebewesen sind von dieser Kraft allerdings nicht betroffen.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Kreaturen in [Berührung / 30 Fuß / Sichtweite]. Für [30 Sekunden / 5 Minuten / 1 Stunde] haben diese Kreaturen Furchtstufe 3 und können keine Furchtstufen verlieren. Es sind [nur Tiere / nur lebende Wesen / alle Wesen] betroffen.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Kreaturen in [Selbst / Berührung / Selbst und Berührung]. Für [1 Minute / 1 Stunde / 6 Stunden] verlieren die Kreaturen keinerlei Ausdauer, egal was sie tun. Wirkungen, die normalerweise zu Ausdauerverlust führen werden einfach ignoriert und nicht durch andere Nachteile ersetzt. Für die Dauer des Zaubers gelten die Kreaturen außerdem, als hätten sie volle Ausdauer, auch wenn sie in Wirklichkeit weniger haben.</t>
+  </si>
+  <si>
+    <t>Wähle einen Gegenstand in [Berührung / 15 Fuß / 300 Fuß]. [Nach 1 Minute / Nach 12 Sekunden / Sofort] zerbricht oder reißt der Gegenstand in [2 / 10 / 100] Teile. Es sind [unverzauberte, aber keine Metalle und Steine / unverzauberte / beliebige] Gegenstände wählbar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wähle [1 / 2 / 5] Kreaturen in [Selbst / Berührung / Sichtweite]. Für [12 Sekunden / 1 Minute / 1 Stunde] haben diese Kreaturen jedes Mal, wenn sie Wuchtschaden austeilen, [+4 / +6 / +8] auf die Trefferdifferenz. </t>
+  </si>
+  <si>
+    <t>Wähle 1 [Gegenstand / Kreatur / Beliebig] in [Selbst / Berührung / Sichtweite]. [Nach 1 Tag / Nach 1 Stunde / Sofort] wird das Ziel von [einem / einem / allen] Flüchen befreit.</t>
+  </si>
+  <si>
+    <t>Wähle [1 /2 / 5] versteinerte Kreaturen in [Berührung / 30 Fuß / Sichtweite]. [Nach 1 Minute / Nach 30 Sekunden / Sofort] wird die Versteinerung aufgehoben.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt [an deinem Standpunkt / in 30 Fuß / in Sichtweite]. In einem Radius von [5 / 10 / 50] Fuß um diesen Punkt können für [5 Minuten / 1 Stunde / 1 Tag] keine Unwahrheiten ausgesprochen werden.</t>
+  </si>
+  <si>
+    <t>Wähle 1 [Gegenstand / Gegenstand / Kreatur] in [Berührung / 30 Fuß / Sichtweite].  [Nach 1 Tag / Nach 1 Stunde / Sofort] verliert die das Ziel [1 / 3 / alle] Verzauberungen und Zauberwirkungen, die sie betreffen, auch dauerhafte. Der Wirkende muss zumindest erahnen, in welche grobe Richtung das Ziel verzaubert ist, um mit der Entzauberung erfolgreich sein zu können.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 5 / 25] Pfund an Nahrung in [Berührung / 30 Fuß / Sichtweite]. 1 Zielkreatur in Berührung. [Nach 1 Tag / Nach 1 Stunde / Sofort] ist diese Nahrung von allen Formen der Fäulnis, Krankheit, des Schimmels und von Giften befreit und erhält ihre ursprüngliche Haltbarkeit zurück, wird durch den Zauber also frisch.</t>
+  </si>
+  <si>
+    <t>Wähle 1 Zielkreatur in Berührung. [Nach 1 Tag / Nach 1 Stunde / Sofort] wird eine Verheerung mit [Heilungsbedarf / Heilungsbedarf / Amputationsbedarf] vollständig geheilt und wiederhergestellt. Die Verheerung darf zum Zeitpunkt des Wirkens nicht älter sein als [1 Stunde / 6 Stunden / 48 Stunden].</t>
+  </si>
+  <si>
+    <t>Wähle 1 Zielkreatur in Berührung. [Nach 1 Minute / Nach 30 Sekunden / Sofort] erhält die Kreatur [W8 / W10 / W12] verlorene Gesundheitspunkte zurück.</t>
+  </si>
+  <si>
+    <t>Wähle 1 Zielkreatur in Berührung. [Nach 1 Minute / Nach 30 Sekunden / Sofort] wird die Kreatur von der Giftwirkung [eines / zweier / aller Gifte] befreit. Die Giftstärke dieser Gifte darf maximal [5 / 8 / 10] betragen.</t>
+  </si>
+  <si>
+    <t>Wähle 1 Zielkreatur in Berührung. [Nach 1 Tag / Nach 1 Stunde / Sofort] verliert die Kreatur [30 / 50 / 70] Krankheitspunkte in allen Krankheiten, die sie betreffen.</t>
+  </si>
+  <si>
+    <t>Wähle 1 Zielkreatur in Berührung. [Nach 1 Minute / Nach 30 Sekunden / Sofort] wird eine [Leichte Blutung / Leichte Blutung / Schwere Blutung] dieser Kreatur gestoppt.</t>
+  </si>
+  <si>
+    <t>Stelle eine Frage. [Nach 1 Tag / Nach 1 Stunde / Sofort] erhältst du eine [uneindeutige / poetische oder metaphorische / klare] Antwort auf die Frage.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt an einem dir bekannten oder eindeutig beschreibbaren oder aus der Ferne erblickten Ort, der nicht weiter von dir entfernt ist, als [300 Fuß / 1 Meile / beliebig]. Für [5 Minuten / 30 Minuten / 3 Stunden] ist deine [visuelle / auditive / visuelle und auditive] Wahrnehmung von diesem gewählten Punkt ausgehend, wenn du dich darauf konzentrierst.</t>
+  </si>
+  <si>
+    <t>An deinem Standpunkt bildet sich ein unsichtbares Zauberauge. Deine Sicht erfolgt bis zum Ende des Zaubers durch dieses Auge, wenn du dich darauf konzentrierst. Es besteht für [30 Sekunden / 5 Minuten / 30 Minuten] und kann mit einer Bewegung von [20 / 40 / 60] Fuß pro Runde von dir gesteuert fortbewegt werden. Es kann sich maximal [30 Fuß / 300 Fuß / 1 Meile] von dir entfernen. Ist die Entfernung größer, endet der Zauber. Das Auge gewährt Rundumsicht in alle Richtungen. Es kann alle Materie mühelos durchdringen.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Zielkreaturen in [Selbst / Berührung / Selbst und Berührung]. Für [1 Minute / 1 Stunde / 12 Stunden] können die Kreaturen die Anwesenheit von Lebewesen spüren. Sie kennen deren Ort in Relation zu sich selbst. Sie erhalten keine Kenntnis über das Aussehen der Lebewesen, wohl aber über deren Gewicht. Winzige Lebewesen (bis 30 Pfund) bleiben unerkannt. Die Reichweite dieses Spürens ist [30 Fuß / 300 Fuß / 1 Meile].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Zielkreaturen in [Selbst / Berührung / Selbst und Berührung]. Für [1 Minute / 1 Stunde / 12 Stunden] haben die Kreaturen [+2 / +4 / +6] auf alle Sinne-Tests.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Selbst / Berührung / Selbst und Berührung]. Für [10 Minuten / 1 Stunde / 1 Tag] können die Kreaturen durch lichtundurchlässiges Material hindurch sehen. Dies funktioniert je nach Konzentration. Das heißt lichtundurchlässiges Material ist nicht dauerhaft unsichtbar, sondern nur dann, wenn der Wirkende dies wünscht. Die maximale Materialdichte, durch die geblickt werden kann ist [Stoffgewebe / Holz / beliebig].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Zielkreaturen in [Selbst / Berührung / Sichtweite]. Für [10 Minuten / 1 Stunde / 1 Tag] können die Kreaturen Dinge sehen, die normalerweise durch Zauber unsichtbar sind oder durch zauberhafte Illusionen verhüllt sind. Das schließt Tarnkappen ein, sowie die Stimme von Alben, die bei Vogelverwandlung in Vogelgezwitscher verwandelt ist. Die Sprache von unverzauberten Tieren kann dadurch aber nicht verstanden werden. Die Reichweite dieser Sicht ist [30 Fuß / 300 Fuß / Sichtweite].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Zielkreaturen in [Selbst / Berührung / Sichtweite]. Für [10 Minuten / 1 Stunde / 1 Tag] können die Kreaturen bei jeder Helligkeit sehen, als wie am lichten Tag. Selbst in völliger Dunkelheit. Die Reichweite dieser Sicht ist [30 Fuß / 300 Fuß / Sichtweite].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Zielkreaturen in [Selbst / Berührung / Sichtweite]. Für [10 Minuten / 1 Stunde / 1 Tag] können die Kreaturen bei Nacht sehen, als wie am helllichten Tag. In völliger Dunkelheit sehen sie dennoch nichts. Die Reichweite dieser Sicht ist [30 Fuß / 300 Fuß / Sichtweite].</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt in [Berührung / 30 Fuß / Sichtweite]. Für [1 Minute / 1 Stunde / 1 Tag] entstehen an diesem Ort [1 / 3 / 10] Lichtquellen. Die einzelnen Lichtquellen dürfen insgesamt nicht weiter voneinander entfernt sein als 10 Fuß. Die Lichtquellen [sind örtlich fixiert / bewegen sich genau so, wie sich der Wirkende bewegt / bewegen sich auf geistigen Befehl des Wirkenden (Konzentration erforderlich)]. Die Stärke und Farbe des Lichtes kann der Wirkende bestimmen, es kann jedoch nicht heller sein, als Feuer.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Zielkreaturen in [Berührung / 30 Fuß / Sichtweite]. Für [1 Minute / 1 Stunde / 12 Stunden] haben die Kreaturen [keine auditive Sinneswahrnehmung / keine visuelle Sinneswahrnehmung / keine visuelle und auditive Sinneswahrnehmung]. Jedes Mal, wenn die Kreatur Schaden erleidet, darf sie ihren Manipulationsresistenztest gegen diesen Zauber wiederholen.</t>
+  </si>
+  <si>
+    <t>An deinem Standpunkt wird ein Bereich von [30 Fuß / 300 Fuß / 900 Fuß] Radius verzaubert. Für [1 Stunde / 1 Tag / 1 Monat] meiden [Kreaturen eines bestimmten Typs / Humanoide / alle Kreaturen] diesen Bereich. Das heißt sie vermeiden es, ihn zu betreten und verspüren den starken Drang, ihn zu verlassen, falls sie sich darin befinden. Das Umgehen der Wirkung ist [dennoch möglich, wenn die Kreatur einen Manipulationsresistenztest schafft / dennoch möglich, wenn die Kreatur von dem Zauber weiß / unmöglich].</t>
+  </si>
+  <si>
+    <t>Wähle eine Zielkreatur in [Berührung / 30 Fuß / Sichtweite]. Für [1 Stunde / 1 Tag / Beliebig] wird die Kreatur in einen tiefen Zauberschlaf versetzt. Während des Schlafes altert sie nicht. Es sind [nur Tiere / nur Humanoide / beliebige Kreaturen] wählbar. Die Kreatur ist [leicht innerhalb von 3 Sekunden aufweckbar / leicht innerhalb von 6 Sekunden aufweckbar / nicht aufweckbar, es sei denn, es wird der Zauber „Entzauberung“ verwendet oder die Kreatur von einer anderen Kreatur selber Spezies und gegenteiligen Geschlechts auf den Mund geküsst]. Erleidet die Kreatur Schaden, so endet der Zauber sofort und die Kreatur wacht auf.</t>
+  </si>
+  <si>
+    <t>An deinem Standpunkt wird ein unsichtbarer Zaubersensor angebracht. Für die Dauer von [1 Stunde / 7 Tage / Beliebig] wird in einem Radius von [5 Fuß / 15 Fuß / 90 Fuß] um diesen Sensor jedes Mal ein Signal an das Bewusstsein des Wirkenden gesendet, wenn ein bestimmter Auslöser eintritt. Der Auslöser kann sein: Die Anwesenheit einer bestimmten Kreatur, die Anwesenheit einer unbestimmten Kreatur, das Sprechen eines bestimmten Wortes/Satzes, die Durchführung einer bestimmten Handlung, die Durchführung einer grob eingegrenzten Handlung. Der SL entscheidet letztendlich, welche Formen der Auslöser er zulässt. Die Definition des Alarmauslösers muss beim Wirken durch den Wirkenden erfolgen. Der Alarm kann [1 / 10 / 50] mal ausgelöst werden, bevor der Zauber von selbst endet.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt in [Standpunkt / 30 Fuß / Sichtweite]. Für [1 Minute / 1 Stunde / 1 Tag] wird der Bereich im Radius von [5 Fuß / 15 Fuß / 90 Fuß] um diesen Punkt vollkommen frei von Schall. Damit ist es dort auch unmöglich, die Aktionen „Zauber wirken“, „Beten“, „Opfern“, „Anrufen“, „Binden“, „Rufen“ und „Wirken“ durchzuführen, sowie Zauberrollen zu nutzen.</t>
+  </si>
+  <si>
+    <t>Wähle eine Zielkreatur in [Berührung / 30 Fuß / Sichtweite]. Für [30 Sekunden / 2 Minuten / 10 Minuten] dringt der Wirkende in den Geist der Kreatur ein und [steuert seine gesprochenen Worte und Mimik / seine Handlungen / seine gesprochenen Worte, Mimik und Handlungen]. Nach Ende des Zaubers ist es sehr wahrscheinlich, dass die Kreaturen realisieren, dass sie beeinflusst wurden, wenn es sich um intelligente Wesen handelt. Handelt es sich um Tiere oder tierartige Kreaturen ist dies sehr unwahrscheinlich.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Berührung / 30 Fuß / Sichtweite]. Für [30 Sekunden / 2 Minuten / 10 Minuten] hegen die Kreaturen Aggressionen gegen andere, sie umgebende Kreaturen. Sie [attackieren sie verbal bis zu Beschimpfung und Streit / attackieren Kreaturen mit Gewalt, die ihnen zuvor egal oder neutral waren / attackieren sogar ehemalige Freunde und Verbündete]. Nach Ende des Zaubers ist es sehr wahrscheinlich, dass die Kreaturen realisieren, dass sie beeinflusst wurden, wenn es sich um intelligente Wesen handelt. Handelt es sich um Tiere oder tierartige Kreaturen ist dies sehr unwahrscheinlich.</t>
+  </si>
+  <si>
+    <t>Wähle eine Zielkreatur in [Berührung / 30 Fuß / Sichtweite]. Für [3 Sätze / 1 Minute / 15 Minuten] dringt der Wirkende in den Geist der Kreatur ein und erkennt [die oberflächlichen Gedanken (innerer Monolog) / die derzeit wirkenden Emotionen, Triebe und Hintergedanken / das Unterbewusstsein und die Motivationen] der Kreatur. Je länger der Zauber anhält, desto mehr Informationen werden gewonnen.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Berührung / 30 Fuß / Sichtweite]. Für [1 Minute / 1 Stunde / 1 Tag] wird der Geist der Kreaturen so sehr verrührt, dass sie [die aktuelle Situation missverstehen und sich über die Geschehnisse nicht mehr auskennen / anwesende Individuen missverstehen und sich nicht mehr über personelle Beziehungen auskennen / einen Erinnerungs- und Identitätsverlust erleiden]. In diesem Zustand wird die Kreatur weitestgehend von feindseligen Handlungen absehen und sich vorsichtig und defensiv verhalten.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Berührung / 30 Fuß / Sichtweite]. Für [1 Minute / 1 Stunde / 1 Tag] wird die Freund-Feind-Einstellung der Kreaturen auf [passiv und nicht aggressiv / freundlich und entgegenkommend / gut vertrauend oder verliebt] verändert. Nach Ende des Zaubers ist es sehr wahrscheinlich, dass die Kreaturen realisieren, dass sie beeinflusst wurden, wenn es sich um intelligente Wesen handelt. Handelt es sich um Tiere oder tierartige Kreaturen ist dies sehr unwahrscheinlich.</t>
+  </si>
+  <si>
+    <t>Du erschaffst innerhalb deiner Sichtweite einen Wall aus dichten Dornen von 5 Fuß Breite, [3 Fuß / 10 Fuß / 20 Fuß] Höhe und [60 Fuß / 300 Fuß / 900 Fuß] Länge. Der Wall bleibt [1 Stunde / 1 Tag / 1 Jahr] lang bestehen. Kreaturen, die hindurch klettern wollen, müssen dazu einen Geschick-Test gegen ZW 17 bestehen. Bei Fehlschlag erleiden sie W4 + 1 Schaden und haben ihn nicht durchdrungen. Er hat die Besonderheit, dass [ein Fehlschlag beim Durchdringen dem Versuchenden mit einer 20%igen Chance vergiftet (3 Dosen Dornengift) / der Zielwert für das Durchdringen um 3 und der Schaden um 2W4 erhöht ist / die Dauer um das 100-fache erhöht ist].</t>
+  </si>
+  <si>
+    <t>Berühre einen lebenden Baum. Für [3 Sätze / 1 Minute / 10 Minuten] darfst du mit [diesem Baum / allen Bäumen innerhalb von 300 Fuß von diesem / allen Bäumen innerhalb von 3 Meilen von diesem] telepathisch kommunizieren. Die Bäume antworten mit [Ja oder Nein / kurzen primitiven Antworten / Berichten]. Ein Baum nimmt unterschwellig alles wahr, was sich über seinen Wurzeln oder unter seinen Ästen abspielt.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Berührung / 30 Fuß / Sichtweite]. Die Kreaturen sind für [12 Sekunden / 1 Minute / 2 Stunden] von unsichtbaren Fesseln gehalten, was sie bewegungsunfähig macht. Jede [Runde / zweite Runde / dritte Runde] müssen die Kreaturen einen Stärke-Test gegen ZW 16 machen. Bei Erfolg endet der Zauber für sie selbst. Bei Fehlschlag erleiden sie 1 Schaden.</t>
+  </si>
+  <si>
+    <t>Wähle [eine Pflanze / Pflanzen in einem 5 Fuß Radius / Pflanzen in einem 15 Fuß Radius] in [Berührung / 30 Fuß / Sichtweite]. Innerhalb von [1 Stunde / 1 Minute / 6 Sekunden] wächst bzw. altert die Pflanze um [3 Monate / 2 Jahre / 5 Jahre].</t>
+  </si>
+  <si>
+    <t>Wähle [10 Pfund an Zielobjekten / 100 Pfund an Zielobjekten / 15 Fuß Radius an Zieloberfläche] in [Berührung / Selbst / 300 Fuß]. Die Ziele werden für [1 Stunde / 12 Stunden / 3 Tage] von einer [1 Fingerbreit / 3 Fingerbreit / 10 Fingerbreit] dicken Moosschicht überzogen.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Zielkreaturen in [Selbst / Berührung / Selbst und Berührung]. Die Kreaturen sind für [12 Sekunden / 1 Minute / 15 Minuten] von einer steinharten Oberfläche überzogen und sind damit [immun gegen jeden Schaden durch Waffen / immun gegen jeden Schaden / immun gegen jeden Schaden und haben bei unbewaffneten Angriffen +3 auf Wuchtangriffe und +3 Schaden].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Zielkreaturen in [Berührung / Berührung / 30 Fuß]. Die Kreaturen sind für [1 Stunde / 7 Tage / Beliebig] in Stein verwandelt. So verwandelte Kreaturen erfahren während ihres Zustandes keinerlei physische Veränderung. Der Zauber „Entsteinerung“ (Komplex „Reinigung“) hebt diesen Zauber auf.</t>
+  </si>
+  <si>
+    <t>Wähle [10 / 100 / 1000] Pfund an Zielobjekten in [Selbst / Berührung / Sichtweite]. Die Objekte erfahren für [6 Sekunden / 1 Minute / 5 Minuten] eine verstärkte Gravitationskraft, die sie [zum Landen aus der Luft zwingt / zu Boden drückt, was ihnen Nachteil auf alle belastbaren Fähigkeiten und Waffentests gibt und ihre Bewegung halbiert / heftig zu Boden drückt, was ihnen Doppel-Nachteil auf alle belastbaren Fähigkeiten und Waffentests gibt und ihre Bewegung auf 5 reduziert].</t>
+  </si>
+  <si>
+    <t>Wähle [an deinem Standpunkt / in 15 Fuß / in 90 Fuß] eine Linie von [5 Fuß / 20 Fuß / 50 Fuß] Länge am Boden. Sofort entsteht dort ein Erdspalt von [5 Fuß / 15 Fuß / 30 Fuß] Tiefe und 5 Fuß Breite. Der Riss besteht für [5 Minuten / 1 Stunde / 12 Stunden] und schließt sich dann sehr langsam.</t>
+  </si>
+  <si>
+    <t>Wähle [1 Quadratfuß / 1 Acker / 1 Morgen] an zusammenhängendem Boden in Berührung. Für [1 Jahr / 2 Jahre / 3 Jahre] ist [das Pflanzenwachstum und damit auch der landwirtschaftliche Ertrag des Bodens um 50% gesteigert / das Pflanzenwachstum und damit auch der landwirtschaftliche Ertrag des Bodens um 100% gesteigert / der Boden für Pflanzenwachstum und Landwirtschaft geeignet, auch wenn es davor karges, steiniges, vergiftetes oder unwirtliches Land war].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Zielkreaturen in [Berührung / 30 Fuß / Sichtweite]. Die Kreaturen sind für [1 Minute / 1 Stunde / 24 Stunden] von einer dicken Eisschicht umgeben und handlungsunfähig. Werden sie in diesem Zustand angegriffen, erleiden sie einmalig den doppelten Schaden des Angriffs und eine leichte Blutung. Dabei endet jedoch der Zauber. Ist eine Kreatur länger als 6 Stunden eingefroren, erhält sie die Krankheit Grippe mit W4 Krankheitspunkten pro Stunde im eingefrorenen Zustand.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Gegenstände in [Berührung / 30 Fuß / Sichtweite]. Jedes Mal, wenn diese Gegenstände Schnittschaden austeilen, ist die Trefferdifferenz um [4 / 6 / 8] erhöht. Der Zauber endet nach [30 Sekunden / 1 Minute / 1 Stunde].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 1 / 2] Zielkreaturen in [30 Fuß / 150 Fuß / Sichtweite]. Ein schneller eisiger Pfeil bahnt sich geradlinig auf das Ziel zu, trifft es innerhalb von 6 Sekunden und [verursacht W6 Kälteschaden / verursacht 2W6 Kälteschaden / verursacht 2W6 Kälteschaden und eine leichte Blutung].</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt [an deinem Standpunkt / in 30 Fuß / in Sichtweite]. In einem Radius von [5 Fuß / 15 Fuß / 40 Fuß] um diesen Punkt wird für [30 Sekunden / 30 Minuten / 6 Stunden] der Boden eisglatt, sodass alle darauf befindlichen Kreaturen [10 Bewegung haben / 5 Bewegung haben / 5 Bewegung haben und vor jeder Bewegungsaktion einen Geschick-Test gegen einen ZW von 14 schaffen müssen um nicht auszu-rutschen und W4 Schaden zu nehmen.]</t>
+  </si>
+  <si>
+    <t>Wähle [5 / 50 / 500] Pfund an Zielobjekten in [Berührung / 30 Fuß / Sichtweite]. Die Objekte werden für [1 Minute / 1 Stunde / 12 Stunden] [auf 0° Celsius abgekühlt / auf -50° Celsius abgekühlt / auf – 150° Celsius abgekühlt].</t>
+  </si>
+  <si>
+    <t>Wähle eine Zielkreatur in [Berührung / 30 Fuß / Sichtweite]. [Nach 30 Sekunden / Nach 6 Sekunden / Sofort] erhält das Ziel [1 / 2 / 3] innere [leichte / leichte / schwere] Blutungen. Da sie innerlich sind, hat jeder Versuch, die Blutungen zu behandeln Doppel-Nachteil.</t>
+  </si>
+  <si>
+    <t>Wähle [2 / 20 / 200] Liter Wasser (außerhalb von lebenden Organismen) in [Berührung / 30 Fuß / Sichtweite]. Für [6 Sekunden / 1 Minute / 15 Minuten] kannst du diese Wassermenge nach Belieben [mit bis zu 300 Fuß pro Runde (etwa 60 km/h) bewegen / auf bis zu -100° C abkühlen / auf bis zu -150° C erhitzen]. Die Konzentration ist für die Bewegung erforderlich, nicht für das Aufrechterhalten der Temperatur.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Selbst / Berührung / Selbst und Berührung]. Für [1 Stunde/ 6 Stunden / 48 Stunden] können die Kreaturen [durch alle Flüssigkeiten hindurch Sauerstoff atmen / durch alle Flüssigkeiten hindurch Sauerstoff atmen und haben beim Schwimmen durch Flüssigkeiten +20 auf ihre Bewegung / durch alle Flüssigkeiten hindurch Sauerstoff atmen und haben beim Schwimmen durch Flüssigkeiten +20 auf ihre Bewegung und perfekte klare Sicht durch alle Flüssigkeiten hindurch].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Selbst / Berührung / Selbst und Berührung]. Die Kreaturen schweben für [1 Minute / 1 Stunde / 12 Stunden] über Flüssigkeitsoberflächen, wenn sie sich auf solche bewegen. Sie können willentlich in die Flüssigkeit hineinsteigen und wieder heraussteigen, ohne dass der Zauber endet.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 5 / 100] Liter Wasser in [Berührung / 30 Fuß / Sichtweite]. [Sämtliche Gifte werden aus dem Wasser entfernt und es wird rein und trinkbar / Du erkennst, ob sich Gift in dem Wasser befindet und kannst es durch den Zauber sichtbar machen / Du erkennst, welches Gift sich in dem Wasser befindet und kannst es durch den Zauber extrahieren].</t>
+  </si>
+  <si>
+    <t>Wähle [10 Pfund / 100 Pfund / 1000 Pfund] an zusammenhängendem [Metall / Metall / Stein] in [Berührung / 30 Fuß / Sichtweite]. Diese schmelzen zu einer dickflüssigen Flüssigkeit und erstarren nach 1 Minute wieder. Währenddessen sind sie so heiß, dass alles, was sie berührt, 3W6 Hitzeschaden erhält und dann entzündet wird.</t>
+  </si>
+  <si>
+    <t>In einem Radius von [5 Fuß / 15 Fuß / 25 Fuß] um dich herum entsteht für [30 Sekunden / 5 Minuten / 12 Stunden] ein Flammenring, der sich ringsum vom Boden bis in [3 Fuß / 10 Fuß / 30 Fuß] Höhe erstreckt. Der Ring [bleibt an dem Ort, wo er geschaffen wurde / bewegt sich mit dir mit / breitet sich für 3 Runden mit 5 Fuß pro Runde aus]. Die Flammen verursachen bei einem Durchquerungsversuch 2W6 Hitzeschaden und können Objekte wie Kreaturen entzünden.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt in [15 Fuß / 90 Fuß / Sichtweite]. [Nach 1 Minute / Nach 12 Sekunden / Sofort] wird an diesem Punkt eine Flammen-explosion ausgelöst, die allen Kreaturen in einem Radius von [5 Fuß / 10 Fuß / 15 Fuß] [W10 Hitzeschaden / 2W8 Hitzeschaden / W6 Schaden und 2W6 Hitzeschaden] zufügt.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 1 / 2] Zielkreaturen in [30 Fuß / 150 Fuß / Sichtweite]. Ein schneller feuriger Pfeil bahnt sich geradlinig auf das Ziel zu, trifft es innerhalb von 6 Sekunden und [verursacht W6 Hitzeschaden / verursacht 2W6 Hitzeschaden / entzündet es]. Entzündete Kreaturen erleiden jede Runde W4 Feuerschaden, solange sie brennen. Das Brennen kann etwa durch Wälzen am Boden aufgehoben werden.</t>
+  </si>
+  <si>
+    <t>Wähle [5 / 50 / 500] Pfund an Zielobjekten in [Berührung / 30 Fuß / Sichtweite]. Die Objekte werden für [1 Minute / 1 Stunde / 12 Stunden] [auf 50° Celsius erhitzt / auf 150° Celsius erhitzt / entzündet soweit brennbar].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Zielkreaturen in [Berührung / 90 Fuß / Sichtweite]. Für [18 Sekunden / 24 Sekunden / 30 Sekunden] erfahren die Ziele einen Strahl, der jede Runde [2W6 / 2W8 / 2W10] Hitzeschaden verursacht.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Wiedergänger in [Berührung / 30 Fuß / Sichtweite]. [Nach 60 Sekunden / Nach 12 Sekunden / Sofort] sind die Wiedergänger gebannt und kehren [nach dem nächsten Neumond / nach 10 Jahren / nach 100 Jahren] wieder. Körperliche Wiedergänger werden durch den Zauber mehrfach übertötet, was den Körper für Inkarnation unbrauchbar macht. Körperlose Wiedergänger und die Seelen der körperlichen Wiedergänger sind für die Dauer des Zaubers an Ort und Stelle zu völliger Regungslosigkeit und Stille gezwungen. Ausnahmen sind Schatten, Ertrunkene und Erwählte. Diese kehren jeweils in ihre Heimatsphäre zurück.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Berührung / 90 Fuß / Sichtweite]. Für [6 Sekunden / 24 Sekunden / 60 Sekunden] sind die Kreaturen [geblendet und erleiden einmalig W6 Hitzeschaden / geblendet und erleiden einmalig 2W6 Hitzeschaden / geblendet und erleiden einmalig 3W6 Hitzeschaden] und haben -4 auf alle Waffentests und Tests die Sicht erfordern.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt in [Berührung / 30 Fuß / Sichtweite ]. In einem [3 Fuß / 6 Fuß / 15 Fuß] Radius um diesen Punkt werden nach [24 Stunden / 1 Stunde / 1 Minute] alle [Flüssigkeiten / organischen Substanzen / Objekte und Oberflächen abgesehen von Kreaturen] von sämtlichen Giften, Krankheiten und Fäulniserscheinungen befreit.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt [innerhalb von 30 Fuß / innerhalb deiner Sichtweite / an dir selbst, der dir folgt]. Von diesem Punkt wird die nächsten [60 Sekunden / 60 Minuten / 24 Stunden] echtes Sonnenlicht in einem Radius von [5 Fuß / 15 Fuß / 40 Fuß] ausgestrahlt. Das Licht [blendet leicht / blendet stark / erzeugt ein über bis zu 30 Meilen sichtbares Leuchtsignal].</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt innerhalb von [30 Fuß / 300 Fuß / Sichtweite]. Für [1 Minute / 15 Minuten / 1 Stunde] entsteht dort ein Wirbelsturm von [3 Fuß Radius / 10 Fuß Radius / 30 Fuß Radius], der stark genug ist, um Objekte von bis zu [5 Pfund / 50 Pfund / 300 Pfund] mitzureißen und sich mit  5 Bewegung nach Kontrolle des Wirkenden bewegt. Die Konzentration ist für die Bewegung erforderlich, nicht für das Aufrechterhalten des Sturmes.</t>
+  </si>
+  <si>
+    <t>Wähle [90 Fuß Radius an Erdoberfläche / 300 Fuß Radius an Erdoberfläche / 1 Meile Radius an Erdoberfläche] eines dir bekannten Ortes innerhalb von 50 Meilen. Für [6 Stunden / 12 Stunden / 24 Stunden] wird das Wetter an diesem Ort verändert. Die Veränderung betrifft [Windstärke und Wolkendichte / Niederschlag / Sämtliche mögliche Wetterfaktoren einschließlich Temperatur]. Falls Windstärke betroffen ist, sind alle segelnden Schiffe davon betroffen.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [30 Fuß / 300 Fuß / Sichtweite]. Jede wird um bis zu [20 Fuß / 40 Fuß / 60 Fuß] von dir beliebig bewegt und erleidet [W4 / W8 / W12] Schaden. Die Wirkung des Zaubers wiederholt sich nach 6 Sekunden. Beim zweiten Mal ist der Schaden jedoch halbiert.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Selbst / Berührung / Sichtweite]. Für [1 Minute / 1 Stunde / 1 Tag] haben die Kreaturen [+15 / + 30 / +45] auf ihre Bewegung. Für Reise über weite Strecken entspricht dies +30% bzw. +60% bzw. +100% Reisefortschritt. Alternativ kannst du als Ziel ein Wasserfahrzeug wählen. Die Segelschwierigkeit für dieses wird für die Dauer des Zaubers auf [16 / 14 / 12] gesetzt.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [15 Fuß / 90 Fuß / Sichtweite]. Die Kreaturen [stürzen zu Boden / stürzen und erleiden W6 Schaden / stürzen und erleiden W10 Schaden].</t>
+  </si>
+  <si>
+    <t>Wähle [3 / 6 / 9] Blitze. [Nach 12 Sekunden / Nach 6 Sekunden / Sofort] wirfst du diese aus deiner nackten Hand. Wähle für jeden Blitz ein Ziel innerhalb von [90 Fuß / 300 Fuß / Sichtweite]. Jeder Blitz fügt dem Ziel [2W6 / 3W6 / 4W6] Hitzeschaden zu. Hast du einen Hammer oder ein Beil in der Hand, werden W8 statt W6 verwendet.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Zielkreaturen in [Berührung / 30 Fuß / Sichtweite]. Für [6 Sekunden / 12 Sekunden / 24 Sekunden] erstarren alle Muskeln der Kreatur und sie ist handlungsunfähig.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Zielkreaturen in [15 Fuß / 90 Fuß / Sichtweite], die sich unter freiem Himmel befinden. [Nach 12 Sekunden / Nach 6 Sekunden / Sofort] rast für jede gewählte Kreatur ein Blitz vom Himmel, der ihnen [2W8 / 3W8 / 4W8] Hitzeschaden zufügt.</t>
+  </si>
+  <si>
+    <t>Wähle [eine zusammenhängende Wassermasse von maximal 100.000 Litern (125 m³) / ein Objekt aus leitendem Metall / bis zu 5 Objekte aus leitendem Metall] die/das du berührst. Die Ziele verleihen jeder Kreatur, die deren Metall oder Wasseroberfläche berührt, sofort [W6 / 2W6 / 3W6] Hitzeschaden. Der Zauber endet nach [30 Sekunden / 2 Minuten / 10 Minuten]. Waffen, die als Ziel gewählt werden, teilen den Schaden gegen alle getroffenen Ziele aus. Wird ein am Körper getragenes Objekt als Ziel gewählt, so teilt es den Schaden alle 6 Sekunden gegen den Träger aus.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Zielkreaturen in Berührung. Die Kreaturen erhalten sofort [W6 / 2W6 / 3W6] Hitzeschaden.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Selbst / Berührung / Sichtweite]. Für [30 Sekunden / 5 Minuten / 2 Stunden] ist aller Schaden, den die Kreaturen erhalten um [20% / 40% / 60%] reduziert.</t>
+  </si>
+  <si>
+    <t>Wähle einen Punkt [an eigener Stelle / innerhalb von 15 Fuß / in Sichtweite]. In einem kugelförmigen Raum innerhalb eines Radius von [5 Fuß / 15 Fuß / 40 Fuß] von diesem Punkt ist es Kreaturen für [10 Minuten / 1 Stunde / 1 Tag] erschwert, eine Handlung zu vollziehen, die dazu gedacht ist eine andere Kreatur zu schädigen. Jede solche Handlung [kostet 3 Willenskraft / kostet 6 Willenskraft / ist unmöglich].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Selbst / Berührung / Sichtweite]. Die Kreaturen haben für [10 Minuten / 1 Stunde / 1 Tag] einen Bonus von [+1 / +2 / +3] auf Schnitt-, Stich- und Wuchtresistenz (alle Trefferzonen).</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Selbst / Berührung / Sichtweite]. Die Kreaturen haben für [1 Stunde / 1 Tag / 7 Tage] einen Bonus von [+1 / +2 / +3] auf Ausweichen, Blocken und Parieren.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Selbst / Berührung / Sichtweite]. Die Kreaturen haben für [10 Minuten / 1 Stunde / 1 Tag] einen [Bonus von +5 auf Orientierung / spürbaren Geist, der den Weg zum verfolgten Zielort weist / spürbaren Geist, der den Weg zum verfolgten Zielort weist und vor Gefahren warnt].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Selbst / Berührung / Sichtweite]. Die Kreaturen sind für [1 Stunde / 6 Stunden / 24 Stunden] gegen [ein Element immun / alle Elemente immun / alle Elemente immun und erhaltener Schaden wird auf die Ursache reflektiert]. Immunität gegen das Element Luft bedeutet, dass der Immune alle Luftzauber, die ihn beeinflussen wirkungslos machen kann und +2 Schirmwert hat. Immunität gegen das Element Feuer bedeutet, dass der Immune alle Feuerzauber, die ihn beeinflussen wirkungslos machen kann und +8 auf Hitzeresistenz hat. Immunität gegen das Element Wasser bedeutet, dass der Immune alle Wasserzauber, die ihn beeinflussen wirkungslos machen kann und +8 auf Kälteresistenz hat. Immunität gegen das Element Erde bedeutet, dass der Immune alle Erdzauber, die ihn beeinflussen wirkungslos machen kann und +2 auf Schnitt-, Stich- und Wuchtresistenz (alle Trefferzonen) hat.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Selbst / Berührung / Sichtweite]. Die Kreaturen haben für [1 Stunde / 6 Stunden / 24 Stunden] einen Bonus von [+4 / +8 / +12] auf ihre Manipulationsresistenz.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Selbst / Berührung / Sichtweite]. Die Kreaturen sind für [1 Stunde / 12 Stunden / 48 Stunden] gegen alle Formen von Schaden oder schädlicher psychischer Beeinflussung von [körperlichen / körperlosen / allen] Wiedergängern immun.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Selbst / Berührung / Sichtweite]. Die Kreaturen haben für [1 Stunde / 6 Stunden / 24 Stunden] einen Bonus von [+4 / +8 / +12] auf ihre Giftresistenz.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Selbst / Berührung / Sichtweite]. Die Kreaturen haben für [1 Stunde / 6 Stunden / 24 Stunden] einen Bonus von [+4 / +8 / +12] auf ihre Krankheitsresistenz.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] willige Zielkreaturen in [Selbst / Selbst und Berührung / 60 Fuß]. Die Kreaturen werden nach 12 Sekunden für [1 Stunde / 1 Woche / einen beliebigen Zeitraum] nach [Lichtalbheim oder Schwarzalbheim / Helheim / Götterheim] teleportiert. Wenn der Zauber endet und sie sich immer noch in der entsprechenden Sphäre befinden, werden sie sofort an ihren vorherigen Standpunkt zurückteleportiert. Bei jeder Zielkreatur werden beim Wirken des Zaubers 10 Willenskraft verbraucht. Hat eine Kreatur dafür zu wenig, so schafft es ihre Seele nicht im Körper zu bleiben und wird von diesem getrennt. Der Körper kommt damit leblos am Ziel an und die Seele irrt am Ausgangspunkt der Reise herum. Sie wird ein rastloses Gespenst, das versucht in seinen Körper zurückzufinden. Gelingt dies nicht innerhalb von wenigen Minuten, so erleidet der Körper einen irreversiblen Gehirntod und kann nicht mehr betreten werden. Das Gespensterdasein bleibt aber solange, bis der Geist erfährt, dass er tot ist.</t>
+  </si>
+  <si>
+    <t>An deinem Standpunkt wird ein unsichtbares kugelförmiges Portal von [5 Fuß / 15 Fuß / 40 Fuß] Durchmesser geschaffen. Es bleibt für [1 Stunde / 1 Woche / beliebige Zeit] bestehen. Solange es besteht, können Kreaturen, die von dem Portal und von seinem Ziel wissen, sich per Willensentschluss von dort aus an [einen in 10 Meilen / einen beliebigen / bis zu 3 verschiedene] vom Wirkenden zuvor festgelegte(n) Zielort(e) teleportieren. Das Portal kann [5 / 50 / 500] Mal benutzt werden, bevor es verschwindet. Für je 100 Meilen zurückgelegter Strecke wird bei jeder Kreatur 1 Willenskraft verbraucht. Hat eine Kreatur dafür zu wenig, so schafft es ihre Seele nicht im Körper zu bleiben und wird von diesem getrennt. Der Körper kommt damit leblos am Ziel an und die Seele irrt dort herum, wo sie zuletzt genug Willenskraft für die Reise hatte. Sie wird ein rastloses Gespenst, das versucht in seinen Körper zurückzufinden. Gelingt dies nicht innerhalb von wenigen Minuten, so erleidet der Körper einen irreversiblen Gehirntod und kann nicht mehr betreten werden. Das Gespensterdasein bleibt aber solange, bis der Geist erfährt, dass er tot ist.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Zielkreaturen in [Selbst / Selbst und Berührung / 60 Fuß]. Die Kreaturen lösen sich auf und erscheinen [nach 30 Minuten / nach 1 Minute / nach 12 Sekunden] an einem bekannten Zielpunkt innerhalb von [1 Meile / 100 Meilen / 1000 Meilen]. Am Zielpunkt muss Platz für die Kreaturen sein, ansonsten erscheinen die Kreaturen in nächster Nähe. Für je 100 Meilen zurückgelegter Strecke wird bei jeder Kreatur 1 Willenskraft verbraucht. Hat eine Kreatur dafür zu wenig, so schafft es ihre Seele nicht im Körper zu bleiben und wird von diesem getrennt. Der Körper kommt damit leblos am Ziel an und die Seele irrt dort herum, wo sie zuletzt genug Willenskraft für die Reise hatte. Sie wird ein rastloses Gespenst, das versucht in seinen Körper zurückzufinden. Gelingt dies nicht innerhalb von wenigen Minuten, so erleidet der Körper einen irreversiblen Gehirntod und kann nicht mehr betreten werden. Das Gespensterdasein bleibt aber solange, bis der Geist erfährt, dass er tot ist.</t>
+  </si>
+  <si>
+    <t>Wähle [5 / 50 / 500] Pfund an Zielobjekten in [Berührung / Selbst / 60 Fuß]. Die Objekte lösen sich [nach 1 Stunde / nach 1 Minute / nach 12 Sekunden] für [30 Minuten / 12 Stunden / 7 Tage] auf. In dieser Zeit erfahren sie keinerlei physische Veränderung. Wenn der Zauber endet, erscheinen die Objekte wieder dort, wo sie zuletzt waren. Der Zauber „Entzauberung“ kann diesen Zauber beenden, wenn der Wirkende von dem Objekt weiß, und am Ort des Verschwindens ist. Kreaturen können ihren Manipulationsresistenztest jede Minute wiederholen.</t>
+  </si>
+  <si>
+    <t>Wähle [5 / 50 / 500] Pfund an Zielgegenständen in [Berührung / 30 Fuß / Sichtweite]. Die Gegenstände lösen sich auf und erscheinen [nach 1 Stunde / nach 1 Minute / nach 12 Sekunden] an einem bekannten Zielpunkt [innerhalb von 1 Meile / innerhalb von 100 Meilen / innerhalb von 1000 Meilen]. Am Zielpunkt muss Platz für die Gegenstände sein, ansonsten erscheinen die Gegenstände in nächster Nähe.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 10 / 100] Zielkreaturen in [Sichtweite / 10 Meilen / unbegrenzter Entfernung]. Du kannst den Kreaturen für [1 Stunde / 3 Stunden / 12 Stunden] telepathische Nachrichten in einer von dir beherrschten akustischen Kommunikationsweise senden. Die Kreaturen [können nach deinen Nachrichten für die Dauer des Zaubers auf die gleiche Weise antworten / sehen dich und von dir berührte Gegenstände im Geist vor dir / nehmen keinerlei Kenntnis von deiner Identität]. Für je 100 Meilen Entfernung (der am weitesten entfernten Zielkreatur) wird bei dem Wirkenden 1 Willenskraft verbraucht. Hat er dafür zu wenig, so gehen für jeden fehlenden Punkt Willenskraft 10% des Nachrichteninhaltes verloren und kommen nicht beim Ziel an. Der Wirkende erfährt nicht, welche Teile. Will das Ziel antworten, so gelten für die Antwort dieselben Regeln.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Zielkreaturen in [Sichtweite / 10 Meilen / unbegrenzter Entfernung]. Du kannst den Kreaturen für [3 sinntragende Sätze / 1 Minute / 10 Minuten] telepathische Nachrichten in einer von dir beherrschten akustischen Kommunikationsweise senden. Das Ziel muss [dich kennen und einen dir grob bekannten Aufenthaltsort haben / dir bekannt sein und einen dir grob bekannten Aufenthaltsort haben / dir bekannt sein]. Für je 100 Meilen Entfernung (der am weitesten entfernten Zielkreatur) wird bei dem Wirkenden 1 Willenskraft verbraucht. Hat er dafür zu wenig, so gehen für jeden fehlenden Punkt Willenskraft 10% des Nachrichteninhaltes verloren und kommen nicht beim Ziel an. Der Wirkende erfährt nicht, welche Teile.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Zielkreaturen in [Berührung / 15 Fuß / 300 Fuß]. Du kannst den Kreaturen für [3 Sätze / 1 Minute / 10 Minuten] telepathische Nachrichten in einer von dir beherrschten akustischen Kommunikationsweise senden. Sie verstehen den Inhalt der Nachricht, sofern sie dessen Sinn begreifen können. Der Zauber funktioniert mit [Säugetieren / allen Tierartigen Kreaturen / allen Kreaturen]. Die Kreaturen können Antworten im Umfang von bis zu 3 Sätzen senden, dessen Sinn du automatisch begreifst.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 3] Zielkreaturen in [Sichtweite / 1 Meile / 100 Meilen]. Du kannst den Kreaturen für [3 sinntragende Sätze / 7 sinntragende Sätze / 10 sinntragende Sätze] telepathische Nachrichten in einer von dir beherrschten akustischen Kommunikationsweise senden. Die Nachricht wird mit einer Zeitverzögerung von [einem Tag / einer Stunde / einer Minute] empfangen. Das Ziel muss dich kennen und du musst es kennen. Nebensätze zählen als eigene Sätze, sofern sie einen Sinn vermitteln.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Zielkreaturen in [15 Fuß / 90 Fuß / Sichtweite]. Du kannst den Kreaturen für [3 Sätze / 1 Minute / 10 Minuten] telepathische Nachrichten in einer von dir beherrschten akustischen Kommunikationsweise senden. Die Kreatur [muss im Augenkontakt zu dir sein und erkennt den Absender von selbst / muss in deinem Sichtfeld sein und erkennt den Absender nicht von selbst / muss in deinem Sichtfeld sein, kennt den Absender und kann nach deinen Nachrichten für die Dauer des Zaubers auf die gleiche Weise antworten].</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Kreaturen in [Selbst und Berührung / 15 Fuß / 300 Fuß]. Sie können für [1 Minute / 1 Stunde / 8 Stunden] beliebig selbst-kontrolliert fliegen. Sie bewegen sich mit [20 / 40 / 60] Meilen pro Stunde. Gegenstände werden mit den Fliegenden mitbewegt. Während der Dauer des Zaubers wirkt kein Fahrtwind und kein Luftdruck, aber Luftverdünnung auf die Objekte.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 2 / 5] Zielkreaturen in [Selbst / Berührung / 60 Fuß]. Die Kreaturen können für [1 Minute / 30 Minuten / 3 Stunden] beliebig selbst-kontrolliert fliegen. Sie bewegen sich mit [einfacher / doppelter / dreifacher] Bewegungsgeschwindigkeit.</t>
+  </si>
+  <si>
+    <t>Wähle [5 / 50 / 500] Pfund an Zielobjekten in [Selbst / Berührung / 60 Fuß]. Die Objekte schweben für [1 Minute / 1 Stunde / 12 Stunden] über dem Boden (jedoch nicht über Flüssigkeitsoberflächen). Sie schweben in [1 / 3 / 10] Fuß Höhe.</t>
+  </si>
+  <si>
+    <t>Wähle [10 / 100 / 1000] Pfund an Zielgegenständen in [15 Fuß / 300 Fuß / Sichtweite]. Die Gegenstände werden von dir für [5 Sekunden / 1 Minute / 1 Stunde] beliebig ohne Berührung bewegt. Sie haben eine Bewegungsgeschwindigkeit von [20 / 40 / 60] und müssen in deinem Sichtfeld bleiben um nicht deiner Kontrolle zu entgleiten.</t>
+  </si>
+  <si>
+    <t>Wähle [1 / 3 / 10] Zielobjekte in [Selbst / 30 Fuß / Sichtweite]. Die Bewegung der Objekte wird für [2 Sekunden / 10 Sekunden / 1 Minute] verändert. Die Bewegungsgeschwindigkeit wird [halbiert / angehalten / halbiert und umgekehrt]. Der Zauber wirkt nur solange sich die Objekte in der Luft befinden. Landet ein fallendes Objekt mit halber Geschwindigkeit, so nimmt es in der Regel keinen Schaden.</t>
+  </si>
+  <si>
+    <t>Irreguläre (verbotene) Zauberei! Wirkung nur im Regelwerk nachzulesen...</t>
   </si>
 </sst>
 </file>
@@ -8224,7 +9031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8298,6 +9105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -16750,8 +17558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A19E005-4834-49D1-89BA-E12BAE5D6155}">
   <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+    <sheetView tabSelected="1" topLeftCell="B259" workbookViewId="0">
+      <selection activeCell="H285" sqref="H285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16760,6 +17568,7 @@
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="159" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -16813,6 +17622,9 @@
       <c r="H2">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>2875</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -16833,6 +17645,9 @@
       <c r="H3">
         <v>4</v>
       </c>
+      <c r="I3" t="s">
+        <v>2873</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -16856,6 +17671,9 @@
       <c r="H4">
         <v>4</v>
       </c>
+      <c r="I4" s="31" t="s">
+        <v>2874</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -16876,6 +17694,9 @@
       <c r="H5">
         <v>4</v>
       </c>
+      <c r="I5" t="s">
+        <v>2872</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -16896,6 +17717,9 @@
       <c r="H6">
         <v>4</v>
       </c>
+      <c r="I6" t="s">
+        <v>2871</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -16922,6 +17746,9 @@
       <c r="H7">
         <v>4</v>
       </c>
+      <c r="I7" t="s">
+        <v>2870</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -16945,6 +17772,9 @@
       <c r="H8">
         <v>4</v>
       </c>
+      <c r="I8" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -16968,6 +17798,9 @@
       <c r="H9">
         <v>4</v>
       </c>
+      <c r="I9" t="s">
+        <v>2868</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -16991,6 +17824,9 @@
       <c r="H10">
         <v>4</v>
       </c>
+      <c r="I10" s="31" t="s">
+        <v>2867</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -17014,6 +17850,9 @@
       <c r="H11">
         <v>4</v>
       </c>
+      <c r="I11" t="s">
+        <v>2866</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -17037,6 +17876,9 @@
       <c r="H12">
         <v>4</v>
       </c>
+      <c r="I12" s="31" t="s">
+        <v>2865</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -17060,6 +17902,9 @@
       <c r="H13">
         <v>4</v>
       </c>
+      <c r="I13" t="s">
+        <v>2864</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -17083,6 +17928,9 @@
       <c r="H14">
         <v>4</v>
       </c>
+      <c r="I14" t="s">
+        <v>2863</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -17103,6 +17951,9 @@
       <c r="H15">
         <v>4</v>
       </c>
+      <c r="I15" s="31" t="s">
+        <v>2862</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -17123,8 +17974,11 @@
       <c r="H16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="31" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2051</v>
       </c>
@@ -17143,8 +17997,11 @@
       <c r="H17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2051</v>
       </c>
@@ -17163,8 +18020,11 @@
       <c r="H18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2051</v>
       </c>
@@ -17183,8 +18043,11 @@
       <c r="H19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2051</v>
       </c>
@@ -17203,8 +18066,11 @@
       <c r="H20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2051</v>
       </c>
@@ -17223,8 +18089,11 @@
       <c r="H21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2051</v>
       </c>
@@ -17243,8 +18112,11 @@
       <c r="H22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2051</v>
       </c>
@@ -17263,8 +18135,11 @@
       <c r="H23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2051</v>
       </c>
@@ -17283,8 +18158,11 @@
       <c r="H24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2051</v>
       </c>
@@ -17303,8 +18181,11 @@
       <c r="H25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2051</v>
       </c>
@@ -17323,8 +18204,11 @@
       <c r="H26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2051</v>
       </c>
@@ -17343,8 +18227,11 @@
       <c r="H27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2051</v>
       </c>
@@ -17363,8 +18250,11 @@
       <c r="H28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2051</v>
       </c>
@@ -17383,8 +18273,11 @@
       <c r="H29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2051</v>
       </c>
@@ -17403,8 +18296,11 @@
       <c r="H30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2051</v>
       </c>
@@ -17423,8 +18319,11 @@
       <c r="H31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2051</v>
       </c>
@@ -17443,8 +18342,11 @@
       <c r="H32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2051</v>
       </c>
@@ -17463,8 +18365,11 @@
       <c r="H33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2051</v>
       </c>
@@ -17483,8 +18388,11 @@
       <c r="H34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2051</v>
       </c>
@@ -17503,8 +18411,11 @@
       <c r="H35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2051</v>
       </c>
@@ -17526,8 +18437,11 @@
       <c r="H36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="31" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2051</v>
       </c>
@@ -17546,8 +18460,11 @@
       <c r="H37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="31" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2051</v>
       </c>
@@ -17566,8 +18483,11 @@
       <c r="H38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2051</v>
       </c>
@@ -17586,8 +18506,11 @@
       <c r="H39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2051</v>
       </c>
@@ -17606,8 +18529,11 @@
       <c r="H40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2051</v>
       </c>
@@ -17626,8 +18552,11 @@
       <c r="H41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2051</v>
       </c>
@@ -17646,8 +18575,11 @@
       <c r="H42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="31" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2051</v>
       </c>
@@ -17666,8 +18598,11 @@
       <c r="H43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2051</v>
       </c>
@@ -17686,8 +18621,11 @@
       <c r="H44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2051</v>
       </c>
@@ -17706,8 +18644,11 @@
       <c r="H45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2051</v>
       </c>
@@ -17726,8 +18667,11 @@
       <c r="H46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2051</v>
       </c>
@@ -17746,8 +18690,11 @@
       <c r="H47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2051</v>
       </c>
@@ -17766,8 +18713,11 @@
       <c r="H48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2051</v>
       </c>
@@ -17786,8 +18736,11 @@
       <c r="H49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2051</v>
       </c>
@@ -17809,8 +18762,11 @@
       <c r="H50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2051</v>
       </c>
@@ -17829,8 +18785,11 @@
       <c r="H51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2051</v>
       </c>
@@ -17849,8 +18808,11 @@
       <c r="H52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="31" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2051</v>
       </c>
@@ -17869,8 +18831,11 @@
       <c r="H53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2051</v>
       </c>
@@ -17889,8 +18854,11 @@
       <c r="H54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2051</v>
       </c>
@@ -17909,8 +18877,11 @@
       <c r="H55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2051</v>
       </c>
@@ -17929,8 +18900,11 @@
       <c r="H56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2051</v>
       </c>
@@ -17949,8 +18923,11 @@
       <c r="H57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2051</v>
       </c>
@@ -17969,8 +18946,11 @@
       <c r="H58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2051</v>
       </c>
@@ -17989,8 +18969,11 @@
       <c r="H59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="31" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2051</v>
       </c>
@@ -18009,8 +18992,11 @@
       <c r="H60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2051</v>
       </c>
@@ -18029,8 +19015,11 @@
       <c r="H61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="31" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2051</v>
       </c>
@@ -18049,8 +19038,11 @@
       <c r="H62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2051</v>
       </c>
@@ -18069,8 +19061,11 @@
       <c r="H63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2051</v>
       </c>
@@ -18089,8 +19084,11 @@
       <c r="H64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2051</v>
       </c>
@@ -18112,8 +19110,11 @@
       <c r="H65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2051</v>
       </c>
@@ -18132,8 +19133,11 @@
       <c r="H66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2051</v>
       </c>
@@ -18155,8 +19159,11 @@
       <c r="H67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2051</v>
       </c>
@@ -18178,8 +19185,11 @@
       <c r="H68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2051</v>
       </c>
@@ -18204,8 +19214,11 @@
       <c r="H69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2051</v>
       </c>
@@ -18227,8 +19240,11 @@
       <c r="H70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2051</v>
       </c>
@@ -18253,8 +19269,11 @@
       <c r="H71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2051</v>
       </c>
@@ -18273,8 +19292,11 @@
       <c r="H72">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2051</v>
       </c>
@@ -18293,8 +19315,11 @@
       <c r="H73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="31" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2051</v>
       </c>
@@ -18316,8 +19341,11 @@
       <c r="H74">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2051</v>
       </c>
@@ -18336,8 +19364,11 @@
       <c r="H75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2051</v>
       </c>
@@ -18359,8 +19390,11 @@
       <c r="H76">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2051</v>
       </c>
@@ -18379,8 +19413,11 @@
       <c r="H77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2051</v>
       </c>
@@ -18399,8 +19436,11 @@
       <c r="H78">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2051</v>
       </c>
@@ -18419,8 +19459,11 @@
       <c r="H79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2051</v>
       </c>
@@ -18439,8 +19482,11 @@
       <c r="H80">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2051</v>
       </c>
@@ -18462,8 +19508,11 @@
       <c r="H81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="31" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2051</v>
       </c>
@@ -18482,8 +19531,11 @@
       <c r="H82">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="29" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2051</v>
       </c>
@@ -18502,8 +19554,11 @@
       <c r="H83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="31" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2051</v>
       </c>
@@ -18525,8 +19580,11 @@
       <c r="H84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2051</v>
       </c>
@@ -18548,8 +19606,11 @@
       <c r="H85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2051</v>
       </c>
@@ -18568,8 +19629,11 @@
       <c r="H86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2051</v>
       </c>
@@ -18588,8 +19652,11 @@
       <c r="H87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>2051</v>
       </c>
@@ -18608,8 +19675,11 @@
       <c r="H88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>2051</v>
       </c>
@@ -18628,8 +19698,11 @@
       <c r="H89">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2051</v>
       </c>
@@ -18648,8 +19721,11 @@
       <c r="H90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2051</v>
       </c>
@@ -18668,8 +19744,11 @@
       <c r="H91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2051</v>
       </c>
@@ -18688,8 +19767,11 @@
       <c r="H92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>2051</v>
       </c>
@@ -18708,8 +19790,11 @@
       <c r="H93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2051</v>
       </c>
@@ -18728,8 +19813,11 @@
       <c r="H94">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2051</v>
       </c>
@@ -18748,8 +19836,11 @@
       <c r="H95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="31" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2051</v>
       </c>
@@ -18768,8 +19859,11 @@
       <c r="H96">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>2051</v>
       </c>
@@ -18788,8 +19882,11 @@
       <c r="H97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>2051</v>
       </c>
@@ -18808,8 +19905,11 @@
       <c r="H98">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2051</v>
       </c>
@@ -18828,8 +19928,11 @@
       <c r="H99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2051</v>
       </c>
@@ -18848,8 +19951,11 @@
       <c r="H100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>2051</v>
       </c>
@@ -18868,8 +19974,11 @@
       <c r="H101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2051</v>
       </c>
@@ -18888,8 +19997,11 @@
       <c r="H102">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2051</v>
       </c>
@@ -18908,8 +20020,11 @@
       <c r="H103">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2051</v>
       </c>
@@ -18928,8 +20043,11 @@
       <c r="H104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>2051</v>
       </c>
@@ -18948,8 +20066,11 @@
       <c r="H105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>2051</v>
       </c>
@@ -18968,8 +20089,11 @@
       <c r="H106">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>2051</v>
       </c>
@@ -18988,8 +20112,11 @@
       <c r="H107">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>2051</v>
       </c>
@@ -19011,8 +20138,11 @@
       <c r="H108">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="31" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2051</v>
       </c>
@@ -19031,8 +20161,11 @@
       <c r="H109">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2051</v>
       </c>
@@ -19051,8 +20184,11 @@
       <c r="H110">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2051</v>
       </c>
@@ -19071,8 +20207,11 @@
       <c r="H111">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2051</v>
       </c>
@@ -19091,8 +20230,11 @@
       <c r="H112">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" s="31" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>2051</v>
       </c>
@@ -19111,8 +20253,11 @@
       <c r="H113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>2051</v>
       </c>
@@ -19131,8 +20276,11 @@
       <c r="H114">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>2051</v>
       </c>
@@ -19151,8 +20299,11 @@
       <c r="H115">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>2051</v>
       </c>
@@ -19171,8 +20322,11 @@
       <c r="H116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>2051</v>
       </c>
@@ -19191,8 +20345,11 @@
       <c r="H117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2051</v>
       </c>
@@ -19211,8 +20368,11 @@
       <c r="H118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2051</v>
       </c>
@@ -19231,8 +20391,11 @@
       <c r="H119">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2051</v>
       </c>
@@ -19251,8 +20414,11 @@
       <c r="H120">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2051</v>
       </c>
@@ -19271,8 +20437,11 @@
       <c r="H121">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2051</v>
       </c>
@@ -19291,8 +20460,11 @@
       <c r="H122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2051</v>
       </c>
@@ -19314,8 +20486,11 @@
       <c r="H123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2051</v>
       </c>
@@ -19337,8 +20512,11 @@
       <c r="H124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2051</v>
       </c>
@@ -19360,8 +20538,11 @@
       <c r="H125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" s="31" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2051</v>
       </c>
@@ -19383,8 +20564,11 @@
       <c r="H126">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2051</v>
       </c>
@@ -19403,8 +20587,11 @@
       <c r="H127">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" s="31" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2051</v>
       </c>
@@ -19423,8 +20610,11 @@
       <c r="H128">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2051</v>
       </c>
@@ -19443,8 +20633,11 @@
       <c r="H129">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="31" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2051</v>
       </c>
@@ -19463,8 +20656,11 @@
       <c r="H130">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2051</v>
       </c>
@@ -19483,8 +20679,11 @@
       <c r="H131">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2051</v>
       </c>
@@ -19503,8 +20702,11 @@
       <c r="H132">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2051</v>
       </c>
@@ -19523,8 +20725,11 @@
       <c r="H133">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2051</v>
       </c>
@@ -19543,8 +20748,11 @@
       <c r="H134">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2051</v>
       </c>
@@ -19563,8 +20771,11 @@
       <c r="H135">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2051</v>
       </c>
@@ -19583,8 +20794,11 @@
       <c r="H136">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2051</v>
       </c>
@@ -19603,8 +20817,11 @@
       <c r="H137">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2051</v>
       </c>
@@ -19623,8 +20840,11 @@
       <c r="H138">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2051</v>
       </c>
@@ -19643,8 +20863,11 @@
       <c r="H139">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2051</v>
       </c>
@@ -19663,8 +20886,11 @@
       <c r="H140">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2051</v>
       </c>
@@ -19683,8 +20909,11 @@
       <c r="H141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2051</v>
       </c>
@@ -19703,8 +20932,11 @@
       <c r="H142">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2051</v>
       </c>
@@ -19723,8 +20955,11 @@
       <c r="H143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2051</v>
       </c>
@@ -19743,8 +20978,11 @@
       <c r="H144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2051</v>
       </c>
@@ -19763,8 +21001,11 @@
       <c r="H145">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2051</v>
       </c>
@@ -19783,8 +21024,11 @@
       <c r="H146">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2051</v>
       </c>
@@ -19803,8 +21047,11 @@
       <c r="H147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2051</v>
       </c>
@@ -19826,8 +21073,11 @@
       <c r="H148">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2051</v>
       </c>
@@ -19849,8 +21099,11 @@
       <c r="H149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2051</v>
       </c>
@@ -19872,8 +21125,11 @@
       <c r="H150">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>2051</v>
       </c>
@@ -19895,8 +21151,11 @@
       <c r="H151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2051</v>
       </c>
@@ -19915,8 +21174,11 @@
       <c r="H152">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2051</v>
       </c>
@@ -19935,8 +21197,11 @@
       <c r="H153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2051</v>
       </c>
@@ -19955,8 +21220,11 @@
       <c r="H154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2051</v>
       </c>
@@ -19978,8 +21246,11 @@
       <c r="H155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2051</v>
       </c>
@@ -20001,8 +21272,11 @@
       <c r="H156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2051</v>
       </c>
@@ -20021,8 +21295,11 @@
       <c r="H157">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157" s="31" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2051</v>
       </c>
@@ -20041,8 +21318,11 @@
       <c r="H158">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I158" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2051</v>
       </c>
@@ -20061,8 +21341,11 @@
       <c r="H159">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2051</v>
       </c>
@@ -20081,8 +21364,11 @@
       <c r="H160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I160" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2051</v>
       </c>
@@ -20101,8 +21387,11 @@
       <c r="H161">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I161" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2056</v>
       </c>
@@ -20124,8 +21413,11 @@
       <c r="H162">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2056</v>
       </c>
@@ -20144,8 +21436,11 @@
       <c r="H163">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2056</v>
       </c>
@@ -20164,8 +21459,11 @@
       <c r="H164">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2056</v>
       </c>
@@ -20184,8 +21482,11 @@
       <c r="H165">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2056</v>
       </c>
@@ -20204,8 +21505,11 @@
       <c r="H166">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2056</v>
       </c>
@@ -20224,8 +21528,11 @@
       <c r="H167">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2056</v>
       </c>
@@ -20247,8 +21554,11 @@
       <c r="H168">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2056</v>
       </c>
@@ -20267,8 +21577,11 @@
       <c r="H169">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2056</v>
       </c>
@@ -20287,8 +21600,11 @@
       <c r="H170">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2056</v>
       </c>
@@ -20307,8 +21623,11 @@
       <c r="H171">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2056</v>
       </c>
@@ -20327,8 +21646,11 @@
       <c r="H172">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2056</v>
       </c>
@@ -20347,8 +21669,11 @@
       <c r="H173">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2056</v>
       </c>
@@ -20367,8 +21692,11 @@
       <c r="H174">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I174" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2056</v>
       </c>
@@ -20390,8 +21718,11 @@
       <c r="H175">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2056</v>
       </c>
@@ -20413,8 +21744,11 @@
       <c r="H176">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I176" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2056</v>
       </c>
@@ -20433,8 +21767,11 @@
       <c r="H177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I177" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2056</v>
       </c>
@@ -20453,8 +21790,11 @@
       <c r="H178">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2056</v>
       </c>
@@ -20473,8 +21813,11 @@
       <c r="H179">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I179" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2083</v>
       </c>
@@ -20493,8 +21836,11 @@
       <c r="H180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I180" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2083</v>
       </c>
@@ -20513,8 +21859,11 @@
       <c r="H181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I181" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>2083</v>
       </c>
@@ -20533,8 +21882,11 @@
       <c r="H182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I182" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2083</v>
       </c>
@@ -20553,8 +21905,11 @@
       <c r="H183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2083</v>
       </c>
@@ -20573,8 +21928,11 @@
       <c r="H184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I184" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>2083</v>
       </c>
@@ -20593,8 +21951,11 @@
       <c r="H185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I185" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2083</v>
       </c>
@@ -20613,8 +21974,11 @@
       <c r="H186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I186" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2083</v>
       </c>
@@ -20633,8 +21997,11 @@
       <c r="H187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I187" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>2083</v>
       </c>
@@ -20653,8 +22020,11 @@
       <c r="H188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I188" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>2103</v>
       </c>
@@ -20676,8 +22046,11 @@
       <c r="H189">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I189" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2103</v>
       </c>
@@ -20696,8 +22069,11 @@
       <c r="H190">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I190" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>2103</v>
       </c>
@@ -20716,8 +22092,11 @@
       <c r="H191">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>2103</v>
       </c>
@@ -20736,8 +22115,11 @@
       <c r="H192">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I192" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>2103</v>
       </c>
@@ -20756,8 +22138,11 @@
       <c r="H193">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I193" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>2103</v>
       </c>
@@ -20779,8 +22164,11 @@
       <c r="H194">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I194" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>2103</v>
       </c>
@@ -20799,8 +22187,11 @@
       <c r="H195">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I195" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>2103</v>
       </c>
@@ -20819,8 +22210,11 @@
       <c r="H196">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I196" s="31" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>2103</v>
       </c>
@@ -20839,8 +22233,11 @@
       <c r="H197">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I197" s="31" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>2103</v>
       </c>
@@ -20865,8 +22262,11 @@
       <c r="H198">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I198" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>2103</v>
       </c>
@@ -20888,8 +22288,11 @@
       <c r="H199">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I199" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>2103</v>
       </c>
@@ -20908,8 +22311,11 @@
       <c r="H200">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I200" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>2103</v>
       </c>
@@ -20928,8 +22334,11 @@
       <c r="H201">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I201" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>2103</v>
       </c>
@@ -20948,8 +22357,11 @@
       <c r="H202">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I202" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>2103</v>
       </c>
@@ -20968,8 +22380,11 @@
       <c r="H203">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I203" s="31" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>2103</v>
       </c>
@@ -20988,8 +22403,11 @@
       <c r="H204">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I204" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>2103</v>
       </c>
@@ -21008,8 +22426,11 @@
       <c r="H205">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I205" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>2103</v>
       </c>
@@ -21028,8 +22449,11 @@
       <c r="H206">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I206" s="31" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2103</v>
       </c>
@@ -21051,8 +22475,11 @@
       <c r="H207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I207" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>2103</v>
       </c>
@@ -21071,8 +22498,11 @@
       <c r="H208">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I208" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>2103</v>
       </c>
@@ -21091,8 +22521,11 @@
       <c r="H209">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I209" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>2103</v>
       </c>
@@ -21111,8 +22544,11 @@
       <c r="H210">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I210" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>2103</v>
       </c>
@@ -21131,8 +22567,11 @@
       <c r="H211">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I211" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>2103</v>
       </c>
@@ -21154,8 +22593,11 @@
       <c r="H212">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I212" s="31" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>2124</v>
       </c>
@@ -21174,8 +22616,11 @@
       <c r="H213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>2124</v>
       </c>
@@ -21194,8 +22639,11 @@
       <c r="H214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I214" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>2124</v>
       </c>
@@ -21214,8 +22662,11 @@
       <c r="H215">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I215" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>2124</v>
       </c>
@@ -21234,8 +22685,11 @@
       <c r="H216">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I216" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>2124</v>
       </c>
@@ -21254,8 +22708,11 @@
       <c r="H217">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I217" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>2124</v>
       </c>
@@ -21274,8 +22731,11 @@
       <c r="H218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I218" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>2124</v>
       </c>
@@ -21294,8 +22754,11 @@
       <c r="H219">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I219" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>2124</v>
       </c>
@@ -21314,8 +22777,11 @@
       <c r="H220">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I220" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>2124</v>
       </c>
@@ -21334,8 +22800,11 @@
       <c r="H221">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I221" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>2124</v>
       </c>
@@ -21354,8 +22823,11 @@
       <c r="H222">
         <v>2</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I222" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>2124</v>
       </c>
@@ -21374,8 +22846,11 @@
       <c r="H223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I223" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>2124</v>
       </c>
@@ -21394,8 +22869,11 @@
       <c r="H224">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I224" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>2124</v>
       </c>
@@ -21414,8 +22892,11 @@
       <c r="H225">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I225" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>2124</v>
       </c>
@@ -21434,8 +22915,11 @@
       <c r="H226">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I226" s="31" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>2124</v>
       </c>
@@ -21454,8 +22938,11 @@
       <c r="H227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I227" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>2124</v>
       </c>
@@ -21474,8 +22961,11 @@
       <c r="H228">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I228" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>2124</v>
       </c>
@@ -21494,8 +22984,11 @@
       <c r="H229">
         <v>4</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I229" s="31" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>2124</v>
       </c>
@@ -21514,8 +23007,11 @@
       <c r="H230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I230" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>2124</v>
       </c>
@@ -21534,8 +23030,11 @@
       <c r="H231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I231" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>2124</v>
       </c>
@@ -21554,8 +23053,11 @@
       <c r="H232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I232" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>2124</v>
       </c>
@@ -21574,8 +23076,11 @@
       <c r="H233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I233" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>2124</v>
       </c>
@@ -21594,8 +23099,11 @@
       <c r="H234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I234" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>2124</v>
       </c>
@@ -21614,8 +23122,11 @@
       <c r="H235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I235" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>2124</v>
       </c>
@@ -21634,8 +23145,11 @@
       <c r="H236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I236" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>2124</v>
       </c>
@@ -21654,8 +23168,11 @@
       <c r="H237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I237" s="31" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>2124</v>
       </c>
@@ -21674,8 +23191,11 @@
       <c r="H238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I238" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>2138</v>
       </c>
@@ -21694,8 +23214,11 @@
       <c r="H239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I239" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>2138</v>
       </c>
@@ -21714,8 +23237,11 @@
       <c r="H240">
         <v>3</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I240" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>2138</v>
       </c>
@@ -21734,8 +23260,11 @@
       <c r="H241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I241" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>2138</v>
       </c>
@@ -21754,8 +23283,11 @@
       <c r="H242">
         <v>3</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I242" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>2138</v>
       </c>
@@ -21774,8 +23306,11 @@
       <c r="H243">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I243" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>2138</v>
       </c>
@@ -21794,8 +23329,11 @@
       <c r="H244">
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I244" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>2138</v>
       </c>
@@ -21814,8 +23352,11 @@
       <c r="H245">
         <v>3</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I245" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>2138</v>
       </c>
@@ -21834,8 +23375,11 @@
       <c r="H246">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I246" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>2138</v>
       </c>
@@ -21854,8 +23398,11 @@
       <c r="H247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I247" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>2138</v>
       </c>
@@ -21874,8 +23421,11 @@
       <c r="H248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I248" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>2138</v>
       </c>
@@ -21894,8 +23444,11 @@
       <c r="H249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I249" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>2138</v>
       </c>
@@ -21914,8 +23467,11 @@
       <c r="H250">
         <v>3</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I250" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>2138</v>
       </c>
@@ -21937,8 +23493,11 @@
       <c r="H251">
         <v>3</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I251" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>2157</v>
       </c>
@@ -21957,8 +23516,11 @@
       <c r="H252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I252" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>2157</v>
       </c>
@@ -21977,8 +23539,11 @@
       <c r="H253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I253" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>2157</v>
       </c>
@@ -21997,8 +23562,11 @@
       <c r="H254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I254" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>2157</v>
       </c>
@@ -22017,8 +23585,11 @@
       <c r="H255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I255" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>2157</v>
       </c>
@@ -22037,8 +23608,11 @@
       <c r="H256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I256" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>2157</v>
       </c>
@@ -22057,8 +23631,11 @@
       <c r="H257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I257" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>2157</v>
       </c>
@@ -22077,8 +23654,11 @@
       <c r="H258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I258" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>2157</v>
       </c>
@@ -22097,8 +23677,11 @@
       <c r="H259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I259" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>2157</v>
       </c>
@@ -22117,8 +23700,11 @@
       <c r="H260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I260" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>2157</v>
       </c>
@@ -22137,8 +23723,11 @@
       <c r="H261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I261" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>2157</v>
       </c>
@@ -22157,8 +23746,11 @@
       <c r="H262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I262" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>2157</v>
       </c>
@@ -22177,8 +23769,11 @@
       <c r="H263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I263" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>2157</v>
       </c>
@@ -22197,8 +23792,11 @@
       <c r="H264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I264" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>2157</v>
       </c>
@@ -22217,8 +23815,11 @@
       <c r="H265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I265" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>2157</v>
       </c>
@@ -22237,8 +23838,11 @@
       <c r="H266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I266" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>2157</v>
       </c>
@@ -22257,8 +23861,11 @@
       <c r="H267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I267" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>2157</v>
       </c>
@@ -22277,8 +23884,11 @@
       <c r="H268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I268" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>2157</v>
       </c>
@@ -22297,8 +23907,11 @@
       <c r="H269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I269" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>2163</v>
       </c>
@@ -22317,8 +23930,11 @@
       <c r="H270">
         <v>3</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I270" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>2163</v>
       </c>
@@ -22337,8 +23953,11 @@
       <c r="H271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I271" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>2163</v>
       </c>
@@ -22357,8 +23976,11 @@
       <c r="H272">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I272" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>2163</v>
       </c>
@@ -22377,8 +23999,11 @@
       <c r="H273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I273" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>2163</v>
       </c>
@@ -22397,8 +24022,11 @@
       <c r="H274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I274" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>2170</v>
       </c>
@@ -22417,8 +24045,11 @@
       <c r="H275">
         <v>3</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I275" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>2170</v>
       </c>
@@ -22437,8 +24068,11 @@
       <c r="H276">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I276" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>2170</v>
       </c>
@@ -22457,8 +24091,11 @@
       <c r="H277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I277" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>2170</v>
       </c>
@@ -22477,8 +24114,11 @@
       <c r="H278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I278" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>2170</v>
       </c>
@@ -22497,8 +24137,11 @@
       <c r="H279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I279" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>2170</v>
       </c>
@@ -22520,8 +24163,11 @@
       <c r="H280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I280" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>2170</v>
       </c>
@@ -22543,8 +24189,11 @@
       <c r="H281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I281" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>2170</v>
       </c>
@@ -22563,8 +24212,11 @@
       <c r="H282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I282" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>2170</v>
       </c>
@@ -22586,8 +24238,11 @@
       <c r="H283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I283" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>2174</v>
       </c>
@@ -22606,8 +24261,11 @@
       <c r="H284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I284" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>2174</v>
       </c>
@@ -22626,8 +24284,11 @@
       <c r="H285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I285" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>2174</v>
       </c>
@@ -22645,6 +24306,9 @@
       </c>
       <c r="H286">
         <v>0</v>
+      </c>
+      <c r="I286" t="s">
+        <v>2876</v>
       </c>
     </row>
   </sheetData>
@@ -22657,7 +24321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC89094B-669E-435B-929B-093DFFD981B1}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
